--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="596">
   <si>
     <t>Taxable</t>
   </si>
@@ -1773,6 +1773,48 @@
   </si>
   <si>
     <t>2022-23/14552</t>
+  </si>
+  <si>
+    <t>RITAJYA INDUSTRY PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>19AAICR6541G1Z4</t>
+  </si>
+  <si>
+    <t>RIPL/22-23/671</t>
+  </si>
+  <si>
+    <t>RAJESH ROADLINES PVT. LTD.</t>
+  </si>
+  <si>
+    <t>KB00-1693655</t>
+  </si>
+  <si>
+    <t>BLR7-1825214</t>
+  </si>
+  <si>
+    <t>23301C0000165094</t>
+  </si>
+  <si>
+    <t>MD/22/23/023127</t>
+  </si>
+  <si>
+    <t>Digi22-23/02-155</t>
+  </si>
+  <si>
+    <t>b22-23MQ426</t>
+  </si>
+  <si>
+    <t>b22-23MQ428</t>
+  </si>
+  <si>
+    <t>b22-23MQ429</t>
+  </si>
+  <si>
+    <t>b22-23MQ430</t>
+  </si>
+  <si>
+    <t>478/22-23</t>
   </si>
 </sst>
 </file>
@@ -2232,9 +2274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2463,18 +2502,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2484,37 +2544,28 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2525,15 +2576,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4026,30 +4068,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -4081,7 +4123,7 @@
       <c r="I4" s="23"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" s="68" customFormat="1" ht="15.6">
+    <row r="5" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A5" s="27">
         <v>44657</v>
       </c>
@@ -4105,10 +4147,10 @@
         <f t="shared" ref="H5:H11" si="0">D5+E5+F5+G5</f>
         <v>110282.79999999999</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-    </row>
-    <row r="6" spans="1:10" s="68" customFormat="1" ht="15.6">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A6" s="27">
         <v>44657</v>
       </c>
@@ -4132,10 +4174,10 @@
         <f t="shared" si="0"/>
         <v>50633.8</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" s="68" customFormat="1" ht="15.6">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A7" s="27">
         <v>44664</v>
       </c>
@@ -4159,10 +4201,10 @@
         <f t="shared" si="0"/>
         <v>465153.64</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" s="68" customFormat="1" ht="15.6">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A8" s="27">
         <v>44664</v>
       </c>
@@ -4186,10 +4228,10 @@
         <f t="shared" si="0"/>
         <v>66245.2</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" s="68" customFormat="1" ht="15.6">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A9" s="27">
         <v>44673</v>
       </c>
@@ -4213,8 +4255,8 @@
         <f t="shared" si="0"/>
         <v>119449.04000000001</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="15.6">
       <c r="A10" s="37">
@@ -4243,7 +4285,7 @@
       <c r="I10" s="29"/>
       <c r="J10" s="29"/>
     </row>
-    <row r="11" spans="1:10" s="68" customFormat="1" ht="15.6">
+    <row r="11" spans="1:10" s="67" customFormat="1" ht="15.6">
       <c r="A11" s="37">
         <v>44643</v>
       </c>
@@ -4267,51 +4309,51 @@
         <f t="shared" si="0"/>
         <v>132878.62</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-    </row>
-    <row r="12" spans="1:10" s="68" customFormat="1" ht="21">
-      <c r="A12" s="150" t="s">
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:10" s="67" customFormat="1" ht="21">
+      <c r="A12" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="150"/>
-      <c r="D12" s="69">
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="68">
         <f>SUM(D5:D11)</f>
         <v>818543</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <f>SUM(E5:E11)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="68">
         <f>SUM(F5:F11)</f>
         <v>73668.87</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="68">
         <f>SUM(G5:G11)</f>
         <v>73668.87</v>
       </c>
-      <c r="H12" s="69">
+      <c r="H12" s="68">
         <f>SUM(H5:H11)</f>
         <v>965880.74</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="140"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="25" t="s">
@@ -4379,7 +4421,7 @@
       <c r="B16" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="69" t="s">
         <v>61</v>
       </c>
       <c r="D16" s="21">
@@ -4479,29 +4521,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="22" customFormat="1" ht="15.6">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <v>44643</v>
       </c>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>22250</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>4005</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73">
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="72">
         <f>D20+E20+F20+G20</f>
         <v>26255</v>
       </c>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73" t="s">
+      <c r="I20" s="72"/>
+      <c r="J20" s="72" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4535,59 +4577,59 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A22" s="151" t="s">
+      <c r="A22" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="152"/>
-      <c r="C22" s="153"/>
-      <c r="D22" s="74">
+      <c r="B22" s="147"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="73">
         <f>SUM(D15:D21)</f>
         <v>171530</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="73">
         <f>SUM(E15:E21)</f>
         <v>30657.599999999999</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="73">
         <f>SUM(F15:F21)</f>
         <v>54</v>
       </c>
-      <c r="G22" s="74">
+      <c r="G22" s="73">
         <f>SUM(G15:G21)</f>
         <v>54</v>
       </c>
-      <c r="H22" s="74">
+      <c r="H22" s="73">
         <f>SUM(H15:H20)</f>
         <v>201588.6</v>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="148"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="141"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
@@ -4782,11 +4824,11 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="24">
         <f>SUM(D27:D32)</f>
         <v>647194</v>
@@ -4811,18 +4853,18 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
     </row>
     <row r="35" spans="1:10" s="22" customFormat="1">
       <c r="A35" s="25" t="s">
@@ -4913,7 +4955,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" s="22" customFormat="1" ht="15.6">
-      <c r="A38" s="75">
+      <c r="A38" s="74">
         <v>44686</v>
       </c>
       <c r="B38" s="48" t="s">
@@ -5239,29 +5281,29 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="22" customFormat="1" ht="15.6">
-      <c r="A50" s="76">
+      <c r="A50" s="75">
         <v>44694</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="77">
+      <c r="D50" s="76">
         <v>22450</v>
       </c>
-      <c r="E50" s="77">
+      <c r="E50" s="76">
         <v>4041</v>
       </c>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77">
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76">
         <f t="shared" si="2"/>
         <v>26491</v>
       </c>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77" t="s">
+      <c r="I50" s="76"/>
+      <c r="J50" s="76" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5492,11 +5534,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A59" s="144" t="s">
+      <c r="A59" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="145"/>
-      <c r="C59" s="146"/>
+      <c r="B59" s="151"/>
+      <c r="C59" s="152"/>
       <c r="D59" s="24">
         <f>SUM(D36:D58)</f>
         <v>250017.81</v>
@@ -5521,30 +5563,30 @@
       <c r="J59" s="24"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="147" t="s">
+      <c r="A61" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="149"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="144"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="143"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="141"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
@@ -5795,11 +5837,11 @@
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A72" s="140" t="s">
+      <c r="A72" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="149"/>
       <c r="D72" s="24">
         <f>SUM(D64:D71)</f>
         <v>658373</v>
@@ -5824,18 +5866,18 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="141" t="s">
+      <c r="A73" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="142"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="143"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="140"/>
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="141"/>
     </row>
     <row r="74" spans="1:10" s="22" customFormat="1">
       <c r="A74" s="25" t="s">
@@ -5870,10 +5912,10 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="22" customFormat="1" ht="15.6">
-      <c r="A75" s="75">
+      <c r="A75" s="74">
         <v>44714</v>
       </c>
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="77" t="s">
         <v>84</v>
       </c>
       <c r="C75" s="48" t="s">
@@ -5926,31 +5968,31 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="22" customFormat="1" ht="15.6">
-      <c r="A77" s="76">
+      <c r="A77" s="75">
         <v>44718</v>
       </c>
-      <c r="B77" s="77" t="s">
+      <c r="B77" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="77">
+      <c r="C77" s="76">
         <v>1070</v>
       </c>
-      <c r="D77" s="77">
+      <c r="D77" s="76">
         <v>14090</v>
       </c>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77">
+      <c r="E77" s="76"/>
+      <c r="F77" s="76">
         <v>1705.5</v>
       </c>
-      <c r="G77" s="77">
+      <c r="G77" s="76">
         <v>1705.5</v>
       </c>
-      <c r="H77" s="77">
+      <c r="H77" s="76">
         <f t="shared" ref="H77:H97" si="4">D77+E77+F77+G77</f>
         <v>17501</v>
       </c>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77" t="s">
+      <c r="I77" s="76"/>
+      <c r="J77" s="76" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6012,7 +6054,7 @@
       <c r="A80" s="27">
         <v>44720</v>
       </c>
-      <c r="B80" s="77" t="s">
+      <c r="B80" s="76" t="s">
         <v>45</v>
       </c>
       <c r="C80" s="14" t="s">
@@ -6039,7 +6081,7 @@
       <c r="A81" s="27">
         <v>44722</v>
       </c>
-      <c r="B81" s="77" t="s">
+      <c r="B81" s="76" t="s">
         <v>84</v>
       </c>
       <c r="C81" s="14" t="s">
@@ -6066,7 +6108,7 @@
       <c r="A82" s="27">
         <v>44723</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="76" t="s">
         <v>84</v>
       </c>
       <c r="C82" s="14" t="s">
@@ -6093,7 +6135,7 @@
       <c r="A83" s="27">
         <v>44726</v>
       </c>
-      <c r="B83" s="77" t="s">
+      <c r="B83" s="76" t="s">
         <v>84</v>
       </c>
       <c r="C83" s="14" t="s">
@@ -6120,7 +6162,7 @@
       <c r="A84" s="27">
         <v>44730</v>
       </c>
-      <c r="B84" s="77" t="s">
+      <c r="B84" s="76" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="14" t="s">
@@ -6147,7 +6189,7 @@
       <c r="A85" s="27">
         <v>44732</v>
       </c>
-      <c r="B85" s="77" t="s">
+      <c r="B85" s="76" t="s">
         <v>67</v>
       </c>
       <c r="C85" s="14">
@@ -6176,7 +6218,7 @@
       <c r="A86" s="27">
         <v>44733</v>
       </c>
-      <c r="B86" s="77" t="s">
+      <c r="B86" s="76" t="s">
         <v>152</v>
       </c>
       <c r="C86" s="14" t="s">
@@ -6203,7 +6245,7 @@
       <c r="A87" s="27">
         <v>44733</v>
       </c>
-      <c r="B87" s="77" t="s">
+      <c r="B87" s="76" t="s">
         <v>84</v>
       </c>
       <c r="C87" s="14" t="s">
@@ -6230,7 +6272,7 @@
       <c r="A88" s="27">
         <v>44734</v>
       </c>
-      <c r="B88" s="77" t="s">
+      <c r="B88" s="76" t="s">
         <v>142</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -6259,7 +6301,7 @@
       <c r="A89" s="27">
         <v>44734</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="76" t="s">
         <v>145</v>
       </c>
       <c r="C89" s="14">
@@ -6288,7 +6330,7 @@
       <c r="A90" s="27">
         <v>44734</v>
       </c>
-      <c r="B90" s="77" t="s">
+      <c r="B90" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C90" s="14" t="s">
@@ -6317,7 +6359,7 @@
       <c r="A91" s="27">
         <v>44735</v>
       </c>
-      <c r="B91" s="77" t="s">
+      <c r="B91" s="76" t="s">
         <v>166</v>
       </c>
       <c r="C91" s="14" t="s">
@@ -6344,7 +6386,7 @@
       <c r="A92" s="27">
         <v>44735</v>
       </c>
-      <c r="B92" s="77" t="s">
+      <c r="B92" s="76" t="s">
         <v>160</v>
       </c>
       <c r="C92" s="14" t="s">
@@ -6371,7 +6413,7 @@
       <c r="A93" s="27">
         <v>44740</v>
       </c>
-      <c r="B93" s="77" t="s">
+      <c r="B93" s="76" t="s">
         <v>163</v>
       </c>
       <c r="C93" s="14" t="s">
@@ -6427,7 +6469,7 @@
       <c r="A95" s="27">
         <v>44740</v>
       </c>
-      <c r="B95" s="77" t="s">
+      <c r="B95" s="76" t="s">
         <v>45</v>
       </c>
       <c r="C95" s="14" t="s">
@@ -6509,11 +6551,11 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A98" s="144" t="s">
+      <c r="A98" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="145"/>
-      <c r="C98" s="146"/>
+      <c r="B98" s="151"/>
+      <c r="C98" s="152"/>
       <c r="D98" s="24">
         <f>SUM(D75:D97)</f>
         <v>407367.41000000003</v>
@@ -6538,18 +6580,18 @@
       <c r="J98" s="24"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="139"/>
-      <c r="B100" s="139"/>
-      <c r="C100" s="139"/>
-      <c r="D100" s="139"/>
-      <c r="E100" s="139"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="153"/>
+      <c r="C100" s="153"/>
+      <c r="D100" s="153"/>
+      <c r="E100" s="153"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="139"/>
-      <c r="B108" s="139"/>
-      <c r="C108" s="139"/>
-      <c r="D108" s="139"/>
-      <c r="E108" s="139"/>
+      <c r="A108" s="153"/>
+      <c r="B108" s="153"/>
+      <c r="C108" s="153"/>
+      <c r="D108" s="153"/>
+      <c r="E108" s="153"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="18"/>
@@ -6574,6 +6616,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A2:J2"/>
@@ -6586,11 +6633,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6622,30 +6664,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -6954,18 +6996,18 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -7086,10 +7128,10 @@
       <c r="A20" s="56">
         <v>44751</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="79" t="s">
         <v>204</v>
       </c>
       <c r="D20" s="57">
@@ -7105,7 +7147,7 @@
         <v>1240</v>
       </c>
       <c r="I20" s="57"/>
-      <c r="J20" s="80" t="s">
+      <c r="J20" s="79" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7334,11 +7376,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="155"/>
       <c r="D29" s="38">
         <f>SUM(D17:D28)</f>
         <v>310112.45</v>
@@ -7368,30 +7410,30 @@
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="147" t="s">
+      <c r="A31" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
-      <c r="D31" s="148"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="144"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="141"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
@@ -7592,18 +7634,18 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="141"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -7657,7 +7699,7 @@
       <c r="G42" s="32">
         <v>2699.91</v>
       </c>
-      <c r="H42" s="81">
+      <c r="H42" s="80">
         <f>D42+E42+F42+G42</f>
         <v>35398.82</v>
       </c>
@@ -7684,7 +7726,7 @@
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
-      <c r="H43" s="81">
+      <c r="H43" s="80">
         <f t="shared" ref="H43:H64" si="3">D43+E43+F43+G43</f>
         <v>21965.7</v>
       </c>
@@ -7697,28 +7739,28 @@
       <c r="A44" s="31">
         <v>44776</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="85" t="s">
+      <c r="C44" s="84" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="83">
+      <c r="D44" s="82">
         <v>2125</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83">
+      <c r="E44" s="82"/>
+      <c r="F44" s="82">
         <v>191.25</v>
       </c>
-      <c r="G44" s="83">
+      <c r="G44" s="82">
         <v>191.25</v>
       </c>
-      <c r="H44" s="84">
+      <c r="H44" s="83">
         <f t="shared" si="3"/>
         <v>2507.5</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="85" t="s">
+      <c r="I44" s="82"/>
+      <c r="J44" s="84" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7726,28 +7768,28 @@
       <c r="A45" s="31">
         <v>44776</v>
       </c>
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="85" t="s">
+      <c r="C45" s="84" t="s">
         <v>248</v>
       </c>
-      <c r="D45" s="83">
+      <c r="D45" s="82">
         <v>3430.39</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83">
+      <c r="E45" s="82"/>
+      <c r="F45" s="82">
         <v>297.48</v>
       </c>
-      <c r="G45" s="83">
+      <c r="G45" s="82">
         <v>297.48</v>
       </c>
-      <c r="H45" s="84">
+      <c r="H45" s="83">
         <f t="shared" si="3"/>
         <v>4025.35</v>
       </c>
-      <c r="I45" s="83"/>
-      <c r="J45" s="85" t="s">
+      <c r="I45" s="82"/>
+      <c r="J45" s="84" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7771,7 +7813,7 @@
       <c r="G46" s="33">
         <v>1322.85</v>
       </c>
-      <c r="H46" s="81">
+      <c r="H46" s="80">
         <f t="shared" si="3"/>
         <v>17344.009999999998</v>
       </c>
@@ -7798,7 +7840,7 @@
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
-      <c r="H47" s="81">
+      <c r="H47" s="80">
         <f t="shared" si="3"/>
         <v>10596.4</v>
       </c>
@@ -7827,7 +7869,7 @@
       <c r="G48" s="33">
         <v>79.650000000000006</v>
       </c>
-      <c r="H48" s="81">
+      <c r="H48" s="80">
         <f t="shared" si="3"/>
         <v>1044.3</v>
       </c>
@@ -7840,28 +7882,28 @@
       <c r="A49" s="31">
         <v>44781</v>
       </c>
-      <c r="B49" s="85" t="s">
+      <c r="B49" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="C49" s="85" t="s">
+      <c r="C49" s="84" t="s">
         <v>251</v>
       </c>
-      <c r="D49" s="83">
+      <c r="D49" s="82">
         <v>6039</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83">
+      <c r="E49" s="82"/>
+      <c r="F49" s="82">
         <v>543.51</v>
       </c>
-      <c r="G49" s="83">
+      <c r="G49" s="82">
         <v>543.51</v>
       </c>
-      <c r="H49" s="84">
+      <c r="H49" s="83">
         <f t="shared" si="3"/>
         <v>7126.02</v>
       </c>
-      <c r="I49" s="83"/>
-      <c r="J49" s="85" t="s">
+      <c r="I49" s="82"/>
+      <c r="J49" s="84" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7883,7 +7925,7 @@
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
-      <c r="H50" s="81">
+      <c r="H50" s="80">
         <f t="shared" si="3"/>
         <v>764</v>
       </c>
@@ -7910,7 +7952,7 @@
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
-      <c r="H51" s="81">
+      <c r="H51" s="80">
         <f t="shared" si="3"/>
         <v>236</v>
       </c>
@@ -7937,7 +7979,7 @@
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
-      <c r="H52" s="81">
+      <c r="H52" s="80">
         <f t="shared" si="3"/>
         <v>403</v>
       </c>
@@ -7966,7 +8008,7 @@
       <c r="G53" s="33">
         <v>118.17</v>
       </c>
-      <c r="H53" s="81">
+      <c r="H53" s="80">
         <f t="shared" si="3"/>
         <v>1549.3400000000001</v>
       </c>
@@ -7993,7 +8035,7 @@
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
-      <c r="H54" s="81">
+      <c r="H54" s="80">
         <f t="shared" si="3"/>
         <v>805</v>
       </c>
@@ -8020,7 +8062,7 @@
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
-      <c r="H55" s="81">
+      <c r="H55" s="80">
         <f t="shared" si="3"/>
         <v>21599.9</v>
       </c>
@@ -8047,7 +8089,7 @@
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
-      <c r="H56" s="81">
+      <c r="H56" s="80">
         <f t="shared" si="3"/>
         <v>337.96</v>
       </c>
@@ -8076,7 +8118,7 @@
       <c r="G57" s="33">
         <v>549.17999999999995</v>
       </c>
-      <c r="H57" s="81">
+      <c r="H57" s="80">
         <f t="shared" si="3"/>
         <v>7200.3600000000006</v>
       </c>
@@ -8105,7 +8147,7 @@
       <c r="G58" s="33">
         <v>1257.9000000000001</v>
       </c>
-      <c r="H58" s="81">
+      <c r="H58" s="80">
         <f t="shared" si="3"/>
         <v>11500.8</v>
       </c>
@@ -8132,7 +8174,7 @@
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
-      <c r="H59" s="81">
+      <c r="H59" s="80">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
@@ -8159,7 +8201,7 @@
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
-      <c r="H60" s="81">
+      <c r="H60" s="80">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
@@ -8186,7 +8228,7 @@
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
-      <c r="H61" s="81">
+      <c r="H61" s="80">
         <f t="shared" si="3"/>
         <v>599</v>
       </c>
@@ -8215,7 +8257,7 @@
       <c r="G62" s="33">
         <v>534.6</v>
       </c>
-      <c r="H62" s="81">
+      <c r="H62" s="80">
         <f t="shared" si="3"/>
         <v>7069.2000000000007</v>
       </c>
@@ -8244,7 +8286,7 @@
       <c r="G63" s="33">
         <v>261</v>
       </c>
-      <c r="H63" s="81">
+      <c r="H63" s="80">
         <f t="shared" si="3"/>
         <v>3422</v>
       </c>
@@ -8273,7 +8315,7 @@
       <c r="G64" s="51">
         <v>15211.08</v>
       </c>
-      <c r="H64" s="81">
+      <c r="H64" s="80">
         <f t="shared" si="3"/>
         <v>199434.15999999997</v>
       </c>
@@ -8283,11 +8325,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="156" t="s">
+      <c r="A65" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="156"/>
-      <c r="C65" s="156"/>
+      <c r="B65" s="157"/>
+      <c r="C65" s="157"/>
       <c r="D65" s="43">
         <f>SUM(D42:D64)</f>
         <v>300583.33</v>
@@ -8304,7 +8346,7 @@
         <f>SUM(G42:G64)</f>
         <v>23066.58</v>
       </c>
-      <c r="H65" s="82">
+      <c r="H65" s="81">
         <f>SUM(H42:H64)</f>
         <v>355458.81999999995</v>
       </c>
@@ -8312,30 +8354,30 @@
       <c r="J65" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="147" t="s">
+      <c r="A67" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="149"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="143"/>
+      <c r="D67" s="143"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
+      <c r="G67" s="143"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="143"/>
+      <c r="J67" s="144"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="143"/>
+      <c r="B68" s="140"/>
+      <c r="C68" s="140"/>
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="141"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
@@ -8478,18 +8520,18 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="143"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="141"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
@@ -8665,7 +8707,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="89" customFormat="1" ht="16.2" thickBot="1">
+    <row r="81" spans="1:10" s="88" customFormat="1" ht="16.2" thickBot="1">
       <c r="A81" s="37">
         <v>44824</v>
       </c>
@@ -8692,14 +8734,14 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="92" customFormat="1" ht="16.2" thickBot="1">
+    <row r="82" spans="1:10" s="91" customFormat="1" ht="16.2" thickBot="1">
       <c r="A82" s="37">
         <v>44824</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C82" s="93" t="s">
+      <c r="C82" s="92" t="s">
         <v>324</v>
       </c>
       <c r="D82" s="45">
@@ -8715,7 +8757,7 @@
         <v>330</v>
       </c>
       <c r="I82" s="45"/>
-      <c r="J82" s="93" t="s">
+      <c r="J82" s="92" t="s">
         <v>291</v>
       </c>
     </row>
@@ -8884,31 +8926,31 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="18" customFormat="1" ht="15.6">
-      <c r="A89" s="86">
+      <c r="A89" s="85">
         <v>44831</v>
       </c>
-      <c r="B89" s="77" t="s">
+      <c r="B89" s="76" t="s">
         <v>303</v>
       </c>
-      <c r="C89" s="87" t="s">
+      <c r="C89" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="D89" s="87">
+      <c r="D89" s="86">
         <v>850</v>
       </c>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87">
+      <c r="E89" s="86"/>
+      <c r="F89" s="86">
         <v>76.5</v>
       </c>
-      <c r="G89" s="87">
+      <c r="G89" s="86">
         <v>76.5</v>
       </c>
-      <c r="H89" s="87">
+      <c r="H89" s="86">
         <f t="shared" si="5"/>
         <v>1003</v>
       </c>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87" t="s">
+      <c r="I89" s="86"/>
+      <c r="J89" s="86" t="s">
         <v>305</v>
       </c>
     </row>
@@ -8937,11 +8979,11 @@
         <v>6874</v>
       </c>
       <c r="I90" s="45"/>
-      <c r="J90" s="90" t="s">
+      <c r="J90" s="89" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="89" customFormat="1" ht="15.6">
+    <row r="91" spans="1:10" s="88" customFormat="1" ht="15.6">
       <c r="A91" s="37">
         <v>44833</v>
       </c>
@@ -8968,14 +9010,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="88" customFormat="1" ht="15.6">
+    <row r="92" spans="1:10" s="87" customFormat="1" ht="15.6">
       <c r="A92" s="44">
         <v>44834</v>
       </c>
       <c r="B92" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C92" s="90" t="s">
+      <c r="C92" s="89" t="s">
         <v>316</v>
       </c>
       <c r="D92" s="45">
@@ -8995,63 +9037,63 @@
         <v>315</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="92" customFormat="1" ht="15">
-      <c r="A93" s="94">
+    <row r="93" spans="1:10" s="91" customFormat="1" ht="15">
+      <c r="A93" s="93">
         <v>44834</v>
       </c>
-      <c r="B93" s="96" t="s">
+      <c r="B93" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="C93" s="97" t="s">
+      <c r="C93" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="D93" s="95">
+      <c r="D93" s="94">
         <v>730</v>
       </c>
-      <c r="E93" s="95"/>
-      <c r="F93" s="95">
+      <c r="E93" s="94"/>
+      <c r="F93" s="94">
         <v>65.7</v>
       </c>
-      <c r="G93" s="95">
+      <c r="G93" s="94">
         <v>65.7</v>
       </c>
-      <c r="H93" s="95">
+      <c r="H93" s="94">
         <f t="shared" si="5"/>
         <v>861.40000000000009</v>
       </c>
-      <c r="I93" s="95"/>
-      <c r="J93" s="97" t="s">
+      <c r="I93" s="94"/>
+      <c r="J93" s="96" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="155" t="s">
+      <c r="A94" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="155"/>
-      <c r="C94" s="155"/>
-      <c r="D94" s="66">
+      <c r="B94" s="156"/>
+      <c r="C94" s="156"/>
+      <c r="D94" s="65">
         <f>SUM(D76:D93)</f>
         <v>120359.97999999998</v>
       </c>
-      <c r="E94" s="66">
+      <c r="E94" s="65">
         <f>SUM(E76:E93)</f>
         <v>4490.3100000000004</v>
       </c>
-      <c r="F94" s="66">
+      <c r="F94" s="65">
         <f>SUM(F76:F93)</f>
         <v>8457.18</v>
       </c>
-      <c r="G94" s="66">
+      <c r="G94" s="65">
         <f>SUM(G76:G93)</f>
         <v>8457.18</v>
       </c>
-      <c r="H94" s="66">
+      <c r="H94" s="65">
         <f>SUM(H76:H93)</f>
         <v>159761.58000000002</v>
       </c>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="18"/>
@@ -9146,12 +9188,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9161,6 +9197,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9192,30 +9234,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -9301,7 +9343,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" s="91" customFormat="1" ht="15.6">
+    <row r="7" spans="1:10" s="90" customFormat="1" ht="15.6">
       <c r="A7" s="10">
         <v>44848</v>
       </c>
@@ -9358,18 +9400,18 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
@@ -9466,7 +9508,7 @@
       <c r="B13" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="89" t="s">
         <v>348</v>
       </c>
       <c r="D13" s="45">
@@ -9543,29 +9585,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="30" customFormat="1" ht="15">
-      <c r="A16" s="102">
+      <c r="A16" s="101">
         <v>44840</v>
       </c>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="100" t="s">
         <v>321</v>
       </c>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="D16" s="103">
+      <c r="D16" s="102">
         <v>2541.5300000000002</v>
       </c>
-      <c r="E16" s="103">
+      <c r="E16" s="102">
         <v>457.47</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102">
         <f t="shared" si="1"/>
         <v>2999</v>
       </c>
-      <c r="I16" s="103"/>
-      <c r="J16" s="101" t="s">
+      <c r="I16" s="102"/>
+      <c r="J16" s="100" t="s">
         <v>322</v>
       </c>
     </row>
@@ -9762,29 +9804,29 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="30" customFormat="1" ht="30">
-      <c r="A24" s="100">
+      <c r="A24" s="99">
         <v>44848</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="84">
         <v>2881065793</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="82">
         <v>1200</v>
       </c>
-      <c r="E24" s="83">
+      <c r="E24" s="82">
         <v>61</v>
       </c>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83">
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82">
         <f t="shared" si="1"/>
         <v>1261</v>
       </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="85" t="s">
+      <c r="I24" s="82"/>
+      <c r="J24" s="84" t="s">
         <v>373</v>
       </c>
     </row>
@@ -9876,31 +9918,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" s="30" customFormat="1" ht="15">
-      <c r="A28" s="100">
+      <c r="A28" s="99">
         <v>44855</v>
       </c>
-      <c r="B28" s="85" t="s">
+      <c r="B28" s="84" t="s">
         <v>375</v>
       </c>
-      <c r="C28" s="85" t="s">
+      <c r="C28" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="82">
         <v>15152.54</v>
       </c>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83">
+      <c r="E28" s="82"/>
+      <c r="F28" s="82">
         <v>1363.73</v>
       </c>
-      <c r="G28" s="83">
+      <c r="G28" s="82">
         <v>1363.73</v>
       </c>
-      <c r="H28" s="83">
+      <c r="H28" s="82">
         <f t="shared" si="1"/>
         <v>17880</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="85" t="s">
+      <c r="I28" s="82"/>
+      <c r="J28" s="84" t="s">
         <v>376</v>
       </c>
     </row>
@@ -9934,11 +9976,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="162"/>
-      <c r="C30" s="163"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="43">
         <f>SUM(D11:D29)</f>
         <v>79243.67</v>
@@ -9968,30 +10010,30 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="147" t="s">
+      <c r="A32" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
-      <c r="D32" s="148"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="143"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="144"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="141"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
@@ -10104,7 +10146,7 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="1:10" s="104" customFormat="1" ht="15.6">
+    <row r="38" spans="1:10" s="103" customFormat="1" ht="15.6">
       <c r="A38" s="10">
         <v>44880</v>
       </c>
@@ -10131,7 +10173,7 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="1:10" s="104" customFormat="1" ht="15.6">
+    <row r="39" spans="1:10" s="103" customFormat="1" ht="15.6">
       <c r="A39" s="10">
         <v>44895</v>
       </c>
@@ -10188,18 +10230,18 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="141"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
@@ -10592,7 +10634,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="98" customFormat="1" ht="15.6">
+    <row r="56" spans="1:10" s="97" customFormat="1" ht="15.6">
       <c r="A56" s="37">
         <v>44880</v>
       </c>
@@ -10648,7 +10690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="58" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A58" s="37">
         <v>44880</v>
       </c>
@@ -10676,7 +10718,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="59" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A59" s="37">
         <v>44880</v>
       </c>
@@ -10703,7 +10745,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="60" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A60" s="37">
         <v>44880</v>
       </c>
@@ -10729,7 +10771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="61" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A61" s="37">
         <v>44881</v>
       </c>
@@ -10758,11 +10800,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="105" customFormat="1" ht="31.2">
+    <row r="62" spans="1:10" s="104" customFormat="1" ht="31.2">
       <c r="A62" s="37">
         <v>44883</v>
       </c>
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="105" t="s">
         <v>372</v>
       </c>
       <c r="C62" s="41">
@@ -10785,7 +10827,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="63" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A63" s="37">
         <v>44884</v>
       </c>
@@ -10813,7 +10855,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="64" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A64" s="37">
         <v>44886</v>
       </c>
@@ -10842,7 +10884,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="65" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A65" s="37">
         <v>44886</v>
       </c>
@@ -10868,7 +10910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="66" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A66" s="37">
         <v>44887</v>
       </c>
@@ -10897,7 +10939,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="99" customFormat="1" ht="15.6">
+    <row r="67" spans="1:10" s="98" customFormat="1" ht="15.6">
       <c r="A67" s="37">
         <v>44887</v>
       </c>
@@ -10925,7 +10967,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="105" customFormat="1" ht="31.2">
+    <row r="68" spans="1:10" s="104" customFormat="1" ht="31.2">
       <c r="A68" s="37">
         <v>44888</v>
       </c>
@@ -10952,7 +10994,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="105" customFormat="1" ht="31.2">
+    <row r="69" spans="1:10" s="104" customFormat="1" ht="31.2">
       <c r="A69" s="37">
         <v>44888</v>
       </c>
@@ -10979,7 +11021,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="105" customFormat="1" ht="15.6">
+    <row r="70" spans="1:10" s="104" customFormat="1" ht="15.6">
       <c r="A70" s="37">
         <v>44895</v>
       </c>
@@ -11009,59 +11051,59 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="155" t="s">
+      <c r="A71" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="155"/>
-      <c r="C71" s="155"/>
-      <c r="D71" s="66">
+      <c r="B71" s="156"/>
+      <c r="C71" s="156"/>
+      <c r="D71" s="65">
         <f>SUM(D43:D70)</f>
         <v>1221066.1900000002</v>
       </c>
-      <c r="E71" s="66">
+      <c r="E71" s="65">
         <f>SUM(E43:E70)</f>
         <v>41314.739999999991</v>
       </c>
-      <c r="F71" s="66">
+      <c r="F71" s="65">
         <f>SUM(F43:F70)</f>
         <v>88850.700000000026</v>
       </c>
-      <c r="G71" s="66">
+      <c r="G71" s="65">
         <f>SUM(G43:G70)</f>
         <v>88850.700000000026</v>
       </c>
-      <c r="H71" s="66">
+      <c r="H71" s="65">
         <f>SUM(H43:H70)</f>
         <v>1440083.4000000001</v>
       </c>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="147" t="s">
+      <c r="A73" s="142" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="148"/>
-      <c r="C73" s="148"/>
-      <c r="D73" s="148"/>
-      <c r="E73" s="148"/>
-      <c r="F73" s="148"/>
-      <c r="G73" s="148"/>
-      <c r="H73" s="148"/>
-      <c r="I73" s="148"/>
-      <c r="J73" s="149"/>
+      <c r="B73" s="143"/>
+      <c r="C73" s="143"/>
+      <c r="D73" s="143"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="143"/>
+      <c r="J73" s="144"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="143"/>
+      <c r="B74" s="140"/>
+      <c r="C74" s="140"/>
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="141"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
@@ -11279,18 +11321,18 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="141" t="s">
+      <c r="A83" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="142"/>
-      <c r="I83" s="142"/>
-      <c r="J83" s="143"/>
+      <c r="B83" s="140"/>
+      <c r="C83" s="140"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="140"/>
+      <c r="F83" s="140"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="140"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="141"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16" t="s">
@@ -11435,7 +11477,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" s="41" customFormat="1" ht="15.6">
-      <c r="A89" s="107">
+      <c r="A89" s="106">
         <v>44902</v>
       </c>
       <c r="B89" s="46" t="s">
@@ -11463,7 +11505,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" s="41" customFormat="1" ht="15.6">
-      <c r="A90" s="107">
+      <c r="A90" s="106">
         <v>44905</v>
       </c>
       <c r="B90" s="46" t="s">
@@ -11519,7 +11561,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" s="41" customFormat="1" ht="15.6">
-      <c r="A92" s="113">
+      <c r="A92" s="112">
         <v>44908</v>
       </c>
       <c r="B92" s="52" t="s">
@@ -11604,10 +11646,10 @@
       </c>
     </row>
     <row r="95" spans="1:10" s="41" customFormat="1" ht="15.6">
-      <c r="A95" s="107">
+      <c r="A95" s="106">
         <v>44913</v>
       </c>
-      <c r="B95" s="90" t="s">
+      <c r="B95" s="89" t="s">
         <v>81</v>
       </c>
       <c r="C95" s="46" t="s">
@@ -11626,7 +11668,7 @@
         <v>118</v>
       </c>
       <c r="I95" s="45"/>
-      <c r="J95" s="90" t="s">
+      <c r="J95" s="89" t="s">
         <v>315</v>
       </c>
     </row>
@@ -12019,60 +12061,60 @@
       </c>
     </row>
     <row r="110" spans="1:10" s="41" customFormat="1" ht="15.6">
-      <c r="A110" s="114">
+      <c r="A110" s="113">
         <v>44839</v>
       </c>
-      <c r="B110" s="85" t="s">
+      <c r="B110" s="84" t="s">
         <v>468</v>
       </c>
-      <c r="C110" s="85">
+      <c r="C110" s="84">
         <v>551</v>
       </c>
-      <c r="D110" s="85">
+      <c r="D110" s="84">
         <v>2288.14</v>
       </c>
-      <c r="E110" s="85">
+      <c r="E110" s="84">
         <v>411.86</v>
       </c>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="83">
+      <c r="F110" s="84"/>
+      <c r="G110" s="84"/>
+      <c r="H110" s="82">
         <f t="shared" si="7"/>
         <v>2700</v>
       </c>
-      <c r="I110" s="83"/>
-      <c r="J110" s="85" t="s">
+      <c r="I110" s="82"/>
+      <c r="J110" s="84" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="158" t="s">
+      <c r="A111" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="159"/>
-      <c r="C111" s="160"/>
-      <c r="D111" s="66">
+      <c r="B111" s="162"/>
+      <c r="C111" s="163"/>
+      <c r="D111" s="65">
         <f>SUM(D85:D110)</f>
         <v>310841.41999999993</v>
       </c>
-      <c r="E111" s="66">
+      <c r="E111" s="65">
         <f>SUM(E85:E110)</f>
         <v>36977.659999999996</v>
       </c>
-      <c r="F111" s="66">
+      <c r="F111" s="65">
         <f>SUM(F85:F110)</f>
         <v>8416.64</v>
       </c>
-      <c r="G111" s="66">
+      <c r="G111" s="65">
         <f>SUM(G85:G110)</f>
         <v>8416.64</v>
       </c>
-      <c r="H111" s="66">
+      <c r="H111" s="65">
         <f>SUM(H85:H110)</f>
         <v>364651.64</v>
       </c>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
     </row>
     <row r="112" spans="1:10" s="18" customFormat="1" ht="21">
       <c r="A112" s="60"/>
@@ -12127,10 +12169,10 @@
     </row>
     <row r="115" spans="1:10" s="18" customFormat="1" ht="21">
       <c r="A115" s="60"/>
-      <c r="B115" s="65"/>
+      <c r="B115" s="64"/>
       <c r="C115" s="60"/>
       <c r="D115" s="61"/>
-      <c r="E115" s="64"/>
+      <c r="E115" s="63"/>
       <c r="F115" s="61"/>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
@@ -12151,12 +12193,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A111:C111"/>
@@ -12166,6 +12202,12 @@
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12174,10 +12216,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L301"/>
+  <dimension ref="A2:L298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A123" sqref="A123:J123"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12196,30 +12238,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="147" t="s">
+      <c r="A2" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="149"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="141"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -12255,7 +12297,7 @@
       <c r="A5" s="20">
         <v>44895</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>448</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -12355,7 +12397,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="108" customFormat="1" ht="17.399999999999999" customHeight="1">
+    <row r="9" spans="1:10" s="107" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A9" s="31">
         <v>44938</v>
       </c>
@@ -12382,7 +12424,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="108" customFormat="1" ht="15.6" customHeight="1">
+    <row r="10" spans="1:10" s="107" customFormat="1" ht="15.6" customHeight="1">
       <c r="A10" s="31">
         <v>44938</v>
       </c>
@@ -12409,7 +12451,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="15.6" customHeight="1">
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="15.6" customHeight="1">
       <c r="A11" s="31">
         <v>44943</v>
       </c>
@@ -12436,7 +12478,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="15.6" customHeight="1">
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="15.6" customHeight="1">
       <c r="A12" s="31">
         <v>44943</v>
       </c>
@@ -12463,7 +12505,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" s="116" customFormat="1" ht="15.6" customHeight="1">
+    <row r="13" spans="1:10" s="115" customFormat="1" ht="15.6" customHeight="1">
       <c r="A13" s="31">
         <v>44944</v>
       </c>
@@ -12490,7 +12532,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" s="116" customFormat="1" ht="15.6" customHeight="1">
+    <row r="14" spans="1:10" s="115" customFormat="1" ht="15.6" customHeight="1">
       <c r="A14" s="31">
         <v>44944</v>
       </c>
@@ -12517,7 +12559,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" s="124" customFormat="1" ht="15.6" customHeight="1">
+    <row r="15" spans="1:10" s="123" customFormat="1" ht="15.6" customHeight="1">
       <c r="A15" s="31">
         <v>44956</v>
       </c>
@@ -12544,7 +12586,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:10" s="124" customFormat="1" ht="15.6" customHeight="1">
+    <row r="16" spans="1:10" s="123" customFormat="1" ht="15.6" customHeight="1">
       <c r="A16" s="31">
         <v>44956</v>
       </c>
@@ -12601,18 +12643,18 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16" t="s">
@@ -12647,23 +12689,23 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="62" customFormat="1" ht="15.6">
-      <c r="A20" s="71">
+      <c r="A20" s="70">
         <v>44928</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="72" t="s">
         <v>462</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="72" t="s">
         <v>463</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="72">
         <v>3880</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="72">
         <v>698.4</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
       <c r="H20" s="49">
         <f>D20+E20+F20+G20</f>
         <v>4578.3999999999996</v>
@@ -12747,7 +12789,7 @@
       </c>
       <c r="F23" s="51"/>
       <c r="G23" s="51"/>
-      <c r="H23" s="87">
+      <c r="H23" s="86">
         <f t="shared" ref="H23:H52" si="1">D23+E23+F23+G23</f>
         <v>1864</v>
       </c>
@@ -12756,7 +12798,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="127" customFormat="1" ht="33.6" customHeight="1">
+    <row r="24" spans="1:10" s="126" customFormat="1" ht="33.6" customHeight="1">
       <c r="A24" s="37">
         <v>44929</v>
       </c>
@@ -12864,7 +12906,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="128" customFormat="1" ht="15.6">
+    <row r="28" spans="1:10" s="127" customFormat="1" ht="15.6">
       <c r="A28" s="37">
         <v>44930</v>
       </c>
@@ -12922,7 +12964,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="128" customFormat="1" ht="15.6">
+    <row r="30" spans="1:10" s="127" customFormat="1" ht="15.6">
       <c r="A30" s="37">
         <v>44931</v>
       </c>
@@ -13061,7 +13103,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="129" customFormat="1" ht="15.6">
+    <row r="35" spans="1:10" s="128" customFormat="1" ht="15.6">
       <c r="A35" s="37">
         <v>44932</v>
       </c>
@@ -13090,7 +13132,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="36" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A36" s="37">
         <v>44933</v>
       </c>
@@ -13119,7 +13161,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="37" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A37" s="37">
         <v>44935</v>
       </c>
@@ -13147,14 +13189,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="128" customFormat="1" ht="15.6">
+    <row r="38" spans="1:10" s="127" customFormat="1" ht="15.6">
       <c r="A38" s="44">
         <v>44935</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="B38" s="129" t="s">
         <v>528</v>
       </c>
-      <c r="C38" s="130" t="s">
+      <c r="C38" s="129" t="s">
         <v>530</v>
       </c>
       <c r="D38" s="45">
@@ -13170,11 +13212,11 @@
         <v>850</v>
       </c>
       <c r="I38" s="45"/>
-      <c r="J38" s="130" t="s">
+      <c r="J38" s="129" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="128" customFormat="1" ht="15.6">
+    <row r="39" spans="1:10" s="127" customFormat="1" ht="15.6">
       <c r="A39" s="37">
         <v>44935</v>
       </c>
@@ -13203,7 +13245,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="40" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A40" s="37">
         <v>44936</v>
       </c>
@@ -13232,7 +13274,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="41" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A41" s="37">
         <v>44936</v>
       </c>
@@ -13260,7 +13302,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="42" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A42" s="37">
         <v>44936</v>
       </c>
@@ -13289,7 +13331,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="43" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A43" s="44">
         <v>44936</v>
       </c>
@@ -13318,7 +13360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="128" customFormat="1" ht="31.2">
+    <row r="44" spans="1:10" s="127" customFormat="1" ht="31.2">
       <c r="A44" s="37">
         <v>44936</v>
       </c>
@@ -13345,7 +13387,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="128" customFormat="1" ht="31.2">
+    <row r="45" spans="1:10" s="127" customFormat="1" ht="31.2">
       <c r="A45" s="50">
         <v>44936</v>
       </c>
@@ -13372,7 +13414,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="128" customFormat="1" ht="31.2">
+    <row r="46" spans="1:10" s="127" customFormat="1" ht="31.2">
       <c r="A46" s="37">
         <v>44936</v>
       </c>
@@ -13399,7 +13441,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="47" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A47" s="37">
         <v>44937</v>
       </c>
@@ -13426,7 +13468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="48" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A48" s="37">
         <v>44938</v>
       </c>
@@ -13454,7 +13496,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="49" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A49" s="37">
         <v>44938</v>
       </c>
@@ -13483,7 +13525,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="50" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A50" s="37">
         <v>44939</v>
       </c>
@@ -13512,36 +13554,36 @@
         <v>493</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="118" customFormat="1" ht="15">
-      <c r="A51" s="119">
+    <row r="51" spans="1:10" s="117" customFormat="1" ht="15">
+      <c r="A51" s="118">
         <v>44939</v>
       </c>
-      <c r="B51" s="123" t="s">
+      <c r="B51" s="122" t="s">
         <v>511</v>
       </c>
-      <c r="C51" s="123">
+      <c r="C51" s="122">
         <v>3721</v>
       </c>
-      <c r="D51" s="122">
+      <c r="D51" s="121">
         <v>1218</v>
       </c>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122">
+      <c r="E51" s="121"/>
+      <c r="F51" s="121">
         <v>109.62</v>
       </c>
-      <c r="G51" s="122">
+      <c r="G51" s="121">
         <v>109.62</v>
       </c>
-      <c r="H51" s="122">
+      <c r="H51" s="121">
         <f t="shared" si="1"/>
         <v>1437.2399999999998</v>
       </c>
-      <c r="I51" s="122"/>
-      <c r="J51" s="123" t="s">
+      <c r="I51" s="121"/>
+      <c r="J51" s="122" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="115" customFormat="1" ht="15.6">
+    <row r="52" spans="1:10" s="114" customFormat="1" ht="15.6">
       <c r="A52" s="37">
         <v>44942</v>
       </c>
@@ -13570,7 +13612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="116" customFormat="1" ht="15.6">
+    <row r="53" spans="1:10" s="115" customFormat="1" ht="15.6">
       <c r="A53" s="37">
         <v>44942</v>
       </c>
@@ -13596,7 +13638,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="54" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A54" s="37">
         <v>44943</v>
       </c>
@@ -13623,34 +13665,34 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:10" s="118" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A55" s="119">
+    <row r="55" spans="1:10" s="117" customFormat="1" ht="15.6" customHeight="1">
+      <c r="A55" s="118">
         <v>44943</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="119" t="s">
         <v>506</v>
       </c>
-      <c r="C55" s="121">
+      <c r="C55" s="120">
         <v>230601016116</v>
       </c>
-      <c r="D55" s="122">
+      <c r="D55" s="121">
         <v>2290</v>
       </c>
-      <c r="E55" s="122">
+      <c r="E55" s="121">
         <v>412</v>
       </c>
-      <c r="F55" s="122"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122">
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="121">
         <f>D55+E55+F55+G55</f>
         <v>2702</v>
       </c>
-      <c r="I55" s="122"/>
-      <c r="J55" s="120" t="s">
+      <c r="I55" s="121"/>
+      <c r="J55" s="119" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="56" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A56" s="37">
         <v>44944</v>
       </c>
@@ -13677,7 +13719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="57" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A57" s="37">
         <v>44944</v>
       </c>
@@ -13704,7 +13746,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="128" customFormat="1" ht="15.6">
+    <row r="58" spans="1:10" s="127" customFormat="1" ht="15.6">
       <c r="A58" s="37">
         <v>44945</v>
       </c>
@@ -13733,7 +13775,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="59" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A59" s="37">
         <v>44946</v>
       </c>
@@ -13760,7 +13802,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="60" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A60" s="37">
         <v>44950</v>
       </c>
@@ -13788,7 +13830,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="61" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A61" s="37">
         <v>44950</v>
       </c>
@@ -13816,7 +13858,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="62" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A62" s="37">
         <v>44950</v>
       </c>
@@ -13842,7 +13884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="117" customFormat="1" ht="15.6">
+    <row r="63" spans="1:10" s="116" customFormat="1" ht="15.6">
       <c r="A63" s="37">
         <v>44950</v>
       </c>
@@ -13870,34 +13912,34 @@
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="117" customFormat="1" ht="30">
-      <c r="A64" s="100">
+    <row r="64" spans="1:10" s="116" customFormat="1" ht="30">
+      <c r="A64" s="99">
         <v>44951</v>
       </c>
-      <c r="B64" s="85" t="s">
+      <c r="B64" s="84" t="s">
         <v>508</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="84" t="s">
         <v>510</v>
       </c>
-      <c r="D64" s="83">
+      <c r="D64" s="82">
         <v>2016.1</v>
       </c>
-      <c r="E64" s="83">
+      <c r="E64" s="82">
         <v>362.89</v>
       </c>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83">
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
+      <c r="H64" s="82">
         <f t="shared" si="2"/>
         <v>2378.9899999999998</v>
       </c>
-      <c r="I64" s="83"/>
-      <c r="J64" s="85" t="s">
+      <c r="I64" s="82"/>
+      <c r="J64" s="84" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="128" customFormat="1" ht="31.2">
+    <row r="65" spans="1:10" s="127" customFormat="1" ht="31.2">
       <c r="A65" s="37">
         <v>44951</v>
       </c>
@@ -13924,57 +13966,57 @@
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="125" customFormat="1" ht="15">
-      <c r="A66" s="100">
+    <row r="66" spans="1:10" s="124" customFormat="1" ht="15">
+      <c r="A66" s="99">
         <v>44956</v>
       </c>
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="85" t="s">
+      <c r="C66" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="D66" s="83">
+      <c r="D66" s="82">
         <v>48750</v>
       </c>
-      <c r="E66" s="83">
+      <c r="E66" s="82">
         <v>8775</v>
       </c>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83">
+      <c r="F66" s="82"/>
+      <c r="G66" s="82"/>
+      <c r="H66" s="82">
         <f t="shared" si="2"/>
         <v>57525</v>
       </c>
-      <c r="I66" s="83"/>
-      <c r="J66" s="85" t="s">
+      <c r="I66" s="82"/>
+      <c r="J66" s="84" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="126" customFormat="1" ht="15">
-      <c r="A67" s="100">
+    <row r="67" spans="1:10" s="125" customFormat="1" ht="15">
+      <c r="A67" s="99">
         <v>44957</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="84" t="s">
         <v>401</v>
       </c>
-      <c r="C67" s="85">
+      <c r="C67" s="84">
         <v>4107</v>
       </c>
-      <c r="D67" s="83">
+      <c r="D67" s="82">
         <v>25200</v>
       </c>
-      <c r="E67" s="83">
+      <c r="E67" s="82">
         <v>4536</v>
       </c>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83">
+      <c r="F67" s="82"/>
+      <c r="G67" s="82"/>
+      <c r="H67" s="82">
         <f t="shared" si="2"/>
         <v>29736</v>
       </c>
-      <c r="I67" s="83"/>
-      <c r="J67" s="85" t="s">
+      <c r="I67" s="82"/>
+      <c r="J67" s="84" t="s">
         <v>402</v>
       </c>
     </row>
@@ -14008,30 +14050,30 @@
       <c r="J68" s="19"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="147" t="s">
+      <c r="A70" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="149"/>
+      <c r="B70" s="143"/>
+      <c r="C70" s="143"/>
+      <c r="D70" s="143"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="143"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="143"/>
+      <c r="I70" s="143"/>
+      <c r="J70" s="144"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="141" t="s">
+      <c r="A71" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="142"/>
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="143"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="140"/>
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="141"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
@@ -14171,7 +14213,7 @@
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" s="131" customFormat="1" ht="15.6">
+    <row r="77" spans="1:10" s="130" customFormat="1" ht="15.6">
       <c r="A77" s="31">
         <v>44974</v>
       </c>
@@ -14198,7 +14240,7 @@
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" spans="1:10" s="131" customFormat="1" ht="15.6">
+    <row r="78" spans="1:10" s="130" customFormat="1" ht="15.6">
       <c r="A78" s="31">
         <v>44974</v>
       </c>
@@ -14225,7 +14267,7 @@
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="79" spans="1:10" s="132" customFormat="1" ht="15.6">
       <c r="A79" s="31">
         <v>44984</v>
       </c>
@@ -14252,7 +14294,7 @@
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="80" spans="1:10" s="132" customFormat="1" ht="15.6">
       <c r="A80" s="31">
         <v>44984</v>
       </c>
@@ -14309,18 +14351,18 @@
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="141" t="s">
+      <c r="A82" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="142"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="143"/>
+      <c r="B82" s="140"/>
+      <c r="C82" s="140"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="140"/>
+      <c r="F82" s="140"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="140"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="141"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="16" t="s">
@@ -14402,7 +14444,7 @@
         <v>4095.63</v>
       </c>
       <c r="H85" s="57">
-        <f t="shared" ref="H85:H106" si="4">D85+E85+F85+G85</f>
+        <f t="shared" ref="H85:H112" si="4">D85+E85+F85+G85</f>
         <v>53698.259999999995</v>
       </c>
       <c r="I85" s="33"/>
@@ -14410,7 +14452,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="126" customFormat="1" ht="15.6">
+    <row r="86" spans="1:10" s="125" customFormat="1" ht="15.6">
       <c r="A86" s="56">
         <v>44959</v>
       </c>
@@ -14438,1358 +14480,1451 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="56">
+      <c r="A87" s="58">
         <v>44960</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="C87" s="57">
+      <c r="C87" s="59">
         <v>4866</v>
       </c>
-      <c r="D87" s="57">
+      <c r="D87" s="59">
         <v>2034</v>
       </c>
-      <c r="E87" s="57"/>
-      <c r="F87" s="57">
+      <c r="E87" s="59"/>
+      <c r="F87" s="59">
         <v>183</v>
       </c>
-      <c r="G87" s="57">
+      <c r="G87" s="59">
         <v>183</v>
       </c>
-      <c r="H87" s="57">
+      <c r="H87" s="59">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="I87" s="57"/>
-      <c r="J87" s="57" t="s">
+      <c r="I87" s="59"/>
+      <c r="J87" s="59" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.6">
-      <c r="A88" s="56">
+    <row r="88" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A88" s="37">
+        <v>44960</v>
+      </c>
+      <c r="B88" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="D88" s="33">
+        <v>23400</v>
+      </c>
+      <c r="E88" s="33">
+        <v>4212</v>
+      </c>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33">
+        <f t="shared" si="4"/>
+        <v>27612</v>
+      </c>
+      <c r="I88" s="33"/>
+      <c r="J88" s="40" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.6">
+      <c r="A89" s="135">
         <v>44961</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B89" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C89" s="136" t="s">
         <v>523</v>
       </c>
-      <c r="D88" s="57">
+      <c r="D89" s="136">
         <v>13687.32</v>
       </c>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57">
+      <c r="E89" s="136"/>
+      <c r="F89" s="136">
         <v>1231.8800000000001</v>
       </c>
-      <c r="G88" s="57">
+      <c r="G89" s="136">
         <v>1231.8800000000001</v>
       </c>
-      <c r="H88" s="57">
+      <c r="H89" s="136">
         <f t="shared" si="4"/>
         <v>16151.080000000002</v>
       </c>
-      <c r="I88" s="57"/>
-      <c r="J88" s="57" t="s">
+      <c r="I89" s="136"/>
+      <c r="J89" s="136" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="56">
+    <row r="90" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A90" s="37">
+        <v>44961</v>
+      </c>
+      <c r="B90" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="D90" s="33">
+        <v>5875</v>
+      </c>
+      <c r="E90" s="33">
+        <v>705</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33">
+        <f t="shared" si="4"/>
+        <v>6580</v>
+      </c>
+      <c r="I90" s="33"/>
+      <c r="J90" s="32" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.6">
+      <c r="A91" s="56">
         <v>44963</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B91" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="57" t="s">
+      <c r="C91" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="D89" s="57">
+      <c r="D91" s="57">
         <v>8275</v>
       </c>
-      <c r="E89" s="57">
+      <c r="E91" s="57">
         <v>1489.5</v>
       </c>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57">
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57">
         <f t="shared" si="4"/>
         <v>9764.5</v>
       </c>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57" t="s">
+      <c r="I91" s="57"/>
+      <c r="J91" s="57" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.6">
-      <c r="A90" s="37">
+    <row r="92" spans="1:10" ht="15.6">
+      <c r="A92" s="37">
         <v>44964</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B92" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C92" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D92" s="33">
         <v>54030</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E92" s="33">
         <v>9725.4</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="57">
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="57">
         <f t="shared" si="4"/>
         <v>63755.4</v>
       </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="32" t="s">
+      <c r="I92" s="33"/>
+      <c r="J92" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="56">
+    <row r="93" spans="1:10" ht="15.6">
+      <c r="A93" s="56">
         <v>44964</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B93" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="C91" s="57">
+      <c r="C93" s="57">
         <v>76444</v>
       </c>
-      <c r="D91" s="57">
+      <c r="D93" s="57">
         <v>1864.4</v>
       </c>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57">
+      <c r="E93" s="57"/>
+      <c r="F93" s="57">
         <v>167.8</v>
       </c>
-      <c r="G91" s="57">
+      <c r="G93" s="57">
         <v>167.8</v>
       </c>
-      <c r="H91" s="57">
+      <c r="H93" s="57">
         <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57" t="s">
+      <c r="I93" s="57"/>
+      <c r="J93" s="57" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="56">
+    <row r="94" spans="1:10" ht="15.6">
+      <c r="A94" s="58">
         <v>44964</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B94" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C94" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="D92" s="57">
+      <c r="D94" s="59">
         <v>32496.609</v>
       </c>
-      <c r="E92" s="57"/>
-      <c r="F92" s="57">
+      <c r="E94" s="59"/>
+      <c r="F94" s="59">
         <v>2924.6950000000002</v>
       </c>
-      <c r="G92" s="57">
+      <c r="G94" s="59">
         <v>2924.6950000000002</v>
       </c>
-      <c r="H92" s="57">
+      <c r="H94" s="59">
         <v>38346</v>
       </c>
-      <c r="I92" s="57"/>
-      <c r="J92" s="57" t="s">
+      <c r="I94" s="59"/>
+      <c r="J94" s="59" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="135" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A93" s="56">
+    <row r="95" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A95" s="37">
+        <v>44964</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="C95" s="40" t="s">
+        <v>589</v>
+      </c>
+      <c r="D95" s="33">
+        <v>1525.43</v>
+      </c>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33">
+        <v>137.29</v>
+      </c>
+      <c r="G95" s="33">
+        <v>137.29</v>
+      </c>
+      <c r="H95" s="33">
+        <f>D95+E95+F95+G95</f>
+        <v>1800.01</v>
+      </c>
+      <c r="I95" s="33"/>
+      <c r="J95" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A96" s="135">
         <v>44965</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="B96" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="C93" s="32">
+      <c r="C96" s="52">
         <v>2881072428</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D96" s="51">
         <v>1570</v>
       </c>
-      <c r="E93" s="33">
+      <c r="E96" s="51">
         <v>78.5</v>
       </c>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33">
-        <f>D93+E93+F93+G93</f>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51">
+        <f>D96+E96+F96+G96</f>
         <v>1648.5</v>
       </c>
-      <c r="I93" s="33"/>
-      <c r="J93" s="32" t="s">
+      <c r="I96" s="51"/>
+      <c r="J96" s="52" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="1:10" s="135" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A94" s="56">
+    <row r="97" spans="1:10" s="134" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A97" s="56">
         <v>44965</v>
       </c>
-      <c r="B94" s="32" t="s">
+      <c r="B97" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="C94" s="32">
+      <c r="C97" s="32">
         <v>2881072429</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D97" s="33">
         <v>400</v>
       </c>
-      <c r="E94" s="33">
+      <c r="E97" s="33">
         <v>20</v>
-      </c>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33">
-        <f>D94+E94+F94+G94</f>
-        <v>420</v>
-      </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="15.6">
-      <c r="A95" s="56">
-        <v>44967</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D95" s="33">
-        <v>38090</v>
-      </c>
-      <c r="E95" s="33">
-        <v>6856.2</v>
-      </c>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33">
-        <v>44946</v>
-      </c>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A96" s="37">
-        <v>44968</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C96" s="32" t="s">
-        <v>554</v>
-      </c>
-      <c r="D96" s="33">
-        <v>68260</v>
-      </c>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33">
-        <v>6143.45</v>
-      </c>
-      <c r="G96" s="33">
-        <v>6143.45</v>
-      </c>
-      <c r="H96" s="33">
-        <v>80547</v>
-      </c>
-      <c r="I96" s="33"/>
-      <c r="J96" s="32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="21" customHeight="1">
-      <c r="A97" s="37">
-        <v>44970</v>
-      </c>
-      <c r="B97" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="D97" s="33">
-        <v>22450</v>
-      </c>
-      <c r="E97" s="33">
-        <v>4041</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
       <c r="H97" s="33">
-        <f t="shared" si="4"/>
-        <v>26491</v>
+        <f>D97+E97+F97+G97</f>
+        <v>420</v>
       </c>
       <c r="I97" s="33"/>
       <c r="J97" s="32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="21" customHeight="1">
-      <c r="A98" s="37">
-        <v>44970</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C98" s="32" t="s">
-        <v>556</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.6">
+      <c r="A98" s="56">
+        <v>44967</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>553</v>
       </c>
       <c r="D98" s="33">
-        <v>28281</v>
+        <v>38090</v>
       </c>
       <c r="E98" s="33">
-        <v>5090.58</v>
+        <v>6856.2</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
       <c r="H98" s="33">
-        <f t="shared" si="4"/>
-        <v>33371.58</v>
+        <v>44946</v>
       </c>
       <c r="I98" s="33"/>
-      <c r="J98" s="32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="21" customHeight="1">
-      <c r="A99" s="44">
-        <v>44970</v>
+      <c r="J98" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A99" s="37">
+        <v>44968</v>
       </c>
       <c r="B99" s="32" t="s">
-        <v>142</v>
+        <v>488</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D99" s="33">
-        <v>22036</v>
+        <v>68260</v>
       </c>
       <c r="E99" s="33"/>
       <c r="F99" s="33">
-        <v>1983.24</v>
+        <v>6143.45</v>
       </c>
       <c r="G99" s="33">
-        <v>1983.24</v>
+        <v>6143.45</v>
       </c>
       <c r="H99" s="33">
-        <v>26002</v>
+        <v>80547</v>
       </c>
       <c r="I99" s="33"/>
       <c r="J99" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="135" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A100" s="44">
-        <v>44971</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="21" customHeight="1">
+      <c r="A100" s="37">
+        <v>44970</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C100" s="40">
-        <v>2881072727</v>
+        <v>45</v>
+      </c>
+      <c r="C100" s="32" t="s">
+        <v>555</v>
       </c>
       <c r="D100" s="33">
-        <v>1030</v>
+        <v>22450</v>
       </c>
       <c r="E100" s="33">
-        <v>51.5</v>
+        <v>4041</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
       <c r="H100" s="33">
-        <f>D100+E100+F100+G100</f>
-        <v>1081.5</v>
+        <f t="shared" si="4"/>
+        <v>26491</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="134" customFormat="1" ht="21" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="21" customHeight="1">
       <c r="A101" s="37">
-        <v>44977</v>
+        <v>44970</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>570</v>
+        <v>147</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>556</v>
       </c>
       <c r="D101" s="33">
-        <v>1101.7</v>
-      </c>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33">
-        <v>99.15</v>
-      </c>
-      <c r="G101" s="33">
-        <v>99.15</v>
-      </c>
+        <v>28281</v>
+      </c>
+      <c r="E101" s="33">
+        <v>5090.58</v>
+      </c>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
       <c r="H101" s="33">
-        <f>D101+E101+F101+G101</f>
-        <v>1300.0000000000002</v>
+        <f t="shared" si="4"/>
+        <v>33371.58</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="21" customHeight="1">
+      <c r="A102" s="44">
+        <v>44970</v>
+      </c>
+      <c r="B102" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="D102" s="33">
+        <v>22036</v>
+      </c>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33">
+        <v>1983.24</v>
+      </c>
+      <c r="G102" s="33">
+        <v>1983.24</v>
+      </c>
+      <c r="H102" s="33">
+        <v>26002</v>
+      </c>
+      <c r="I102" s="33"/>
+      <c r="J102" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A103" s="44">
+        <v>44971</v>
+      </c>
+      <c r="B103" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C103" s="40">
+        <v>2881072727</v>
+      </c>
+      <c r="D103" s="33">
+        <v>1030</v>
+      </c>
+      <c r="E103" s="33">
+        <v>51.5</v>
+      </c>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33">
+        <f>D103+E103+F103+G103</f>
+        <v>1081.5</v>
+      </c>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="133" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="37">
+        <v>44977</v>
+      </c>
+      <c r="B104" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="D104" s="33">
+        <v>1101.7</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="G104" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="H104" s="33">
+        <f>D104+E104+F104+G104</f>
+        <v>1300.0000000000002</v>
+      </c>
+      <c r="I104" s="33"/>
+      <c r="J104" s="32" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.6">
-      <c r="A102" s="136">
+    <row r="105" spans="1:10" ht="15.6">
+      <c r="A105" s="135">
         <v>44978</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B105" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="C105" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D102" s="57">
+      <c r="D105" s="57">
         <v>23035</v>
       </c>
-      <c r="E102" s="57">
+      <c r="E105" s="57">
         <v>4146.3</v>
       </c>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57">
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57">
         <v>27181</v>
       </c>
-      <c r="I102" s="137"/>
-      <c r="J102" s="137" t="s">
+      <c r="I105" s="136"/>
+      <c r="J105" s="136" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.6">
-      <c r="A103" s="58">
+    <row r="106" spans="1:10" ht="15.6">
+      <c r="A106" s="58">
         <v>44978</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B106" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C103" s="57">
+      <c r="C106" s="59">
         <v>289</v>
       </c>
-      <c r="D103" s="57">
+      <c r="D106" s="59">
         <v>3855</v>
       </c>
-      <c r="E103" s="57">
+      <c r="E106" s="59">
         <v>462.6</v>
       </c>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57">
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59">
         <v>4318</v>
       </c>
-      <c r="I103" s="59"/>
-      <c r="J103" s="59" t="s">
+      <c r="I106" s="59"/>
+      <c r="J106" s="59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="104" spans="1:10" s="132" customFormat="1" ht="15.6">
-      <c r="A104" s="58">
+    <row r="107" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A107" s="37">
+        <v>44978</v>
+      </c>
+      <c r="B107" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="D107" s="33">
+        <v>250</v>
+      </c>
+      <c r="E107" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33">
+        <f>D107+E107+F107+G107</f>
+        <v>262.5</v>
+      </c>
+      <c r="I107" s="33"/>
+      <c r="J107" s="32" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="131" customFormat="1" ht="15.6">
+      <c r="A108" s="58">
         <v>44981</v>
       </c>
-      <c r="B104" s="33" t="s">
+      <c r="B108" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="C104" s="57" t="s">
+      <c r="C108" s="57" t="s">
         <v>560</v>
       </c>
-      <c r="D104" s="57">
+      <c r="D108" s="57">
         <v>14013</v>
       </c>
-      <c r="E104" s="57"/>
-      <c r="F104" s="57">
+      <c r="E108" s="57"/>
+      <c r="F108" s="57">
         <v>1261.17</v>
       </c>
-      <c r="G104" s="57">
+      <c r="G108" s="57">
         <v>1261.17</v>
       </c>
-      <c r="H104" s="57">
+      <c r="H108" s="57">
         <v>16535</v>
       </c>
-      <c r="I104" s="59"/>
-      <c r="J104" s="59" t="s">
+      <c r="I108" s="59"/>
+      <c r="J108" s="59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="132" customFormat="1" ht="15.6">
-      <c r="A105" s="58">
+    <row r="109" spans="1:10" s="131" customFormat="1" ht="15.6">
+      <c r="A109" s="58">
         <v>44981</v>
       </c>
-      <c r="B105" s="45" t="s">
+      <c r="B109" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C109" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="D105" s="59">
+      <c r="D109" s="59">
         <v>45450</v>
       </c>
-      <c r="E105" s="59">
+      <c r="E109" s="59">
         <v>8181</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="59">
+      <c r="F109" s="59"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="59">
         <f t="shared" si="4"/>
         <v>53631</v>
       </c>
-      <c r="I105" s="59"/>
-      <c r="J105" s="59" t="s">
+      <c r="I109" s="59"/>
+      <c r="J109" s="59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="134" customFormat="1" ht="31.2">
-      <c r="A106" s="37">
+    <row r="110" spans="1:10" s="133" customFormat="1" ht="31.2">
+      <c r="A110" s="37">
         <v>44983</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B110" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C110" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D110" s="33">
         <v>15</v>
       </c>
-      <c r="E106" s="33">
+      <c r="E110" s="33">
         <v>2.7</v>
       </c>
-      <c r="F106" s="33"/>
-      <c r="G106" s="33"/>
-      <c r="H106" s="33">
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="I106" s="33"/>
-      <c r="J106" s="32" t="s">
+      <c r="I110" s="33"/>
+      <c r="J110" s="32" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="21">
-      <c r="A107" s="154" t="s">
+    <row r="111" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A111" s="37">
+        <v>44985</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D111" s="33">
+        <v>300</v>
+      </c>
+      <c r="E111" s="33"/>
+      <c r="F111" s="33">
+        <v>27</v>
+      </c>
+      <c r="G111" s="33">
+        <v>27</v>
+      </c>
+      <c r="H111" s="33">
+        <f t="shared" si="4"/>
+        <v>354</v>
+      </c>
+      <c r="I111" s="33"/>
+      <c r="J111" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A112" s="37">
+        <v>44985</v>
+      </c>
+      <c r="B112" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D112" s="33">
+        <v>37922.5</v>
+      </c>
+      <c r="E112" s="33"/>
+      <c r="F112" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="G112" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="H112" s="33">
+        <f t="shared" si="4"/>
+        <v>44748.56</v>
+      </c>
+      <c r="I112" s="33"/>
+      <c r="J112" s="32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="21">
+      <c r="A113" s="154" t="s">
         <v>35</v>
       </c>
-      <c r="B107" s="154"/>
-      <c r="C107" s="154"/>
-      <c r="D107" s="19">
-        <f>SUM(D84:D106)</f>
-        <v>482841.02900000004</v>
-      </c>
-      <c r="E107" s="19">
-        <f>SUM(E84:E106)</f>
-        <v>50110.079999999994</v>
-      </c>
-      <c r="F107" s="19">
-        <f>SUM(F84:F106)</f>
-        <v>18090.015000000007</v>
-      </c>
-      <c r="G107" s="19">
-        <f>SUM(G84:G106)</f>
-        <v>18090.015000000007</v>
-      </c>
-      <c r="H107" s="19">
-        <f>SUM(H84:H106)</f>
-        <v>569130.32000000007</v>
-      </c>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-    </row>
-    <row r="109" spans="1:10" ht="21">
-      <c r="A109" s="147" t="s">
+      <c r="B113" s="154"/>
+      <c r="C113" s="154"/>
+      <c r="D113" s="19">
+        <f>SUM(D84:D112)</f>
+        <v>552113.95900000003</v>
+      </c>
+      <c r="E113" s="19">
+        <f>SUM(E84:E112)</f>
+        <v>55039.579999999994</v>
+      </c>
+      <c r="F113" s="19">
+        <f>SUM(F84:F112)</f>
+        <v>21667.335000000006</v>
+      </c>
+      <c r="G113" s="19">
+        <f>SUM(G84:G112)</f>
+        <v>21667.335000000006</v>
+      </c>
+      <c r="H113" s="19">
+        <f>SUM(H84:H112)</f>
+        <v>650487.39000000013</v>
+      </c>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+    </row>
+    <row r="115" spans="1:10" ht="21">
+      <c r="A115" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="B109" s="148"/>
-      <c r="C109" s="148"/>
-      <c r="D109" s="148"/>
-      <c r="E109" s="148"/>
-      <c r="F109" s="148"/>
-      <c r="G109" s="148"/>
-      <c r="H109" s="148"/>
-      <c r="I109" s="148"/>
-      <c r="J109" s="149"/>
-    </row>
-    <row r="110" spans="1:10" ht="21">
-      <c r="A110" s="141" t="s">
+      <c r="B115" s="143"/>
+      <c r="C115" s="143"/>
+      <c r="D115" s="143"/>
+      <c r="E115" s="143"/>
+      <c r="F115" s="143"/>
+      <c r="G115" s="143"/>
+      <c r="H115" s="143"/>
+      <c r="I115" s="143"/>
+      <c r="J115" s="144"/>
+    </row>
+    <row r="116" spans="1:10" ht="21">
+      <c r="A116" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="B110" s="142"/>
-      <c r="C110" s="142"/>
-      <c r="D110" s="142"/>
-      <c r="E110" s="142"/>
-      <c r="F110" s="142"/>
-      <c r="G110" s="142"/>
-      <c r="H110" s="143"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.6">
-      <c r="A111" s="8" t="s">
+      <c r="B116" s="140"/>
+      <c r="C116" s="140"/>
+      <c r="D116" s="140"/>
+      <c r="E116" s="140"/>
+      <c r="F116" s="140"/>
+      <c r="G116" s="140"/>
+      <c r="H116" s="141"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.6">
+      <c r="A117" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B117" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C117" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G117" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H117" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-    </row>
-    <row r="112" spans="1:10" ht="15.6">
-      <c r="A112" s="31">
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.6">
+      <c r="A118" s="31">
         <v>44965</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B118" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="C112" s="32" t="s">
+      <c r="C118" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="D112" s="32">
+      <c r="D118" s="32">
         <v>7200</v>
       </c>
-      <c r="E112" s="32"/>
-      <c r="F112" s="32">
+      <c r="E118" s="32"/>
+      <c r="F118" s="32">
         <v>648</v>
       </c>
-      <c r="G112" s="32">
+      <c r="G118" s="32">
         <v>648</v>
       </c>
-      <c r="H112" s="32">
-        <f>D112+E112+F112+G112</f>
+      <c r="H118" s="32">
+        <f>D118+E118+F118+G118</f>
         <v>8496</v>
       </c>
-      <c r="I112" s="7" t="s">
+      <c r="I118" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="J112" s="7"/>
-    </row>
-    <row r="113" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A113" s="31">
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A119" s="31">
         <v>44984</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B119" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C119" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D119" s="32">
         <v>351000</v>
       </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32">
+      <c r="E119" s="32"/>
+      <c r="F119" s="32">
         <v>31590</v>
       </c>
-      <c r="G113" s="32">
+      <c r="G119" s="32">
         <v>31590</v>
       </c>
-      <c r="H113" s="32">
-        <f>D113+E113+F113+G113</f>
+      <c r="H119" s="32">
+        <f>D119+E119+F119+G119</f>
         <v>414180</v>
       </c>
     </row>
-    <row r="114" spans="1:10" s="134" customFormat="1" ht="15.6">
-      <c r="A114" s="31">
+    <row r="120" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A120" s="31">
         <v>44988</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B120" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C120" s="32" t="s">
         <v>571</v>
       </c>
-      <c r="D114" s="32">
+      <c r="D120" s="32">
         <v>90816</v>
       </c>
-      <c r="E114" s="32"/>
-      <c r="F114" s="32">
+      <c r="E120" s="32"/>
+      <c r="F120" s="32">
         <v>8173.44</v>
       </c>
-      <c r="G114" s="32">
+      <c r="G120" s="32">
         <v>8173.44</v>
       </c>
-      <c r="H114" s="32">
-        <f t="shared" ref="H114:H121" si="5">D114+E114+F114+G114</f>
+      <c r="H120" s="32">
+        <f t="shared" ref="H120:H126" si="5">D120+E120+F120+G120</f>
         <v>107162.88</v>
       </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-    </row>
-    <row r="115" spans="1:10" s="134" customFormat="1" ht="15.6">
-      <c r="A115" s="31">
+      <c r="I120" s="7"/>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A121" s="31">
         <v>44988</v>
       </c>
-      <c r="B115" s="32" t="s">
+      <c r="B121" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C115" s="32" t="s">
+      <c r="C121" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="D115" s="32">
+      <c r="D121" s="32">
         <v>58450</v>
       </c>
-      <c r="E115" s="32"/>
-      <c r="F115" s="32">
+      <c r="E121" s="32"/>
+      <c r="F121" s="32">
         <v>5260.5</v>
       </c>
-      <c r="G115" s="32">
+      <c r="G121" s="32">
         <v>5260.5</v>
       </c>
-      <c r="H115" s="32">
+      <c r="H121" s="32">
         <f t="shared" si="5"/>
         <v>68971</v>
       </c>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-    </row>
-    <row r="116" spans="1:10" s="134" customFormat="1" ht="15.6">
-      <c r="A116" s="31">
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A122" s="31">
         <v>44989</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="B122" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="32" t="s">
+      <c r="C122" s="32" t="s">
         <v>573</v>
       </c>
-      <c r="D116" s="32">
+      <c r="D122" s="32">
         <v>53056</v>
       </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32">
+      <c r="E122" s="32"/>
+      <c r="F122" s="32">
         <v>4775.04</v>
       </c>
-      <c r="G116" s="32">
+      <c r="G122" s="32">
         <v>4775.04</v>
       </c>
-      <c r="H116" s="32">
+      <c r="H122" s="32">
         <f t="shared" si="5"/>
         <v>62606.080000000002</v>
       </c>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-    </row>
-    <row r="117" spans="1:10" s="134" customFormat="1" ht="15.6">
-      <c r="A117" s="31"/>
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="F117" s="32"/>
-      <c r="G117" s="32"/>
-      <c r="H117" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A118" s="31"/>
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32"/>
-      <c r="G118" s="32"/>
-      <c r="H118" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" s="134" customFormat="1" ht="15.6">
-      <c r="A119" s="31"/>
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-    </row>
-    <row r="120" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A120" s="31"/>
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="32"/>
-      <c r="H120" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-    </row>
-    <row r="121" spans="1:10" ht="15.6">
-      <c r="A121" s="31"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="F121" s="32"/>
-      <c r="G121" s="32"/>
-      <c r="H121" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-    </row>
-    <row r="122" spans="1:10" ht="21">
-      <c r="A122" s="154" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" s="154"/>
-      <c r="C122" s="154"/>
-      <c r="D122" s="19">
-        <f>SUM(D112:D121)</f>
-        <v>560522</v>
-      </c>
-      <c r="E122" s="19">
-        <f>SUM(E112:E121)</f>
-        <v>0</v>
-      </c>
-      <c r="F122" s="19">
-        <f>SUM(F112:F121)</f>
-        <v>50446.98</v>
-      </c>
-      <c r="G122" s="19">
-        <f>SUM(G112:G121)</f>
-        <v>50446.98</v>
-      </c>
-      <c r="H122" s="19">
-        <f>SUM(H112:H121)</f>
-        <v>661415.96</v>
-      </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
-    <row r="123" spans="1:10" ht="21">
-      <c r="A123" s="141" t="s">
+    <row r="123" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A123" s="31">
+        <v>44989</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D123" s="32">
+        <v>67868</v>
+      </c>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32">
+        <v>6108.12</v>
+      </c>
+      <c r="G123" s="32">
+        <v>6108.12</v>
+      </c>
+      <c r="H123" s="32">
+        <f t="shared" si="5"/>
+        <v>80084.239999999991</v>
+      </c>
+      <c r="I123" s="7"/>
+      <c r="J123" s="7"/>
+    </row>
+    <row r="124" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A124" s="31">
+        <v>44998</v>
+      </c>
+      <c r="B124" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D124" s="32">
+        <v>13042</v>
+      </c>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32">
+        <v>1173.78</v>
+      </c>
+      <c r="G124" s="32">
+        <v>1173.78</v>
+      </c>
+      <c r="H124" s="32">
+        <f t="shared" si="5"/>
+        <v>15389.560000000001</v>
+      </c>
+      <c r="I124" s="7"/>
+      <c r="J124" s="7"/>
+    </row>
+    <row r="125" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A125" s="31">
+        <v>44998</v>
+      </c>
+      <c r="B125" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D125" s="32">
+        <v>168571</v>
+      </c>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32">
+        <v>15171.39</v>
+      </c>
+      <c r="G125" s="32">
+        <v>15171.39</v>
+      </c>
+      <c r="H125" s="32">
+        <f t="shared" si="5"/>
+        <v>198913.78000000003</v>
+      </c>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+    </row>
+    <row r="126" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A126" s="31">
+        <v>44998</v>
+      </c>
+      <c r="B126" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D126" s="32">
+        <v>99123</v>
+      </c>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="G126" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="H126" s="32">
+        <f t="shared" si="5"/>
+        <v>116965.14000000001</v>
+      </c>
+      <c r="I126" s="7"/>
+      <c r="J126" s="7"/>
+    </row>
+    <row r="127" spans="1:10" ht="21">
+      <c r="A127" s="154" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" s="154"/>
+      <c r="C127" s="154"/>
+      <c r="D127" s="19">
+        <f>SUM(D118:D126)</f>
+        <v>909126</v>
+      </c>
+      <c r="E127" s="19">
+        <f>SUM(E118:E126)</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="19">
+        <f>SUM(F118:F126)</f>
+        <v>81821.34</v>
+      </c>
+      <c r="G127" s="19">
+        <f>SUM(G118:G126)</f>
+        <v>81821.34</v>
+      </c>
+      <c r="H127" s="19">
+        <f>SUM(H118:H126)</f>
+        <v>1072768.6800000002</v>
+      </c>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+    </row>
+    <row r="128" spans="1:10" ht="21">
+      <c r="A128" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B123" s="142"/>
-      <c r="C123" s="142"/>
-      <c r="D123" s="142"/>
-      <c r="E123" s="142"/>
-      <c r="F123" s="142"/>
-      <c r="G123" s="142"/>
-      <c r="H123" s="142"/>
-      <c r="I123" s="142"/>
-      <c r="J123" s="143"/>
-    </row>
-    <row r="124" spans="1:10">
-      <c r="A124" s="16" t="s">
+      <c r="B128" s="140"/>
+      <c r="C128" s="140"/>
+      <c r="D128" s="140"/>
+      <c r="E128" s="140"/>
+      <c r="F128" s="140"/>
+      <c r="G128" s="140"/>
+      <c r="H128" s="140"/>
+      <c r="I128" s="140"/>
+      <c r="J128" s="141"/>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B129" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C124" s="16" t="s">
+      <c r="C129" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="16" t="s">
+      <c r="D129" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E124" s="16" t="s">
+      <c r="E129" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F124" s="16" t="s">
+      <c r="F129" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G124" s="16" t="s">
+      <c r="G129" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H124" s="17" t="s">
+      <c r="H129" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I124" s="17" t="s">
+      <c r="I129" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J124" s="17" t="s">
+      <c r="J129" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.6">
-      <c r="A125" s="13">
+    <row r="130" spans="1:10" ht="15.6">
+      <c r="A130" s="13">
         <v>44987</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="D125" s="15">
-        <v>26135</v>
-      </c>
-      <c r="E125" s="15">
-        <v>4704.3</v>
-      </c>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15">
-        <f>D125+E125+F125+G125</f>
-        <v>30839.3</v>
-      </c>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A126" s="13">
-        <v>44988</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="C126" s="15">
-        <v>7334</v>
-      </c>
-      <c r="D126" s="15">
-        <v>4830.5</v>
-      </c>
-      <c r="E126" s="15">
-        <v>869.5</v>
-      </c>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15">
-        <f t="shared" ref="H126:H140" si="6">D126+E126+F126+G126</f>
-        <v>5700</v>
-      </c>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A127" s="13">
-        <v>44989</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C127" s="15">
-        <v>2308</v>
-      </c>
-      <c r="D127" s="15">
-        <v>2404.8000000000002</v>
-      </c>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15">
-        <v>216.43</v>
-      </c>
-      <c r="G127" s="15">
-        <v>216.43</v>
-      </c>
-      <c r="H127" s="15">
-        <f t="shared" si="6"/>
-        <v>2837.66</v>
-      </c>
-      <c r="I127" s="15"/>
-      <c r="J127" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A128" s="13">
-        <v>44989</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="15">
-        <v>2319</v>
-      </c>
-      <c r="D128" s="15">
-        <v>814</v>
-      </c>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="G128" s="15">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="H128" s="15">
-        <f t="shared" si="6"/>
-        <v>960.52</v>
-      </c>
-      <c r="I128" s="15"/>
-      <c r="J128" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A129" s="13">
-        <v>44991</v>
-      </c>
-      <c r="B129" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="D129" s="15">
-        <v>32650</v>
-      </c>
-      <c r="E129" s="15">
-        <v>5677</v>
-      </c>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
-      <c r="H129" s="15">
-        <f t="shared" si="6"/>
-        <v>38327</v>
-      </c>
-      <c r="I129" s="15"/>
-      <c r="J129" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A130" s="13">
-        <v>44991</v>
       </c>
       <c r="B130" s="33" t="s">
         <v>45</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D130" s="15">
-        <v>43730</v>
+        <v>26135</v>
       </c>
       <c r="E130" s="15">
-        <v>7871.4</v>
+        <v>4704.3</v>
       </c>
       <c r="F130" s="15"/>
       <c r="G130" s="15"/>
       <c r="H130" s="15">
-        <f t="shared" si="6"/>
-        <v>51601.4</v>
+        <f>D130+E130+F130+G130</f>
+        <v>30839.3</v>
       </c>
       <c r="I130" s="15"/>
       <c r="J130" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131" spans="1:10" s="138" customFormat="1" ht="15.6">
+    <row r="131" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A131" s="13">
-        <v>44993</v>
+        <v>44988</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>581</v>
+        <v>576</v>
+      </c>
+      <c r="C131" s="15">
+        <v>7334</v>
       </c>
       <c r="D131" s="15">
-        <v>550</v>
-      </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15">
-        <v>49.5</v>
-      </c>
-      <c r="G131" s="15">
-        <v>49.5</v>
-      </c>
+        <v>4830.5</v>
+      </c>
+      <c r="E131" s="15">
+        <v>869.5</v>
+      </c>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
       <c r="H131" s="15">
-        <f t="shared" si="6"/>
-        <v>649</v>
+        <f t="shared" ref="H131:H137" si="6">D131+E131+F131+G131</f>
+        <v>5700</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A132" s="13"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A132" s="13">
+        <v>44989</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" s="15">
+        <v>2308</v>
+      </c>
+      <c r="D132" s="15">
+        <v>2404.8000000000002</v>
+      </c>
       <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
+      <c r="F132" s="15">
+        <v>216.43</v>
+      </c>
+      <c r="G132" s="15">
+        <v>216.43</v>
+      </c>
       <c r="H132" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2837.66</v>
       </c>
       <c r="I132" s="15"/>
-      <c r="J132" s="15"/>
-    </row>
-    <row r="133" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A133" s="13"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
+      <c r="J132" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A133" s="13">
+        <v>44989</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" s="15">
+        <v>2319</v>
+      </c>
+      <c r="D133" s="15">
+        <v>814</v>
+      </c>
       <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
+      <c r="F133" s="15">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="G133" s="15">
+        <v>73.260000000000005</v>
+      </c>
       <c r="H133" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>960.52</v>
       </c>
       <c r="I133" s="15"/>
-      <c r="J133" s="15"/>
-    </row>
-    <row r="134" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A134" s="13"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
+      <c r="J133" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A134" s="13">
+        <v>44991</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="D134" s="15">
+        <v>32650</v>
+      </c>
+      <c r="E134" s="15">
+        <v>5677</v>
+      </c>
       <c r="F134" s="15"/>
       <c r="G134" s="15"/>
       <c r="H134" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>38327</v>
       </c>
       <c r="I134" s="15"/>
-      <c r="J134" s="15"/>
-    </row>
-    <row r="135" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A135" s="13"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
+      <c r="J134" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A135" s="13">
+        <v>44991</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D135" s="15">
+        <v>43730</v>
+      </c>
+      <c r="E135" s="15">
+        <v>7871.4</v>
+      </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>51601.4</v>
       </c>
       <c r="I135" s="15"/>
-      <c r="J135" s="15"/>
-    </row>
-    <row r="136" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A136" s="13"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
+      <c r="J135" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A136" s="13">
+        <v>44993</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D136" s="15">
+        <v>550</v>
+      </c>
       <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
+      <c r="F136" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="G136" s="15">
+        <v>49.5</v>
+      </c>
       <c r="H136" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="I136" s="15"/>
-      <c r="J136" s="15"/>
-    </row>
-    <row r="137" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A137" s="13"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="15"/>
-      <c r="D137" s="15"/>
-      <c r="E137" s="15"/>
+      <c r="J136" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A137" s="13">
+        <v>44995</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D137" s="15">
+        <v>25290</v>
+      </c>
+      <c r="E137" s="15">
+        <v>4552</v>
+      </c>
       <c r="F137" s="15"/>
       <c r="G137" s="15"/>
       <c r="H137" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>29842</v>
       </c>
       <c r="I137" s="15"/>
-      <c r="J137" s="15"/>
-    </row>
-    <row r="138" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A138" s="13"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="15"/>
-      <c r="D138" s="15"/>
-      <c r="E138" s="15"/>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15"/>
-    </row>
-    <row r="139" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A139" s="13"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="15"/>
-      <c r="D139" s="15"/>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-    </row>
-    <row r="140" spans="1:10" ht="15.6">
-      <c r="A140" s="13"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
-      <c r="H140" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15"/>
-    </row>
-    <row r="141" spans="1:10" ht="21">
-      <c r="A141" s="164" t="s">
+      <c r="J137" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="21">
+      <c r="A138" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="165"/>
-      <c r="C141" s="166"/>
-      <c r="D141" s="19">
-        <f>SUM(D125:D140)</f>
-        <v>111114.3</v>
-      </c>
-      <c r="E141" s="19">
-        <f>SUM(E125:E140)</f>
-        <v>19122.199999999997</v>
-      </c>
-      <c r="F141" s="19">
-        <f>SUM(F125:F140)</f>
+      <c r="B138" s="165"/>
+      <c r="C138" s="166"/>
+      <c r="D138" s="19">
+        <f>SUM(D130:D137)</f>
+        <v>136404.29999999999</v>
+      </c>
+      <c r="E138" s="19">
+        <f>SUM(E130:E137)</f>
+        <v>23674.199999999997</v>
+      </c>
+      <c r="F138" s="19">
+        <f>SUM(F130:F137)</f>
         <v>339.19</v>
       </c>
-      <c r="G141" s="19">
-        <f>SUM(G125:G140)</f>
+      <c r="G138" s="19">
+        <f>SUM(G130:G137)</f>
         <v>339.19</v>
       </c>
-      <c r="H141" s="19">
-        <f>SUM(H125:H140)</f>
-        <v>130914.88</v>
-      </c>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-    </row>
-    <row r="143" spans="1:10" s="108" customFormat="1">
-      <c r="A143" s="109">
+      <c r="H138" s="19">
+        <f>SUM(H130:H137)</f>
+        <v>160756.88</v>
+      </c>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+    </row>
+    <row r="140" spans="1:10" s="107" customFormat="1">
+      <c r="A140" s="108">
         <v>44841</v>
       </c>
-      <c r="B143" s="110" t="s">
+      <c r="B140" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="C143" s="110" t="s">
+      <c r="C140" s="109" t="s">
         <v>452</v>
       </c>
-      <c r="D143" s="36">
+      <c r="D140" s="36">
         <v>55015</v>
       </c>
-      <c r="E143" s="36"/>
-      <c r="F143" s="36">
+      <c r="E140" s="36"/>
+      <c r="F140" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G143" s="36">
+      <c r="G140" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H143" s="36">
-        <f>D143+E143+F143+G143</f>
+      <c r="H140" s="36">
+        <f>D140+E140+F140+G140</f>
         <v>64917.7</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="108" customFormat="1">
-      <c r="A144" s="111"/>
-    </row>
-    <row r="145" spans="1:8" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A145" s="31">
+    <row r="141" spans="1:10" s="107" customFormat="1">
+      <c r="A141" s="110"/>
+    </row>
+    <row r="142" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A142" s="31">
         <v>44932</v>
       </c>
-      <c r="B145" s="32" t="s">
+      <c r="B142" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="32" t="s">
+      <c r="C142" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D145" s="32">
+      <c r="D142" s="32">
         <v>900</v>
       </c>
-      <c r="E145" s="32"/>
-      <c r="F145" s="32">
+      <c r="E142" s="32"/>
+      <c r="F142" s="32">
         <v>81</v>
       </c>
-      <c r="G145" s="32">
+      <c r="G142" s="32">
         <v>81</v>
       </c>
-      <c r="H145" s="32">
-        <f>D145+E145+F145+G145</f>
+      <c r="H142" s="32">
+        <f>D142+E142+F142+G142</f>
         <v>1062</v>
       </c>
     </row>
-    <row r="301" spans="12:12">
-      <c r="L301" s="18" t="s">
+    <row r="298" spans="12:12">
+      <c r="L298" s="18" t="s">
         <v>574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="A123:J123"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A109:J109"/>
-    <mergeCell ref="A110:H110"/>
     <mergeCell ref="A70:J70"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A128:J128"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:J82"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="A115:J115"/>
+    <mergeCell ref="A116:H116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="597">
   <si>
     <t>Taxable</t>
   </si>
@@ -1815,6 +1815,9 @@
   </si>
   <si>
     <t>478/22-23</t>
+  </si>
+  <si>
+    <t>Zennio Z 41j</t>
   </si>
 </sst>
 </file>
@@ -2088,7 +2091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2501,6 +2504,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4068,30 +4077,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -4313,11 +4322,11 @@
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="67" customFormat="1" ht="21">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="68">
         <f>SUM(D5:D11)</f>
         <v>818543</v>
@@ -4342,18 +4351,18 @@
       <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="139" t="s">
+      <c r="A13" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="25" t="s">
@@ -4577,11 +4586,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
       <c r="D22" s="73">
         <f>SUM(D15:D21)</f>
         <v>171530</v>
@@ -4606,30 +4615,30 @@
       <c r="J22" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
@@ -4824,11 +4833,11 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
       <c r="D33" s="24">
         <f>SUM(D27:D32)</f>
         <v>647194</v>
@@ -4853,18 +4862,18 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="139" t="s">
+      <c r="A34" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="143"/>
     </row>
     <row r="35" spans="1:10" s="22" customFormat="1">
       <c r="A35" s="25" t="s">
@@ -5534,11 +5543,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A59" s="150" t="s">
+      <c r="A59" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="151"/>
-      <c r="C59" s="152"/>
+      <c r="B59" s="153"/>
+      <c r="C59" s="154"/>
       <c r="D59" s="24">
         <f>SUM(D36:D58)</f>
         <v>250017.81</v>
@@ -5563,30 +5572,30 @@
       <c r="J59" s="24"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="142" t="s">
+      <c r="A61" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="143"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="144"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="146"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="139" t="s">
+      <c r="A62" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="141"/>
+      <c r="B62" s="142"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="143"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
@@ -5837,11 +5846,11 @@
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A72" s="149" t="s">
+      <c r="A72" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="149"/>
-      <c r="C72" s="149"/>
+      <c r="B72" s="151"/>
+      <c r="C72" s="151"/>
       <c r="D72" s="24">
         <f>SUM(D64:D71)</f>
         <v>658373</v>
@@ -5866,18 +5875,18 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="139" t="s">
+      <c r="A73" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="140"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="141"/>
+      <c r="B73" s="142"/>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="143"/>
     </row>
     <row r="74" spans="1:10" s="22" customFormat="1">
       <c r="A74" s="25" t="s">
@@ -6551,11 +6560,11 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A98" s="150" t="s">
+      <c r="A98" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="151"/>
-      <c r="C98" s="152"/>
+      <c r="B98" s="153"/>
+      <c r="C98" s="154"/>
       <c r="D98" s="24">
         <f>SUM(D75:D97)</f>
         <v>407367.41000000003</v>
@@ -6580,18 +6589,18 @@
       <c r="J98" s="24"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="153"/>
-      <c r="B100" s="153"/>
-      <c r="C100" s="153"/>
-      <c r="D100" s="153"/>
-      <c r="E100" s="153"/>
+      <c r="A100" s="155"/>
+      <c r="B100" s="155"/>
+      <c r="C100" s="155"/>
+      <c r="D100" s="155"/>
+      <c r="E100" s="155"/>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="153"/>
-      <c r="B108" s="153"/>
-      <c r="C108" s="153"/>
-      <c r="D108" s="153"/>
-      <c r="E108" s="153"/>
+      <c r="A108" s="155"/>
+      <c r="B108" s="155"/>
+      <c r="C108" s="155"/>
+      <c r="D108" s="155"/>
+      <c r="E108" s="155"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="18"/>
@@ -6664,30 +6673,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -6967,11 +6976,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
       <c r="D14" s="6">
         <f>SUM(D5:D13)</f>
         <v>817479</v>
@@ -6996,18 +7005,18 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -7376,11 +7385,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="155" t="s">
+      <c r="A29" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="155"/>
-      <c r="C29" s="155"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="157"/>
       <c r="D29" s="38">
         <f>SUM(D17:D28)</f>
         <v>310112.45</v>
@@ -7410,30 +7419,30 @@
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="139" t="s">
+      <c r="A32" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="141"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="143"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
@@ -7605,11 +7614,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="154" t="s">
+      <c r="A39" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="154"/>
-      <c r="C39" s="154"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
       <c r="D39" s="6">
         <f>SUM(D34:D38)</f>
         <v>115746</v>
@@ -7634,18 +7643,18 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="141"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="143"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -8325,11 +8334,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="157" t="s">
+      <c r="A65" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="157"/>
-      <c r="C65" s="157"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="159"/>
       <c r="D65" s="43">
         <f>SUM(D42:D64)</f>
         <v>300583.33</v>
@@ -8354,30 +8363,30 @@
       <c r="J65" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="142" t="s">
+      <c r="A67" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="143"/>
-      <c r="C67" s="143"/>
-      <c r="D67" s="143"/>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="G67" s="143"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="143"/>
-      <c r="J67" s="144"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="145"/>
+      <c r="D67" s="145"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+      <c r="G67" s="145"/>
+      <c r="H67" s="145"/>
+      <c r="I67" s="145"/>
+      <c r="J67" s="146"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="139" t="s">
+      <c r="A68" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="140"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="141"/>
+      <c r="B68" s="142"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="143"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
@@ -8491,11 +8500,11 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="154" t="s">
+      <c r="A73" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="154"/>
-      <c r="C73" s="154"/>
+      <c r="B73" s="156"/>
+      <c r="C73" s="156"/>
       <c r="D73" s="6">
         <f>SUM(D70:D72)</f>
         <v>150834.79999999999</v>
@@ -8520,18 +8529,18 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="139" t="s">
+      <c r="A74" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="143"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
@@ -9067,11 +9076,11 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="156" t="s">
+      <c r="A94" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="156"/>
-      <c r="C94" s="156"/>
+      <c r="B94" s="158"/>
+      <c r="C94" s="158"/>
       <c r="D94" s="65">
         <f>SUM(D76:D93)</f>
         <v>120359.97999999998</v>
@@ -9214,8 +9223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9234,30 +9243,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -9371,11 +9380,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="154"/>
-      <c r="C8" s="154"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
       <c r="D8" s="6">
         <f>SUM(D5:D7)</f>
         <v>185386</v>
@@ -9400,18 +9409,18 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="139" t="s">
+      <c r="A9" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
@@ -9976,11 +9985,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="158" t="s">
+      <c r="A30" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="162"/>
       <c r="D30" s="43">
         <f>SUM(D11:D29)</f>
         <v>79243.67</v>
@@ -10010,30 +10019,30 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="142" t="s">
+      <c r="A32" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="141"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="143"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
@@ -10201,11 +10210,11 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="154" t="s">
+      <c r="A40" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="154"/>
-      <c r="C40" s="154"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
       <c r="D40" s="6">
         <f>SUM(D35:D39)</f>
         <v>1018828</v>
@@ -10230,18 +10239,18 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="139" t="s">
+      <c r="A41" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="141"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="143"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
@@ -11051,11 +11060,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="156" t="s">
+      <c r="A71" s="158" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="156"/>
-      <c r="C71" s="156"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="158"/>
       <c r="D71" s="65">
         <f>SUM(D43:D70)</f>
         <v>1221066.1900000002</v>
@@ -11080,30 +11089,30 @@
       <c r="J71" s="65"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="142" t="s">
+      <c r="A73" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="143"/>
-      <c r="C73" s="143"/>
-      <c r="D73" s="143"/>
-      <c r="E73" s="143"/>
-      <c r="F73" s="143"/>
-      <c r="G73" s="143"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="143"/>
-      <c r="J73" s="144"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="145"/>
+      <c r="D73" s="145"/>
+      <c r="E73" s="145"/>
+      <c r="F73" s="145"/>
+      <c r="G73" s="145"/>
+      <c r="H73" s="145"/>
+      <c r="I73" s="145"/>
+      <c r="J73" s="146"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="139" t="s">
+      <c r="A74" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="140"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="141"/>
+      <c r="B74" s="142"/>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="143"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
@@ -11292,11 +11301,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="154" t="s">
+      <c r="A82" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="154"/>
-      <c r="C82" s="154"/>
+      <c r="B82" s="156"/>
+      <c r="C82" s="156"/>
       <c r="D82" s="6">
         <f>SUM(D76:D81)</f>
         <v>419674</v>
@@ -11321,18 +11330,18 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="139" t="s">
+      <c r="A83" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="140"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="141"/>
+      <c r="B83" s="142"/>
+      <c r="C83" s="142"/>
+      <c r="D83" s="142"/>
+      <c r="E83" s="142"/>
+      <c r="F83" s="142"/>
+      <c r="G83" s="142"/>
+      <c r="H83" s="142"/>
+      <c r="I83" s="142"/>
+      <c r="J83" s="143"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16" t="s">
@@ -12088,11 +12097,11 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="161" t="s">
+      <c r="A111" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="162"/>
-      <c r="C111" s="163"/>
+      <c r="B111" s="164"/>
+      <c r="C111" s="165"/>
       <c r="D111" s="65">
         <f>SUM(D85:D110)</f>
         <v>310841.41999999993</v>
@@ -12216,10 +12225,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L298"/>
+  <dimension ref="A2:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12238,30 +12247,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="141"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="143"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -12428,8 +12437,8 @@
       <c r="A10" s="31">
         <v>44938</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>48</v>
+      <c r="B10" s="140" t="s">
+        <v>596</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>451</v>
@@ -12614,11 +12623,11 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
       <c r="D17" s="19">
         <f>SUM(D5:D16)</f>
         <v>2294715</v>
@@ -12643,18 +12652,18 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="139" t="s">
+      <c r="A18" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="143"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16" t="s">
@@ -14021,11 +14030,11 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="154" t="s">
+      <c r="A68" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="154"/>
-      <c r="C68" s="154"/>
+      <c r="B68" s="156"/>
+      <c r="C68" s="156"/>
       <c r="D68" s="19">
         <f>SUM(D20:D67)</f>
         <v>1487338.56</v>
@@ -14050,30 +14059,30 @@
       <c r="J68" s="19"/>
     </row>
     <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="142" t="s">
+      <c r="A70" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="143"/>
-      <c r="C70" s="143"/>
-      <c r="D70" s="143"/>
-      <c r="E70" s="143"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="143"/>
-      <c r="I70" s="143"/>
-      <c r="J70" s="144"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145"/>
+      <c r="G70" s="145"/>
+      <c r="H70" s="145"/>
+      <c r="I70" s="145"/>
+      <c r="J70" s="146"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="139" t="s">
+      <c r="A71" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="140"/>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="141"/>
+      <c r="B71" s="142"/>
+      <c r="C71" s="142"/>
+      <c r="D71" s="142"/>
+      <c r="E71" s="142"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="142"/>
+      <c r="H71" s="143"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
@@ -14322,11 +14331,11 @@
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="154" t="s">
+      <c r="A81" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B81" s="154"/>
-      <c r="C81" s="154"/>
+      <c r="B81" s="156"/>
+      <c r="C81" s="156"/>
       <c r="D81" s="19">
         <f>SUM(D73:D80)</f>
         <v>1181267</v>
@@ -14351,18 +14360,18 @@
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="139" t="s">
+      <c r="A82" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="140"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="141"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="142"/>
+      <c r="D82" s="142"/>
+      <c r="E82" s="142"/>
+      <c r="F82" s="142"/>
+      <c r="G82" s="142"/>
+      <c r="H82" s="142"/>
+      <c r="I82" s="142"/>
+      <c r="J82" s="143"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="16" t="s">
@@ -14444,7 +14453,7 @@
         <v>4095.63</v>
       </c>
       <c r="H85" s="57">
-        <f t="shared" ref="H85:H112" si="4">D85+E85+F85+G85</f>
+        <f t="shared" ref="H85:H113" si="4">D85+E85+F85+G85</f>
         <v>53698.259999999995</v>
       </c>
       <c r="I85" s="33"/>
@@ -14702,14 +14711,14 @@
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="138" customFormat="1" ht="15.6">
+    <row r="95" spans="1:10" s="30" customFormat="1" ht="15.6">
       <c r="A95" s="37">
         <v>44964</v>
       </c>
       <c r="B95" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="33" t="s">
         <v>589</v>
       </c>
       <c r="D95" s="33">
@@ -14727,7 +14736,7 @@
         <v>1800.01</v>
       </c>
       <c r="I95" s="33"/>
-      <c r="J95" s="32" t="s">
+      <c r="J95" s="33" t="s">
         <v>436</v>
       </c>
     </row>
@@ -14921,250 +14930,250 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A103" s="44">
-        <v>44971</v>
+    <row r="103" spans="1:10" s="139" customFormat="1" ht="21" customHeight="1">
+      <c r="A103" s="37">
+        <v>44970</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C103" s="40">
-        <v>2881072727</v>
+        <v>540</v>
+      </c>
+      <c r="C103" s="32">
+        <v>2482</v>
       </c>
       <c r="D103" s="33">
-        <v>1030</v>
-      </c>
-      <c r="E103" s="33">
-        <v>51.5</v>
-      </c>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
+        <v>220.34</v>
+      </c>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33">
+        <v>19.32</v>
+      </c>
+      <c r="G103" s="33">
+        <v>19.32</v>
+      </c>
       <c r="H103" s="33">
         <f>D103+E103+F103+G103</f>
-        <v>1081.5</v>
+        <v>258.98</v>
       </c>
       <c r="I103" s="33"/>
       <c r="J103" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="133" customFormat="1" ht="21" customHeight="1">
-      <c r="A104" s="37">
-        <v>44977</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A104" s="44">
+        <v>44971</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>570</v>
+        <v>372</v>
+      </c>
+      <c r="C104" s="40">
+        <v>2881072727</v>
       </c>
       <c r="D104" s="33">
-        <v>1101.7</v>
-      </c>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33">
-        <v>99.15</v>
-      </c>
-      <c r="G104" s="33">
-        <v>99.15</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="E104" s="33">
+        <v>51.5</v>
+      </c>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
       <c r="H104" s="33">
         <f>D104+E104+F104+G104</f>
-        <v>1300.0000000000002</v>
+        <v>1081.5</v>
       </c>
       <c r="I104" s="33"/>
       <c r="J104" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="30" customFormat="1" ht="21" customHeight="1">
+      <c r="A105" s="37">
+        <v>44977</v>
+      </c>
+      <c r="B105" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D105" s="33">
+        <v>1101.7</v>
+      </c>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="G105" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="H105" s="33">
+        <f>D105+E105+F105+G105</f>
+        <v>1300.0000000000002</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.6">
-      <c r="A105" s="135">
+    <row r="106" spans="1:10" ht="15.6">
+      <c r="A106" s="135">
         <v>44978</v>
       </c>
-      <c r="B105" s="33" t="s">
+      <c r="B106" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="57" t="s">
+      <c r="C106" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D105" s="57">
+      <c r="D106" s="57">
         <v>23035</v>
       </c>
-      <c r="E105" s="57">
+      <c r="E106" s="57">
         <v>4146.3</v>
       </c>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57">
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57">
         <v>27181</v>
       </c>
-      <c r="I105" s="136"/>
-      <c r="J105" s="136" t="s">
+      <c r="I106" s="136"/>
+      <c r="J106" s="136" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="58">
+    <row r="107" spans="1:10" ht="15.6">
+      <c r="A107" s="58">
         <v>44978</v>
       </c>
-      <c r="B106" s="45" t="s">
+      <c r="B107" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C106" s="59">
+      <c r="C107" s="59">
         <v>289</v>
       </c>
-      <c r="D106" s="59">
+      <c r="D107" s="59">
         <v>3855</v>
       </c>
-      <c r="E106" s="59">
+      <c r="E107" s="59">
         <v>462.6</v>
       </c>
-      <c r="F106" s="59"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="59">
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59">
         <v>4318</v>
       </c>
-      <c r="I106" s="59"/>
-      <c r="J106" s="59" t="s">
+      <c r="I107" s="59"/>
+      <c r="J107" s="59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A107" s="37">
+    <row r="108" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A108" s="37">
         <v>44978</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B108" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="C107" s="32" t="s">
+      <c r="C108" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D108" s="33">
         <v>250</v>
       </c>
-      <c r="E107" s="33">
+      <c r="E108" s="33">
         <v>12.5</v>
       </c>
-      <c r="F107" s="33"/>
-      <c r="G107" s="33"/>
-      <c r="H107" s="33">
-        <f>D107+E107+F107+G107</f>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33">
+        <f>D108+E108+F108+G108</f>
         <v>262.5</v>
       </c>
-      <c r="I107" s="33"/>
-      <c r="J107" s="32" t="s">
+      <c r="I108" s="33"/>
+      <c r="J108" s="32" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" s="131" customFormat="1" ht="15.6">
-      <c r="A108" s="58">
-        <v>44981</v>
-      </c>
-      <c r="B108" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C108" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="D108" s="57">
-        <v>14013</v>
-      </c>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57">
-        <v>1261.17</v>
-      </c>
-      <c r="G108" s="57">
-        <v>1261.17</v>
-      </c>
-      <c r="H108" s="57">
-        <v>16535</v>
-      </c>
-      <c r="I108" s="59"/>
-      <c r="J108" s="59" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="131" customFormat="1" ht="15.6">
       <c r="A109" s="58">
         <v>44981</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="D109" s="57">
+        <v>14013</v>
+      </c>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57">
+        <v>1261.17</v>
+      </c>
+      <c r="G109" s="57">
+        <v>1261.17</v>
+      </c>
+      <c r="H109" s="57">
+        <v>16535</v>
+      </c>
+      <c r="I109" s="59"/>
+      <c r="J109" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="131" customFormat="1" ht="15.6">
+      <c r="A110" s="58">
+        <v>44981</v>
+      </c>
+      <c r="B110" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C110" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="D109" s="59">
+      <c r="D110" s="59">
         <v>45450</v>
       </c>
-      <c r="E109" s="59">
+      <c r="E110" s="59">
         <v>8181</v>
       </c>
-      <c r="F109" s="59"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="59">
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59">
         <f t="shared" si="4"/>
         <v>53631</v>
       </c>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59" t="s">
+      <c r="I110" s="59"/>
+      <c r="J110" s="59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="133" customFormat="1" ht="31.2">
-      <c r="A110" s="37">
+    <row r="111" spans="1:10" s="133" customFormat="1" ht="31.2">
+      <c r="A111" s="37">
         <v>44983</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B111" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="C110" s="32" t="s">
+      <c r="C111" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D111" s="33">
         <v>15</v>
       </c>
-      <c r="E110" s="33">
+      <c r="E111" s="33">
         <v>2.7</v>
       </c>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33">
+      <c r="F111" s="33"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="33">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="I110" s="33"/>
-      <c r="J110" s="32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A111" s="37">
-        <v>44985</v>
-      </c>
-      <c r="B111" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="D111" s="33">
-        <v>300</v>
-      </c>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33">
-        <v>27</v>
-      </c>
-      <c r="G111" s="33">
-        <v>27</v>
-      </c>
-      <c r="H111" s="33">
-        <f t="shared" si="4"/>
-        <v>354</v>
-      </c>
       <c r="I111" s="33"/>
       <c r="J111" s="32" t="s">
-        <v>82</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="138" customFormat="1" ht="15.6">
@@ -15172,195 +15181,197 @@
         <v>44985</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D112" s="33">
-        <v>37922.5</v>
+        <v>300</v>
       </c>
       <c r="E112" s="33"/>
       <c r="F112" s="33">
-        <v>3413.03</v>
+        <v>27</v>
       </c>
       <c r="G112" s="33">
-        <v>3413.03</v>
+        <v>27</v>
       </c>
       <c r="H112" s="33">
         <f t="shared" si="4"/>
-        <v>44748.56</v>
+        <v>354</v>
       </c>
       <c r="I112" s="33"/>
       <c r="J112" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A113" s="37">
+        <v>44985</v>
+      </c>
+      <c r="B113" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D113" s="33">
+        <v>37922.5</v>
+      </c>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="G113" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="H113" s="33">
+        <f t="shared" si="4"/>
+        <v>44748.56</v>
+      </c>
+      <c r="I113" s="33"/>
+      <c r="J113" s="32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="21">
-      <c r="A113" s="154" t="s">
+    <row r="114" spans="1:10" ht="21">
+      <c r="A114" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="154"/>
-      <c r="C113" s="154"/>
-      <c r="D113" s="19">
-        <f>SUM(D84:D112)</f>
-        <v>552113.95900000003</v>
-      </c>
-      <c r="E113" s="19">
-        <f>SUM(E84:E112)</f>
+      <c r="B114" s="156"/>
+      <c r="C114" s="156"/>
+      <c r="D114" s="19">
+        <f>SUM(D84:D113)</f>
+        <v>552334.299</v>
+      </c>
+      <c r="E114" s="19">
+        <f>SUM(E84:E113)</f>
         <v>55039.579999999994</v>
       </c>
-      <c r="F113" s="19">
-        <f>SUM(F84:F112)</f>
-        <v>21667.335000000006</v>
-      </c>
-      <c r="G113" s="19">
-        <f>SUM(G84:G112)</f>
-        <v>21667.335000000006</v>
-      </c>
-      <c r="H113" s="19">
-        <f>SUM(H84:H112)</f>
-        <v>650487.39000000013</v>
-      </c>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-    </row>
-    <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="142" t="s">
+      <c r="F114" s="19">
+        <f>SUM(F84:F113)</f>
+        <v>21686.655000000006</v>
+      </c>
+      <c r="G114" s="19">
+        <f>SUM(G84:G113)</f>
+        <v>21686.655000000006</v>
+      </c>
+      <c r="H114" s="19">
+        <f>SUM(H84:H113)</f>
+        <v>650746.37000000011</v>
+      </c>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+    </row>
+    <row r="116" spans="1:10" ht="21">
+      <c r="A116" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="B115" s="143"/>
-      <c r="C115" s="143"/>
-      <c r="D115" s="143"/>
-      <c r="E115" s="143"/>
-      <c r="F115" s="143"/>
-      <c r="G115" s="143"/>
-      <c r="H115" s="143"/>
-      <c r="I115" s="143"/>
-      <c r="J115" s="144"/>
-    </row>
-    <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="139" t="s">
+      <c r="B116" s="145"/>
+      <c r="C116" s="145"/>
+      <c r="D116" s="145"/>
+      <c r="E116" s="145"/>
+      <c r="F116" s="145"/>
+      <c r="G116" s="145"/>
+      <c r="H116" s="145"/>
+      <c r="I116" s="145"/>
+      <c r="J116" s="146"/>
+    </row>
+    <row r="117" spans="1:10" ht="21">
+      <c r="A117" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="B116" s="140"/>
-      <c r="C116" s="140"/>
-      <c r="D116" s="140"/>
-      <c r="E116" s="140"/>
-      <c r="F116" s="140"/>
-      <c r="G116" s="140"/>
-      <c r="H116" s="141"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-    </row>
-    <row r="117" spans="1:10" ht="15.6">
-      <c r="A117" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G117" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B117" s="142"/>
+      <c r="C117" s="142"/>
+      <c r="D117" s="142"/>
+      <c r="E117" s="142"/>
+      <c r="F117" s="142"/>
+      <c r="G117" s="142"/>
+      <c r="H117" s="143"/>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
     </row>
     <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="31">
+      <c r="A118" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+    </row>
+    <row r="119" spans="1:10" ht="15.6">
+      <c r="A119" s="31">
         <v>44965</v>
       </c>
-      <c r="B118" s="32" t="s">
+      <c r="B119" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="C118" s="32" t="s">
+      <c r="C119" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="D118" s="32">
+      <c r="D119" s="32">
         <v>7200</v>
-      </c>
-      <c r="E118" s="32"/>
-      <c r="F118" s="32">
-        <v>648</v>
-      </c>
-      <c r="G118" s="32">
-        <v>648</v>
-      </c>
-      <c r="H118" s="32">
-        <f>D118+E118+F118+G118</f>
-        <v>8496</v>
-      </c>
-      <c r="I118" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J118" s="7"/>
-    </row>
-    <row r="119" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A119" s="31">
-        <v>44984</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="C119" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="D119" s="32">
-        <v>351000</v>
       </c>
       <c r="E119" s="32"/>
       <c r="F119" s="32">
-        <v>31590</v>
+        <v>648</v>
       </c>
       <c r="G119" s="32">
-        <v>31590</v>
+        <v>648</v>
       </c>
       <c r="H119" s="32">
         <f>D119+E119+F119+G119</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="133" customFormat="1" ht="15.6">
+        <v>8496</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A120" s="31">
-        <v>44988</v>
+        <v>44984</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D120" s="32">
-        <v>90816</v>
+        <v>351000</v>
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32">
-        <v>8173.44</v>
+        <v>31590</v>
       </c>
       <c r="G120" s="32">
-        <v>8173.44</v>
+        <v>31590</v>
       </c>
       <c r="H120" s="32">
-        <f t="shared" ref="H120:H126" si="5">D120+E120+F120+G120</f>
-        <v>107162.88</v>
-      </c>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
+        <f>D120+E120+F120+G120</f>
+        <v>414180</v>
+      </c>
     </row>
     <row r="121" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A121" s="31">
@@ -15370,48 +15381,48 @@
         <v>48</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D121" s="32">
-        <v>58450</v>
+        <v>90816</v>
       </c>
       <c r="E121" s="32"/>
       <c r="F121" s="32">
+        <v>8173.44</v>
+      </c>
+      <c r="G121" s="32">
+        <v>8173.44</v>
+      </c>
+      <c r="H121" s="32">
+        <f t="shared" ref="H121:H127" si="5">D121+E121+F121+G121</f>
+        <v>107162.88</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
+    </row>
+    <row r="122" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A122" s="31">
+        <v>44988</v>
+      </c>
+      <c r="B122" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="D122" s="32">
+        <v>58450</v>
+      </c>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32">
         <v>5260.5</v>
       </c>
-      <c r="G121" s="32">
+      <c r="G122" s="32">
         <v>5260.5</v>
       </c>
-      <c r="H121" s="32">
+      <c r="H122" s="32">
         <f t="shared" si="5"/>
         <v>68971</v>
-      </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-    </row>
-    <row r="122" spans="1:10" s="133" customFormat="1" ht="15.6">
-      <c r="A122" s="31">
-        <v>44989</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="D122" s="32">
-        <v>53056</v>
-      </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32">
-        <v>4775.04</v>
-      </c>
-      <c r="G122" s="32">
-        <v>4775.04</v>
-      </c>
-      <c r="H122" s="32">
-        <f t="shared" si="5"/>
-        <v>62606.080000000002</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -15424,53 +15435,53 @@
         <v>48</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="D123" s="32">
-        <v>67868</v>
+        <v>53056</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="32">
-        <v>6108.12</v>
+        <v>4775.04</v>
       </c>
       <c r="G123" s="32">
-        <v>6108.12</v>
+        <v>4775.04</v>
       </c>
       <c r="H123" s="32">
         <f t="shared" si="5"/>
-        <v>80084.239999999991</v>
+        <v>62606.080000000002</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
     </row>
-    <row r="124" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="124" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A124" s="31">
-        <v>44998</v>
+        <v>44989</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D124" s="32">
-        <v>13042</v>
+        <v>67868</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="32">
-        <v>1173.78</v>
+        <v>6108.12</v>
       </c>
       <c r="G124" s="32">
-        <v>1173.78</v>
+        <v>6108.12</v>
       </c>
       <c r="H124" s="32">
         <f t="shared" si="5"/>
-        <v>15389.560000000001</v>
+        <v>80084.239999999991</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="125" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A125" s="31">
         <v>44998</v>
       </c>
@@ -15478,26 +15489,26 @@
         <v>48</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D125" s="32">
-        <v>168571</v>
+        <v>13042</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32">
-        <v>15171.39</v>
+        <v>1173.78</v>
       </c>
       <c r="G125" s="32">
-        <v>15171.39</v>
+        <v>1173.78</v>
       </c>
       <c r="H125" s="32">
         <f t="shared" si="5"/>
-        <v>198913.78000000003</v>
+        <v>15389.560000000001</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="126" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A126" s="31">
         <v>44998</v>
       </c>
@@ -15505,181 +15516,179 @@
         <v>48</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D126" s="32">
-        <v>99123</v>
+        <v>168571</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="32">
-        <v>8921.07</v>
+        <v>15171.39</v>
       </c>
       <c r="G126" s="32">
-        <v>8921.07</v>
+        <v>15171.39</v>
       </c>
       <c r="H126" s="32">
         <f t="shared" si="5"/>
-        <v>116965.14000000001</v>
+        <v>198913.78000000003</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" ht="21">
-      <c r="A127" s="154" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="154"/>
-      <c r="C127" s="154"/>
-      <c r="D127" s="19">
-        <f>SUM(D118:D126)</f>
-        <v>909126</v>
-      </c>
-      <c r="E127" s="19">
-        <f>SUM(E118:E126)</f>
-        <v>0</v>
-      </c>
-      <c r="F127" s="19">
-        <f>SUM(F118:F126)</f>
-        <v>81821.34</v>
-      </c>
-      <c r="G127" s="19">
-        <f>SUM(G118:G126)</f>
-        <v>81821.34</v>
-      </c>
-      <c r="H127" s="19">
-        <f>SUM(H118:H126)</f>
-        <v>1072768.6800000002</v>
+    <row r="127" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A127" s="31">
+        <v>44998</v>
+      </c>
+      <c r="B127" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D127" s="32">
+        <v>99123</v>
+      </c>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="G127" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="H127" s="32">
+        <f t="shared" si="5"/>
+        <v>116965.14000000001</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="139" t="s">
+      <c r="A128" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="B128" s="156"/>
+      <c r="C128" s="156"/>
+      <c r="D128" s="19">
+        <f>SUM(D119:D127)</f>
+        <v>909126</v>
+      </c>
+      <c r="E128" s="19">
+        <f>SUM(E119:E127)</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="19">
+        <f>SUM(F119:F127)</f>
+        <v>81821.34</v>
+      </c>
+      <c r="G128" s="19">
+        <f>SUM(G119:G127)</f>
+        <v>81821.34</v>
+      </c>
+      <c r="H128" s="19">
+        <f>SUM(H119:H127)</f>
+        <v>1072768.6800000002</v>
+      </c>
+      <c r="I128" s="7"/>
+      <c r="J128" s="7"/>
+    </row>
+    <row r="129" spans="1:10" ht="21">
+      <c r="A129" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B128" s="140"/>
-      <c r="C128" s="140"/>
-      <c r="D128" s="140"/>
-      <c r="E128" s="140"/>
-      <c r="F128" s="140"/>
-      <c r="G128" s="140"/>
-      <c r="H128" s="140"/>
-      <c r="I128" s="140"/>
-      <c r="J128" s="141"/>
-    </row>
-    <row r="129" spans="1:10">
-      <c r="A129" s="16" t="s">
+      <c r="B129" s="142"/>
+      <c r="C129" s="142"/>
+      <c r="D129" s="142"/>
+      <c r="E129" s="142"/>
+      <c r="F129" s="142"/>
+      <c r="G129" s="142"/>
+      <c r="H129" s="142"/>
+      <c r="I129" s="142"/>
+      <c r="J129" s="143"/>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B130" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C129" s="16" t="s">
+      <c r="C130" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D130" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E130" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F129" s="16" t="s">
+      <c r="F130" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G130" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H129" s="17" t="s">
+      <c r="H130" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I129" s="17" t="s">
+      <c r="I130" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J129" s="17" t="s">
+      <c r="J130" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6">
-      <c r="A130" s="13">
+    <row r="131" spans="1:10" ht="15.6">
+      <c r="A131" s="13">
         <v>44987</v>
       </c>
-      <c r="B130" s="33" t="s">
+      <c r="B131" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C130" s="15" t="s">
+      <c r="C131" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="D130" s="15">
+      <c r="D131" s="15">
         <v>26135</v>
       </c>
-      <c r="E130" s="15">
+      <c r="E131" s="15">
         <v>4704.3</v>
-      </c>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
-      <c r="H130" s="15">
-        <f>D130+E130+F130+G130</f>
-        <v>30839.3</v>
-      </c>
-      <c r="I130" s="15"/>
-      <c r="J130" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A131" s="13">
-        <v>44988</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="C131" s="15">
-        <v>7334</v>
-      </c>
-      <c r="D131" s="15">
-        <v>4830.5</v>
-      </c>
-      <c r="E131" s="15">
-        <v>869.5</v>
       </c>
       <c r="F131" s="15"/>
       <c r="G131" s="15"/>
       <c r="H131" s="15">
-        <f t="shared" ref="H131:H137" si="6">D131+E131+F131+G131</f>
-        <v>5700</v>
+        <f>D131+E131+F131+G131</f>
+        <v>30839.3</v>
       </c>
       <c r="I131" s="15"/>
       <c r="J131" s="15" t="s">
-        <v>577</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A132" s="13">
-        <v>44989</v>
+        <v>44988</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>67</v>
+        <v>576</v>
       </c>
       <c r="C132" s="15">
-        <v>2308</v>
+        <v>7334</v>
       </c>
       <c r="D132" s="15">
-        <v>2404.8000000000002</v>
-      </c>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15">
-        <v>216.43</v>
-      </c>
-      <c r="G132" s="15">
-        <v>216.43</v>
-      </c>
+        <v>4830.5</v>
+      </c>
+      <c r="E132" s="15">
+        <v>869.5</v>
+      </c>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
       <c r="H132" s="15">
-        <f t="shared" si="6"/>
-        <v>2837.66</v>
+        <f t="shared" ref="H132:H138" si="6">D132+E132+F132+G132</f>
+        <v>5700</v>
       </c>
       <c r="I132" s="15"/>
       <c r="J132" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="137" customFormat="1" ht="15.6">
@@ -15690,21 +15699,21 @@
         <v>67</v>
       </c>
       <c r="C133" s="15">
-        <v>2319</v>
+        <v>2308</v>
       </c>
       <c r="D133" s="15">
-        <v>814</v>
+        <v>2404.8000000000002</v>
       </c>
       <c r="E133" s="15"/>
       <c r="F133" s="15">
-        <v>73.260000000000005</v>
+        <v>216.43</v>
       </c>
       <c r="G133" s="15">
-        <v>73.260000000000005</v>
+        <v>216.43</v>
       </c>
       <c r="H133" s="15">
         <f t="shared" si="6"/>
-        <v>960.52</v>
+        <v>2837.66</v>
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="15" t="s">
@@ -15713,29 +15722,31 @@
     </row>
     <row r="134" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A134" s="13">
-        <v>44991</v>
+        <v>44989</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>579</v>
+        <v>67</v>
+      </c>
+      <c r="C134" s="15">
+        <v>2319</v>
       </c>
       <c r="D134" s="15">
-        <v>32650</v>
-      </c>
-      <c r="E134" s="15">
-        <v>5677</v>
-      </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
+        <v>814</v>
+      </c>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15">
+        <v>73.260000000000005</v>
+      </c>
+      <c r="G134" s="15">
+        <v>73.260000000000005</v>
+      </c>
       <c r="H134" s="15">
         <f t="shared" si="6"/>
-        <v>38327</v>
+        <v>960.52</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
-        <v>483</v>
+        <v>578</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="137" customFormat="1" ht="15.6">
@@ -15743,168 +15754,195 @@
         <v>44991</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D135" s="15">
-        <v>43730</v>
+        <v>32650</v>
       </c>
       <c r="E135" s="15">
-        <v>7871.4</v>
+        <v>5677</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15">
         <f t="shared" si="6"/>
-        <v>51601.4</v>
+        <v>38327</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15" t="s">
-        <v>47</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A136" s="13">
-        <v>44993</v>
+        <v>44991</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D136" s="15">
-        <v>550</v>
-      </c>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15">
-        <v>49.5</v>
-      </c>
-      <c r="G136" s="15">
-        <v>49.5</v>
-      </c>
+        <v>43730</v>
+      </c>
+      <c r="E136" s="15">
+        <v>7871.4</v>
+      </c>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
       <c r="H136" s="15">
         <f t="shared" si="6"/>
-        <v>649</v>
+        <v>51601.4</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A137" s="13">
-        <v>44995</v>
+        <v>44993</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D137" s="15">
-        <v>25290</v>
-      </c>
-      <c r="E137" s="15">
-        <v>4552</v>
-      </c>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
+        <v>550</v>
+      </c>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="G137" s="15">
+        <v>49.5</v>
+      </c>
       <c r="H137" s="15">
         <f t="shared" si="6"/>
-        <v>29842</v>
+        <v>649</v>
       </c>
       <c r="I137" s="15"/>
       <c r="J137" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A138" s="13">
+        <v>44995</v>
+      </c>
+      <c r="B138" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D138" s="15">
+        <v>25290</v>
+      </c>
+      <c r="E138" s="15">
+        <v>4552</v>
+      </c>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15">
+        <f t="shared" si="6"/>
+        <v>29842</v>
+      </c>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="21">
-      <c r="A138" s="164" t="s">
+    <row r="139" spans="1:10" ht="21">
+      <c r="A139" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B138" s="165"/>
-      <c r="C138" s="166"/>
-      <c r="D138" s="19">
-        <f>SUM(D130:D137)</f>
+      <c r="B139" s="167"/>
+      <c r="C139" s="168"/>
+      <c r="D139" s="19">
+        <f>SUM(D131:D138)</f>
         <v>136404.29999999999</v>
       </c>
-      <c r="E138" s="19">
-        <f>SUM(E130:E137)</f>
+      <c r="E139" s="19">
+        <f>SUM(E131:E138)</f>
         <v>23674.199999999997</v>
       </c>
-      <c r="F138" s="19">
-        <f>SUM(F130:F137)</f>
+      <c r="F139" s="19">
+        <f>SUM(F131:F138)</f>
         <v>339.19</v>
       </c>
-      <c r="G138" s="19">
-        <f>SUM(G130:G137)</f>
+      <c r="G139" s="19">
+        <f>SUM(G131:G138)</f>
         <v>339.19</v>
       </c>
-      <c r="H138" s="19">
-        <f>SUM(H130:H137)</f>
+      <c r="H139" s="19">
+        <f>SUM(H131:H138)</f>
         <v>160756.88</v>
       </c>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-    </row>
-    <row r="140" spans="1:10" s="107" customFormat="1">
-      <c r="A140" s="108">
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+    </row>
+    <row r="141" spans="1:10" s="107" customFormat="1">
+      <c r="A141" s="108">
         <v>44841</v>
       </c>
-      <c r="B140" s="109" t="s">
+      <c r="B141" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="C140" s="109" t="s">
+      <c r="C141" s="109" t="s">
         <v>452</v>
       </c>
-      <c r="D140" s="36">
+      <c r="D141" s="36">
         <v>55015</v>
       </c>
-      <c r="E140" s="36"/>
-      <c r="F140" s="36">
+      <c r="E141" s="36"/>
+      <c r="F141" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G140" s="36">
+      <c r="G141" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H140" s="36">
-        <f>D140+E140+F140+G140</f>
+      <c r="H141" s="36">
+        <f>D141+E141+F141+G141</f>
         <v>64917.7</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="107" customFormat="1">
-      <c r="A141" s="110"/>
-    </row>
-    <row r="142" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A142" s="31">
+    <row r="142" spans="1:10" s="107" customFormat="1">
+      <c r="A142" s="110"/>
+    </row>
+    <row r="143" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A143" s="31">
         <v>44932</v>
       </c>
-      <c r="B142" s="32" t="s">
+      <c r="B143" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C142" s="32" t="s">
+      <c r="C143" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="32">
+      <c r="D143" s="32">
         <v>900</v>
       </c>
-      <c r="E142" s="32"/>
-      <c r="F142" s="32">
+      <c r="E143" s="32"/>
+      <c r="F143" s="32">
         <v>81</v>
       </c>
-      <c r="G142" s="32">
+      <c r="G143" s="32">
         <v>81</v>
       </c>
-      <c r="H142" s="32">
-        <f>D142+E142+F142+G142</f>
+      <c r="H143" s="32">
+        <f>D143+E143+F143+G143</f>
         <v>1062</v>
       </c>
     </row>
-    <row r="298" spans="12:12">
-      <c r="L298" s="18" t="s">
+    <row r="299" spans="12:12">
+      <c r="L299" s="18" t="s">
         <v>574</v>
       </c>
     </row>
@@ -15916,15 +15954,15 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:J18"/>
     <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A128:J128"/>
-    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="A129:J129"/>
+    <mergeCell ref="A139:C139"/>
     <mergeCell ref="A71:H71"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="A115:J115"/>
-    <mergeCell ref="A116:H116"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="A117:H117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="607">
   <si>
     <t>Taxable</t>
   </si>
@@ -1817,7 +1817,37 @@
     <t>478/22-23</t>
   </si>
   <si>
-    <t>Zennio Z 41j</t>
+    <t>B&amp;B/22-23/269</t>
+  </si>
+  <si>
+    <t>b22-23MQ431</t>
+  </si>
+  <si>
+    <t>b22-23MQ432</t>
+  </si>
+  <si>
+    <t>2022-23/14698</t>
+  </si>
+  <si>
+    <t>483/22-23</t>
+  </si>
+  <si>
+    <t>Bale &amp; Sons</t>
+  </si>
+  <si>
+    <t>30DPEPS8953G1ZM</t>
+  </si>
+  <si>
+    <t>2022-23/15121</t>
+  </si>
+  <si>
+    <t>COUNTO AUTOMOBILES PVT. LTD.,</t>
+  </si>
+  <si>
+    <t>W6201G202305366</t>
+  </si>
+  <si>
+    <t>W6201G202305367</t>
   </si>
 </sst>
 </file>
@@ -2508,8 +2538,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2520,6 +2565,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2542,31 +2596,25 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2576,24 +2624,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4057,8 +4087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J114"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4077,30 +4107,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -4322,11 +4352,11 @@
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="67" customFormat="1" ht="21">
-      <c r="A12" s="147" t="s">
+      <c r="A12" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="147"/>
-      <c r="C12" s="147"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
       <c r="D12" s="68">
         <f>SUM(D5:D11)</f>
         <v>818543</v>
@@ -4351,18 +4381,18 @@
       <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="25" t="s">
@@ -4586,11 +4616,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A22" s="148" t="s">
+      <c r="A22" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="149"/>
-      <c r="C22" s="150"/>
+      <c r="B22" s="157"/>
+      <c r="C22" s="158"/>
       <c r="D22" s="73">
         <f>SUM(D15:D21)</f>
         <v>171530</v>
@@ -4615,30 +4645,30 @@
       <c r="J22" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="144" t="s">
+      <c r="A24" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="154"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="148"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
@@ -4833,11 +4863,11 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A33" s="151" t="s">
+      <c r="A33" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
       <c r="D33" s="24">
         <f>SUM(D27:D32)</f>
         <v>647194</v>
@@ -4862,18 +4892,18 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="141" t="s">
+      <c r="A34" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="143"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="148"/>
     </row>
     <row r="35" spans="1:10" s="22" customFormat="1">
       <c r="A35" s="25" t="s">
@@ -5543,11 +5573,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A59" s="152" t="s">
+      <c r="A59" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="153"/>
-      <c r="C59" s="154"/>
+      <c r="B59" s="150"/>
+      <c r="C59" s="151"/>
       <c r="D59" s="24">
         <f>SUM(D36:D58)</f>
         <v>250017.81</v>
@@ -5572,30 +5602,30 @@
       <c r="J59" s="24"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="144" t="s">
+      <c r="A61" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="145"/>
-      <c r="C61" s="145"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="146"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="154"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="143"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="148"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
@@ -5846,11 +5876,11 @@
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A72" s="151" t="s">
+      <c r="A72" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="151"/>
-      <c r="C72" s="151"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
       <c r="D72" s="24">
         <f>SUM(D64:D71)</f>
         <v>658373</v>
@@ -5875,18 +5905,18 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="141" t="s">
+      <c r="A73" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="142"/>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="143"/>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="147"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="147"/>
+      <c r="H73" s="147"/>
+      <c r="I73" s="147"/>
+      <c r="J73" s="148"/>
     </row>
     <row r="74" spans="1:10" s="22" customFormat="1">
       <c r="A74" s="25" t="s">
@@ -6560,11 +6590,11 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A98" s="152" t="s">
+      <c r="A98" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="153"/>
-      <c r="C98" s="154"/>
+      <c r="B98" s="150"/>
+      <c r="C98" s="151"/>
       <c r="D98" s="24">
         <f>SUM(D75:D97)</f>
         <v>407367.41000000003</v>
@@ -6589,18 +6619,30 @@
       <c r="J98" s="24"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="155"/>
-      <c r="B100" s="155"/>
-      <c r="C100" s="155"/>
-      <c r="D100" s="155"/>
-      <c r="E100" s="155"/>
+      <c r="A100" s="144"/>
+      <c r="B100" s="144"/>
+      <c r="C100" s="144"/>
+      <c r="D100" s="144"/>
+      <c r="E100" s="144"/>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="D103" s="5">
+        <f>D12+D33+D72-D10-D11</f>
+        <v>1993503</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="D104" s="5">
+        <f>687936+647194+620373+38000</f>
+        <v>1993503</v>
+      </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="155"/>
-      <c r="B108" s="155"/>
-      <c r="C108" s="155"/>
-      <c r="D108" s="155"/>
-      <c r="E108" s="155"/>
+      <c r="A108" s="144"/>
+      <c r="B108" s="144"/>
+      <c r="C108" s="144"/>
+      <c r="D108" s="144"/>
+      <c r="E108" s="144"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="18"/>
@@ -6625,11 +6667,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A2:J2"/>
@@ -6642,6 +6679,11 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6653,8 +6695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J110"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6673,30 +6715,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -6976,11 +7018,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
       <c r="D14" s="6">
         <f>SUM(D5:D13)</f>
         <v>817479</v>
@@ -7005,18 +7047,18 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="143"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -7385,11 +7427,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="157" t="s">
+      <c r="A29" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="157"/>
+      <c r="B29" s="162"/>
+      <c r="C29" s="162"/>
       <c r="D29" s="38">
         <f>SUM(D17:D28)</f>
         <v>310112.45</v>
@@ -7419,30 +7461,30 @@
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="144" t="s">
+      <c r="A31" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="153"/>
+      <c r="D31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="154"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="141" t="s">
+      <c r="A32" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="148"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
@@ -7614,11 +7656,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
       <c r="D39" s="6">
         <f>SUM(D34:D38)</f>
         <v>115746</v>
@@ -7643,18 +7685,18 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="141" t="s">
+      <c r="A40" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="143"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -8334,11 +8376,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="159" t="s">
+      <c r="A65" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="159"/>
-      <c r="C65" s="159"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="161"/>
       <c r="D65" s="43">
         <f>SUM(D42:D64)</f>
         <v>300583.33</v>
@@ -8363,30 +8405,30 @@
       <c r="J65" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="144" t="s">
+      <c r="A67" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="145"/>
-      <c r="C67" s="145"/>
-      <c r="D67" s="145"/>
-      <c r="E67" s="145"/>
-      <c r="F67" s="145"/>
-      <c r="G67" s="145"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="146"/>
+      <c r="B67" s="153"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="154"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="141" t="s">
+      <c r="A68" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="142"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="143"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="148"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
@@ -8500,11 +8542,11 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="156" t="s">
+      <c r="A73" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="156"/>
-      <c r="C73" s="156"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
       <c r="D73" s="6">
         <f>SUM(D70:D72)</f>
         <v>150834.79999999999</v>
@@ -8529,18 +8571,18 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="143"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="147"/>
+      <c r="I74" s="147"/>
+      <c r="J74" s="148"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
@@ -9076,11 +9118,11 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="158" t="s">
+      <c r="A94" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="158"/>
-      <c r="C94" s="158"/>
+      <c r="B94" s="160"/>
+      <c r="C94" s="160"/>
       <c r="D94" s="65">
         <f>SUM(D76:D93)</f>
         <v>120359.97999999998</v>
@@ -9115,13 +9157,19 @@
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+      <c r="D97" s="18">
+        <f>D14+D39+D73</f>
+        <v>1084059.8</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="D98" s="18">
+        <f>835489+97736+150834</f>
+        <v>1084059</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="18"/>
@@ -9197,6 +9245,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9206,12 +9260,6 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9221,10 +9269,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J116"/>
+  <dimension ref="A2:J117"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -9243,30 +9291,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -9380,11 +9428,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="6">
         <f>SUM(D5:D7)</f>
         <v>185386</v>
@@ -9409,18 +9457,18 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
@@ -9985,11 +10033,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="160" t="s">
+      <c r="A30" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="162"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="43">
         <f>SUM(D11:D29)</f>
         <v>79243.67</v>
@@ -10019,30 +10067,30 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="144" t="s">
+      <c r="A32" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="154"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="148"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
@@ -10210,11 +10258,11 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="156" t="s">
+      <c r="A40" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
+      <c r="B40" s="159"/>
+      <c r="C40" s="159"/>
       <c r="D40" s="6">
         <f>SUM(D35:D39)</f>
         <v>1018828</v>
@@ -10239,18 +10287,18 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="141" t="s">
+      <c r="A41" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="143"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
@@ -11060,11 +11108,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="158" t="s">
+      <c r="A71" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="158"/>
-      <c r="C71" s="158"/>
+      <c r="B71" s="160"/>
+      <c r="C71" s="160"/>
       <c r="D71" s="65">
         <f>SUM(D43:D70)</f>
         <v>1221066.1900000002</v>
@@ -11089,30 +11137,30 @@
       <c r="J71" s="65"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="144" t="s">
+      <c r="A73" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="145"/>
-      <c r="C73" s="145"/>
-      <c r="D73" s="145"/>
-      <c r="E73" s="145"/>
-      <c r="F73" s="145"/>
-      <c r="G73" s="145"/>
-      <c r="H73" s="145"/>
-      <c r="I73" s="145"/>
-      <c r="J73" s="146"/>
+      <c r="B73" s="153"/>
+      <c r="C73" s="153"/>
+      <c r="D73" s="153"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
+      <c r="G73" s="153"/>
+      <c r="H73" s="153"/>
+      <c r="I73" s="153"/>
+      <c r="J73" s="154"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="141" t="s">
+      <c r="A74" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="143"/>
+      <c r="B74" s="147"/>
+      <c r="C74" s="147"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="147"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="147"/>
+      <c r="H74" s="148"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
@@ -11301,11 +11349,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="156" t="s">
+      <c r="A82" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="156"/>
-      <c r="C82" s="156"/>
+      <c r="B82" s="159"/>
+      <c r="C82" s="159"/>
       <c r="D82" s="6">
         <f>SUM(D76:D81)</f>
         <v>419674</v>
@@ -11330,18 +11378,18 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="141" t="s">
+      <c r="A83" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="142"/>
-      <c r="C83" s="142"/>
-      <c r="D83" s="142"/>
-      <c r="E83" s="142"/>
-      <c r="F83" s="142"/>
-      <c r="G83" s="142"/>
-      <c r="H83" s="142"/>
-      <c r="I83" s="142"/>
-      <c r="J83" s="143"/>
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="148"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16" t="s">
@@ -12149,33 +12197,6 @@
       <c r="I113" s="61"/>
       <c r="J113" s="61"/>
     </row>
-    <row r="114" spans="1:10" s="62" customFormat="1" ht="15.6">
-      <c r="A114" s="20">
-        <v>44840</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="21">
-        <v>1850</v>
-      </c>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21">
-        <v>166.5</v>
-      </c>
-      <c r="G114" s="21">
-        <v>166.5</v>
-      </c>
-      <c r="H114" s="14">
-        <f>D114+E114+F114+G114</f>
-        <v>2183</v>
-      </c>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-    </row>
     <row r="115" spans="1:10" s="18" customFormat="1" ht="21">
       <c r="A115" s="60"/>
       <c r="B115" s="64"/>
@@ -12200,8 +12221,20 @@
       <c r="I116" s="61"/>
       <c r="J116" s="61"/>
     </row>
+    <row r="117" spans="1:10">
+      <c r="D117" s="5">
+        <f>D8+D40+D82</f>
+        <v>1623888</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A111:C111"/>
@@ -12211,12 +12244,6 @@
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12225,10 +12252,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L299"/>
+  <dimension ref="A2:L314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H156" sqref="H156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12247,30 +12274,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="146"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="143"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -12437,8 +12464,8 @@
       <c r="A10" s="31">
         <v>44938</v>
       </c>
-      <c r="B10" s="140" t="s">
-        <v>596</v>
+      <c r="B10" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="C10" s="32" t="s">
         <v>451</v>
@@ -12623,11 +12650,11 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="19">
         <f>SUM(D5:D16)</f>
         <v>2294715</v>
@@ -12652,18 +12679,18 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="141" t="s">
+      <c r="A18" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="143"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16" t="s">
@@ -13720,7 +13747,7 @@
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="15">
-        <f t="shared" ref="H56:H67" si="2">D56+E56+F56+G56</f>
+        <f t="shared" ref="H56:H68" si="2">D56+E56+F56+G56</f>
         <v>59000</v>
       </c>
       <c r="I56" s="33"/>
@@ -13755,88 +13782,88 @@
         <v>474</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="127" customFormat="1" ht="15.6">
+    <row r="58" spans="1:10" s="140" customFormat="1" ht="15.6">
       <c r="A58" s="37">
-        <v>44945</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>537</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>538</v>
+        <v>44944</v>
+      </c>
+      <c r="B58" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>596</v>
       </c>
       <c r="D58" s="33">
-        <v>4398.3100000000004</v>
+        <v>2245</v>
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="33">
+        <v>202.12</v>
+      </c>
+      <c r="G58" s="33">
+        <v>202.12</v>
+      </c>
+      <c r="H58" s="15">
+        <v>2650</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" s="127" customFormat="1" ht="15.6">
+      <c r="A59" s="50">
+        <v>44945</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>537</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>538</v>
+      </c>
+      <c r="D59" s="51">
+        <v>4398.3100000000004</v>
+      </c>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51">
         <v>395.85</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G59" s="51">
         <v>395.85</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H59" s="51">
         <f t="shared" si="2"/>
         <v>5190.0100000000011</v>
       </c>
-      <c r="I58" s="33"/>
-      <c r="J58" s="41" t="s">
+      <c r="I59" s="51"/>
+      <c r="J59" s="41" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:10" s="116" customFormat="1" ht="15.6">
-      <c r="A59" s="37">
+    <row r="60" spans="1:10" s="116" customFormat="1" ht="15.6">
+      <c r="A60" s="37">
         <v>44946</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B60" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="32" t="s">
+      <c r="C60" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="D59" s="33">
+      <c r="D60" s="33">
         <v>20150</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E60" s="33">
         <v>3627</v>
       </c>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="15">
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="15">
         <f t="shared" si="2"/>
         <v>23777</v>
       </c>
-      <c r="I59" s="33"/>
-      <c r="J59" s="32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" s="116" customFormat="1" ht="15.6">
-      <c r="A60" s="37">
-        <v>44950</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D60" s="33">
-        <v>1627.2</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33">
-        <v>146.44999999999999</v>
-      </c>
-      <c r="G60" s="33">
-        <v>146.44999999999999</v>
-      </c>
-      <c r="H60" s="15">
-        <v>1920</v>
-      </c>
       <c r="I60" s="33"/>
       <c r="J60" s="32" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:10" s="116" customFormat="1" ht="15.6">
@@ -13847,20 +13874,20 @@
         <v>502</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D61" s="33">
-        <v>72.03</v>
+        <v>1627.2</v>
       </c>
       <c r="E61" s="33"/>
       <c r="F61" s="33">
-        <v>6.48</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="G61" s="33">
-        <v>6.48</v>
+        <v>146.44999999999999</v>
       </c>
       <c r="H61" s="15">
-        <v>85</v>
+        <v>1920</v>
       </c>
       <c r="I61" s="33"/>
       <c r="J61" s="32" t="s">
@@ -13872,25 +13899,27 @@
         <v>44950</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>45</v>
+        <v>502</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D62" s="33">
-        <v>39760</v>
-      </c>
-      <c r="E62" s="33">
-        <v>7156.8</v>
-      </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
+        <v>72.03</v>
+      </c>
+      <c r="E62" s="33"/>
+      <c r="F62" s="33">
+        <v>6.48</v>
+      </c>
+      <c r="G62" s="33">
+        <v>6.48</v>
+      </c>
       <c r="H62" s="15">
-        <v>46917</v>
+        <v>85</v>
       </c>
       <c r="I62" s="33"/>
       <c r="J62" s="32" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:10" s="116" customFormat="1" ht="15.6">
@@ -13898,250 +13927,249 @@
         <v>44950</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C63" s="32">
-        <v>2362</v>
+        <v>45</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>505</v>
       </c>
       <c r="D63" s="33">
-        <v>1605.96</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33">
-        <v>137.04</v>
-      </c>
-      <c r="G63" s="33">
-        <v>137.04</v>
-      </c>
+        <v>39760</v>
+      </c>
+      <c r="E63" s="33">
+        <v>7156.8</v>
+      </c>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
       <c r="H63" s="15">
-        <v>1880</v>
+        <v>46917</v>
       </c>
       <c r="I63" s="33"/>
       <c r="J63" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="116" customFormat="1" ht="15.6">
+      <c r="A64" s="37">
+        <v>44950</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C64" s="32">
+        <v>2362</v>
+      </c>
+      <c r="D64" s="33">
+        <v>1605.96</v>
+      </c>
+      <c r="E64" s="33"/>
+      <c r="F64" s="33">
+        <v>137.04</v>
+      </c>
+      <c r="G64" s="33">
+        <v>137.04</v>
+      </c>
+      <c r="H64" s="15">
+        <v>1880</v>
+      </c>
+      <c r="I64" s="33"/>
+      <c r="J64" s="32" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="116" customFormat="1" ht="30">
-      <c r="A64" s="99">
+    <row r="65" spans="1:10" s="116" customFormat="1" ht="30">
+      <c r="A65" s="99">
         <v>44951</v>
       </c>
-      <c r="B64" s="84" t="s">
+      <c r="B65" s="84" t="s">
         <v>508</v>
       </c>
-      <c r="C64" s="84" t="s">
+      <c r="C65" s="84" t="s">
         <v>510</v>
       </c>
-      <c r="D64" s="82">
+      <c r="D65" s="82">
         <v>2016.1</v>
       </c>
-      <c r="E64" s="82">
+      <c r="E65" s="82">
         <v>362.89</v>
       </c>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82">
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82">
         <f t="shared" si="2"/>
         <v>2378.9899999999998</v>
       </c>
-      <c r="I64" s="82"/>
-      <c r="J64" s="84" t="s">
+      <c r="I65" s="82"/>
+      <c r="J65" s="84" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="127" customFormat="1" ht="31.2">
-      <c r="A65" s="37">
+    <row r="66" spans="1:10" s="127" customFormat="1" ht="31.2">
+      <c r="A66" s="37">
         <v>44951</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B66" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C66" s="32">
         <v>2881071697</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D66" s="33">
         <v>470</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E66" s="33">
         <v>23.5</v>
       </c>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33">
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33">
         <f t="shared" si="2"/>
         <v>493.5</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="32" t="s">
+      <c r="I66" s="33"/>
+      <c r="J66" s="32" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="124" customFormat="1" ht="15">
-      <c r="A66" s="99">
+    <row r="67" spans="1:10" s="124" customFormat="1" ht="15">
+      <c r="A67" s="99">
         <v>44956</v>
       </c>
-      <c r="B66" s="84" t="s">
+      <c r="B67" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C67" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="D66" s="82">
+      <c r="D67" s="82">
         <v>48750</v>
       </c>
-      <c r="E66" s="82">
+      <c r="E67" s="82">
         <v>8775</v>
-      </c>
-      <c r="F66" s="82"/>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82">
-        <f t="shared" si="2"/>
-        <v>57525</v>
-      </c>
-      <c r="I66" s="82"/>
-      <c r="J66" s="84" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="125" customFormat="1" ht="15">
-      <c r="A67" s="99">
-        <v>44957</v>
-      </c>
-      <c r="B67" s="84" t="s">
-        <v>401</v>
-      </c>
-      <c r="C67" s="84">
-        <v>4107</v>
-      </c>
-      <c r="D67" s="82">
-        <v>25200</v>
-      </c>
-      <c r="E67" s="82">
-        <v>4536</v>
       </c>
       <c r="F67" s="82"/>
       <c r="G67" s="82"/>
       <c r="H67" s="82">
         <f t="shared" si="2"/>
-        <v>29736</v>
+        <v>57525</v>
       </c>
       <c r="I67" s="82"/>
       <c r="J67" s="84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" s="125" customFormat="1" ht="15">
+      <c r="A68" s="99">
+        <v>44957</v>
+      </c>
+      <c r="B68" s="84" t="s">
+        <v>401</v>
+      </c>
+      <c r="C68" s="84">
+        <v>4107</v>
+      </c>
+      <c r="D68" s="82">
+        <v>25200</v>
+      </c>
+      <c r="E68" s="82">
+        <v>4536</v>
+      </c>
+      <c r="F68" s="82"/>
+      <c r="G68" s="82"/>
+      <c r="H68" s="82">
+        <f t="shared" si="2"/>
+        <v>29736</v>
+      </c>
+      <c r="I68" s="82"/>
+      <c r="J68" s="84" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="156" t="s">
+    <row r="69" spans="1:10" ht="21">
+      <c r="A69" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="156"/>
-      <c r="C68" s="156"/>
-      <c r="D68" s="19">
-        <f>SUM(D20:D67)</f>
-        <v>1487338.56</v>
-      </c>
-      <c r="E68" s="19">
-        <f>SUM(E20:E67)</f>
+      <c r="B69" s="159"/>
+      <c r="C69" s="159"/>
+      <c r="D69" s="19">
+        <f>SUM(D20:D68)</f>
+        <v>1489583.56</v>
+      </c>
+      <c r="E69" s="19">
+        <f>SUM(E20:E68)</f>
         <v>225859.9</v>
       </c>
-      <c r="F68" s="19">
-        <f>SUM(F20:F67)</f>
-        <v>20781.990000000002</v>
-      </c>
-      <c r="G68" s="19">
-        <f>SUM(G20:G67)</f>
-        <v>20781.990000000002</v>
-      </c>
-      <c r="H68" s="19">
-        <f>SUM(H20:H67)</f>
-        <v>1754762.23</v>
-      </c>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-    </row>
-    <row r="70" spans="1:10" ht="21">
-      <c r="A70" s="144" t="s">
+      <c r="F69" s="19">
+        <f>SUM(F20:F68)</f>
+        <v>20984.11</v>
+      </c>
+      <c r="G69" s="19">
+        <f>SUM(G20:G68)</f>
+        <v>20984.11</v>
+      </c>
+      <c r="H69" s="19">
+        <f>SUM(H20:H68)</f>
+        <v>1757412.23</v>
+      </c>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="71" spans="1:10" ht="21">
+      <c r="A71" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="145"/>
-      <c r="C70" s="145"/>
-      <c r="D70" s="145"/>
-      <c r="E70" s="145"/>
-      <c r="F70" s="145"/>
-      <c r="G70" s="145"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="146"/>
-    </row>
-    <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="141" t="s">
+      <c r="B71" s="153"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="154"/>
+    </row>
+    <row r="72" spans="1:10" ht="21">
+      <c r="A72" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B71" s="142"/>
-      <c r="C71" s="142"/>
-      <c r="D71" s="142"/>
-      <c r="E71" s="142"/>
-      <c r="F71" s="142"/>
-      <c r="G71" s="142"/>
-      <c r="H71" s="143"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.6">
-      <c r="A72" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B72" s="147"/>
+      <c r="C72" s="147"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="148"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" spans="1:10" ht="19.8" customHeight="1">
-      <c r="A73" s="31">
-        <v>44959</v>
-      </c>
-      <c r="B73" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>515</v>
-      </c>
-      <c r="D73" s="32">
-        <v>279966</v>
-      </c>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32">
-        <v>25196.94</v>
-      </c>
-      <c r="G73" s="32">
-        <v>25196.94</v>
-      </c>
-      <c r="H73" s="32">
-        <f>D73+E73+F73+G73</f>
-        <v>330359.88</v>
+    <row r="73" spans="1:10" ht="15.6">
+      <c r="A73" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" spans="1:10" ht="21" customHeight="1">
+    <row r="74" spans="1:10" ht="19.8" customHeight="1">
       <c r="A74" s="31">
         <v>44959</v>
       </c>
@@ -14149,50 +14177,50 @@
         <v>48</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D74" s="32">
-        <v>125686</v>
+        <v>279966</v>
       </c>
       <c r="E74" s="32"/>
       <c r="F74" s="32">
-        <v>11311.74</v>
+        <v>25196.94</v>
       </c>
       <c r="G74" s="32">
-        <v>11311.74</v>
+        <v>25196.94</v>
       </c>
       <c r="H74" s="32">
-        <f t="shared" ref="H74:H80" si="3">D74+E74+F74+G74</f>
-        <v>148309.47999999998</v>
+        <f>D74+E74+F74+G74</f>
+        <v>330359.88</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6">
+    <row r="75" spans="1:10" ht="21" customHeight="1">
       <c r="A75" s="31">
-        <v>44971</v>
+        <v>44959</v>
       </c>
       <c r="B75" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D75" s="32">
-        <v>316238</v>
+        <v>125686</v>
       </c>
       <c r="E75" s="32"/>
       <c r="F75" s="32">
-        <v>28461.42</v>
+        <v>11311.74</v>
       </c>
       <c r="G75" s="32">
-        <v>28461.42</v>
+        <v>11311.74</v>
       </c>
       <c r="H75" s="32">
-        <f t="shared" si="3"/>
-        <v>373160.83999999997</v>
-      </c>
-      <c r="I75" s="41"/>
+        <f t="shared" ref="H75:H81" si="3">D75+E75+F75+G75</f>
+        <v>148309.47999999998</v>
+      </c>
+      <c r="I75" s="7"/>
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
@@ -14203,48 +14231,48 @@
         <v>48</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D76" s="32">
-        <v>252173</v>
+        <v>316238</v>
       </c>
       <c r="E76" s="32"/>
       <c r="F76" s="32">
-        <v>22695.57</v>
+        <v>28461.42</v>
       </c>
       <c r="G76" s="32">
-        <v>22695.57</v>
+        <v>28461.42</v>
       </c>
       <c r="H76" s="32">
         <f t="shared" si="3"/>
-        <v>297564.14</v>
-      </c>
-      <c r="I76" s="7"/>
+        <v>373160.83999999997</v>
+      </c>
+      <c r="I76" s="41"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" spans="1:10" s="130" customFormat="1" ht="15.6">
+    <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="31">
-        <v>44974</v>
+        <v>44971</v>
       </c>
       <c r="B77" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D77" s="32">
-        <v>26876</v>
+        <v>252173</v>
       </c>
       <c r="E77" s="32"/>
       <c r="F77" s="32">
-        <v>2418.84</v>
+        <v>22695.57</v>
       </c>
       <c r="G77" s="32">
-        <v>2418.84</v>
+        <v>22695.57</v>
       </c>
       <c r="H77" s="32">
         <f t="shared" si="3"/>
-        <v>31713.68</v>
+        <v>297564.14</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -14257,48 +14285,48 @@
         <v>48</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D78" s="32">
-        <v>13600</v>
+        <v>26876</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32">
-        <v>1224</v>
+        <v>2418.84</v>
       </c>
       <c r="G78" s="32">
-        <v>1224</v>
+        <v>2418.84</v>
       </c>
       <c r="H78" s="32">
         <f t="shared" si="3"/>
-        <v>16048</v>
+        <v>31713.68</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" spans="1:10" s="132" customFormat="1" ht="15.6">
+    <row r="79" spans="1:10" s="130" customFormat="1" ht="15.6">
       <c r="A79" s="31">
-        <v>44984</v>
+        <v>44974</v>
       </c>
       <c r="B79" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C79" s="32" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D79" s="32">
-        <v>157328</v>
+        <v>13600</v>
       </c>
       <c r="E79" s="32"/>
       <c r="F79" s="32">
-        <v>14159.52</v>
+        <v>1224</v>
       </c>
       <c r="G79" s="32">
-        <v>14159.52</v>
+        <v>1224</v>
       </c>
       <c r="H79" s="32">
         <f t="shared" si="3"/>
-        <v>185647.03999999998</v>
+        <v>16048</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -14311,568 +14339,568 @@
         <v>48</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D80" s="32">
-        <v>9400</v>
+        <v>157328</v>
       </c>
       <c r="E80" s="32"/>
       <c r="F80" s="32">
-        <v>846</v>
+        <v>14159.52</v>
       </c>
       <c r="G80" s="32">
-        <v>846</v>
+        <v>14159.52</v>
       </c>
       <c r="H80" s="32">
         <f t="shared" si="3"/>
-        <v>11092</v>
+        <v>185647.03999999998</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" spans="1:10" ht="21">
-      <c r="A81" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="156"/>
-      <c r="C81" s="156"/>
-      <c r="D81" s="19">
-        <f>SUM(D73:D80)</f>
-        <v>1181267</v>
-      </c>
-      <c r="E81" s="19">
-        <f>SUM(E73:E80)</f>
-        <v>0</v>
-      </c>
-      <c r="F81" s="19">
-        <f>SUM(F73:F80)</f>
-        <v>106314.03</v>
-      </c>
-      <c r="G81" s="19">
-        <f>SUM(G73:G80)</f>
-        <v>106314.03</v>
-      </c>
-      <c r="H81" s="19">
-        <f>SUM(H73:H80)</f>
-        <v>1393895.0599999998</v>
+    <row r="81" spans="1:10" s="132" customFormat="1" ht="15.6">
+      <c r="A81" s="31">
+        <v>44984</v>
+      </c>
+      <c r="B81" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" s="32">
+        <v>9400</v>
+      </c>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32">
+        <v>846</v>
+      </c>
+      <c r="G81" s="32">
+        <v>846</v>
+      </c>
+      <c r="H81" s="32">
+        <f t="shared" si="3"/>
+        <v>11092</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="141" t="s">
+      <c r="A82" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="159"/>
+      <c r="C82" s="159"/>
+      <c r="D82" s="19">
+        <f>SUM(D74:D81)</f>
+        <v>1181267</v>
+      </c>
+      <c r="E82" s="19">
+        <f>SUM(E74:E81)</f>
+        <v>0</v>
+      </c>
+      <c r="F82" s="19">
+        <f>SUM(F74:F81)</f>
+        <v>106314.03</v>
+      </c>
+      <c r="G82" s="19">
+        <f>SUM(G74:G81)</f>
+        <v>106314.03</v>
+      </c>
+      <c r="H82" s="19">
+        <f>SUM(H74:H81)</f>
+        <v>1393895.0599999998</v>
+      </c>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+    </row>
+    <row r="83" spans="1:10" ht="21">
+      <c r="A83" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="142"/>
-      <c r="C82" s="142"/>
-      <c r="D82" s="142"/>
-      <c r="E82" s="142"/>
-      <c r="F82" s="142"/>
-      <c r="G82" s="142"/>
-      <c r="H82" s="142"/>
-      <c r="I82" s="142"/>
-      <c r="J82" s="143"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="16" t="s">
+      <c r="B83" s="147"/>
+      <c r="C83" s="147"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="147"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="147"/>
+      <c r="H83" s="147"/>
+      <c r="I83" s="147"/>
+      <c r="J83" s="148"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B84" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C84" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D84" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E84" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F83" s="16" t="s">
+      <c r="F84" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G84" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="17" t="s">
+      <c r="H84" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I83" s="17" t="s">
+      <c r="I84" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J84" s="17" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="15.6">
-      <c r="A84" s="56">
-        <v>44958</v>
-      </c>
-      <c r="B84" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="D84" s="57">
-        <v>44360</v>
-      </c>
-      <c r="E84" s="57">
-        <v>7984.8</v>
-      </c>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-      <c r="H84" s="57">
-        <f>D84+E84+F84+G84</f>
-        <v>52344.800000000003</v>
-      </c>
-      <c r="I84" s="57"/>
-      <c r="J84" s="57" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.6">
       <c r="A85" s="56">
         <v>44958</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="D85" s="57">
+        <v>44360</v>
+      </c>
+      <c r="E85" s="57">
+        <v>7984.8</v>
+      </c>
+      <c r="F85" s="57"/>
+      <c r="G85" s="57"/>
+      <c r="H85" s="57">
+        <f>D85+E85+F85+G85</f>
+        <v>52344.800000000003</v>
+      </c>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.6">
+      <c r="A86" s="56">
+        <v>44958</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="C85" s="32" t="s">
+      <c r="C86" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D86" s="33">
         <v>45507</v>
       </c>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33">
+      <c r="E86" s="33"/>
+      <c r="F86" s="33">
         <v>4095.63</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G86" s="33">
         <v>4095.63</v>
       </c>
-      <c r="H85" s="57">
-        <f t="shared" ref="H85:H113" si="4">D85+E85+F85+G85</f>
+      <c r="H86" s="57">
+        <f t="shared" ref="H86:H114" si="4">D86+E86+F86+G86</f>
         <v>53698.259999999995</v>
       </c>
-      <c r="I85" s="33"/>
-      <c r="J85" s="32" t="s">
+      <c r="I86" s="33"/>
+      <c r="J86" s="32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="125" customFormat="1" ht="15.6">
-      <c r="A86" s="56">
+    <row r="87" spans="1:10" s="125" customFormat="1" ht="15.6">
+      <c r="A87" s="56">
         <v>44959</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="B87" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="32" t="s">
+      <c r="C87" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D87" s="33">
         <v>11000</v>
       </c>
-      <c r="E86" s="33">
+      <c r="E87" s="33">
         <v>1980</v>
       </c>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="57">
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="57">
         <f t="shared" si="4"/>
         <v>12980</v>
       </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="32" t="s">
+      <c r="I87" s="33"/>
+      <c r="J87" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.6">
-      <c r="A87" s="58">
+    <row r="88" spans="1:10" ht="15.6">
+      <c r="A88" s="58">
         <v>44960</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B88" s="45" t="s">
         <v>520</v>
       </c>
-      <c r="C87" s="59">
+      <c r="C88" s="59">
         <v>4866</v>
       </c>
-      <c r="D87" s="59">
+      <c r="D88" s="59">
         <v>2034</v>
       </c>
-      <c r="E87" s="59"/>
-      <c r="F87" s="59">
+      <c r="E88" s="59"/>
+      <c r="F88" s="59">
         <v>183</v>
       </c>
-      <c r="G87" s="59">
+      <c r="G88" s="59">
         <v>183</v>
       </c>
-      <c r="H87" s="59">
+      <c r="H88" s="59">
         <f t="shared" si="4"/>
         <v>2400</v>
       </c>
-      <c r="I87" s="59"/>
-      <c r="J87" s="59" t="s">
+      <c r="I88" s="59"/>
+      <c r="J88" s="59" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="88" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A88" s="37">
+    <row r="89" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A89" s="37">
         <v>44960</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B89" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="C88" s="32" t="s">
+      <c r="C89" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D89" s="33">
         <v>23400</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E89" s="33">
         <v>4212</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33">
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33">
         <f t="shared" si="4"/>
         <v>27612</v>
       </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="40" t="s">
+      <c r="I89" s="33"/>
+      <c r="J89" s="40" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.6">
-      <c r="A89" s="135">
+    <row r="90" spans="1:10" ht="15.6">
+      <c r="A90" s="135">
         <v>44961</v>
       </c>
-      <c r="B89" s="51" t="s">
+      <c r="B90" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="C89" s="136" t="s">
+      <c r="C90" s="136" t="s">
         <v>523</v>
       </c>
-      <c r="D89" s="136">
+      <c r="D90" s="136">
         <v>13687.32</v>
       </c>
-      <c r="E89" s="136"/>
-      <c r="F89" s="136">
+      <c r="E90" s="136"/>
+      <c r="F90" s="136">
         <v>1231.8800000000001</v>
       </c>
-      <c r="G89" s="136">
+      <c r="G90" s="136">
         <v>1231.8800000000001</v>
       </c>
-      <c r="H89" s="136">
+      <c r="H90" s="136">
         <f t="shared" si="4"/>
         <v>16151.080000000002</v>
       </c>
-      <c r="I89" s="136"/>
-      <c r="J89" s="136" t="s">
+      <c r="I90" s="136"/>
+      <c r="J90" s="136" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A90" s="37">
+    <row r="91" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A91" s="37">
         <v>44961</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B91" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C90" s="32" t="s">
+      <c r="C91" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D91" s="33">
         <v>5875</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E91" s="33">
         <v>705</v>
       </c>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33">
+      <c r="F91" s="33"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="33">
         <f t="shared" si="4"/>
         <v>6580</v>
       </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="32" t="s">
+      <c r="I91" s="33"/>
+      <c r="J91" s="32" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.6">
-      <c r="A91" s="56">
+    <row r="92" spans="1:10" ht="15.6">
+      <c r="A92" s="56">
         <v>44963</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B92" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C92" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="D91" s="57">
+      <c r="D92" s="57">
         <v>8275</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E92" s="57">
         <v>1489.5</v>
       </c>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57">
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57">
         <f t="shared" si="4"/>
         <v>9764.5</v>
       </c>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57" t="s">
+      <c r="I92" s="57"/>
+      <c r="J92" s="57" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.6">
-      <c r="A92" s="37">
+    <row r="93" spans="1:10" ht="15.6">
+      <c r="A93" s="37">
         <v>44964</v>
       </c>
-      <c r="B92" s="32" t="s">
+      <c r="B93" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C93" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D93" s="33">
         <v>54030</v>
       </c>
-      <c r="E92" s="33">
+      <c r="E93" s="33">
         <v>9725.4</v>
       </c>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="57">
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="57">
         <f t="shared" si="4"/>
         <v>63755.4</v>
       </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="32" t="s">
+      <c r="I93" s="33"/>
+      <c r="J93" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.6">
-      <c r="A93" s="56">
+    <row r="94" spans="1:10" ht="15.6">
+      <c r="A94" s="56">
         <v>44964</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B94" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="C93" s="57">
+      <c r="C94" s="57">
         <v>76444</v>
       </c>
-      <c r="D93" s="57">
+      <c r="D94" s="57">
         <v>1864.4</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="57">
+      <c r="E94" s="57"/>
+      <c r="F94" s="57">
         <v>167.8</v>
       </c>
-      <c r="G93" s="57">
+      <c r="G94" s="57">
         <v>167.8</v>
       </c>
-      <c r="H93" s="57">
+      <c r="H94" s="57">
         <f t="shared" si="4"/>
         <v>2200</v>
       </c>
-      <c r="I93" s="57"/>
-      <c r="J93" s="57" t="s">
+      <c r="I94" s="57"/>
+      <c r="J94" s="57" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.6">
-      <c r="A94" s="58">
+    <row r="95" spans="1:10" ht="15.6">
+      <c r="A95" s="58">
         <v>44964</v>
       </c>
-      <c r="B94" s="45" t="s">
+      <c r="B95" s="45" t="s">
         <v>273</v>
       </c>
-      <c r="C94" s="59" t="s">
+      <c r="C95" s="59" t="s">
         <v>552</v>
       </c>
-      <c r="D94" s="59">
+      <c r="D95" s="59">
         <v>32496.609</v>
       </c>
-      <c r="E94" s="59"/>
-      <c r="F94" s="59">
+      <c r="E95" s="59"/>
+      <c r="F95" s="59">
         <v>2924.6950000000002</v>
       </c>
-      <c r="G94" s="59">
+      <c r="G95" s="59">
         <v>2924.6950000000002</v>
       </c>
-      <c r="H94" s="59">
+      <c r="H95" s="59">
         <v>38346</v>
       </c>
-      <c r="I94" s="59"/>
-      <c r="J94" s="59" t="s">
+      <c r="I95" s="59"/>
+      <c r="J95" s="59" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="95" spans="1:10" s="30" customFormat="1" ht="15.6">
-      <c r="A95" s="37">
+    <row r="96" spans="1:10" s="30" customFormat="1" ht="15.6">
+      <c r="A96" s="37">
         <v>44964</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B96" s="33" t="s">
         <v>569</v>
       </c>
-      <c r="C95" s="33" t="s">
+      <c r="C96" s="33" t="s">
         <v>589</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D96" s="33">
         <v>1525.43</v>
       </c>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33">
+      <c r="E96" s="33"/>
+      <c r="F96" s="33">
         <v>137.29</v>
       </c>
-      <c r="G95" s="33">
+      <c r="G96" s="33">
         <v>137.29</v>
       </c>
-      <c r="H95" s="33">
-        <f>D95+E95+F95+G95</f>
+      <c r="H96" s="33">
+        <f>D96+E96+F96+G96</f>
         <v>1800.01</v>
       </c>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33" t="s">
+      <c r="I96" s="33"/>
+      <c r="J96" s="33" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A96" s="135">
+    <row r="97" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A97" s="135">
         <v>44965</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B97" s="52" t="s">
         <v>372</v>
       </c>
-      <c r="C96" s="52">
+      <c r="C97" s="52">
         <v>2881072428</v>
       </c>
-      <c r="D96" s="51">
+      <c r="D97" s="51">
         <v>1570</v>
       </c>
-      <c r="E96" s="51">
+      <c r="E97" s="51">
         <v>78.5</v>
       </c>
-      <c r="F96" s="51"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="51">
-        <f>D96+E96+F96+G96</f>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51">
+        <f>D97+E97+F97+G97</f>
         <v>1648.5</v>
       </c>
-      <c r="I96" s="51"/>
-      <c r="J96" s="52" t="s">
+      <c r="I97" s="51"/>
+      <c r="J97" s="52" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="134" customFormat="1" ht="38.4" customHeight="1">
-      <c r="A97" s="56">
+    <row r="98" spans="1:10" s="134" customFormat="1" ht="38.4" customHeight="1">
+      <c r="A98" s="56">
         <v>44965</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="B98" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="C97" s="32">
+      <c r="C98" s="32">
         <v>2881072429</v>
       </c>
-      <c r="D97" s="33">
+      <c r="D98" s="33">
         <v>400</v>
       </c>
-      <c r="E97" s="33">
+      <c r="E98" s="33">
         <v>20</v>
-      </c>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33">
-        <f>D97+E97+F97+G97</f>
-        <v>420</v>
-      </c>
-      <c r="I97" s="33"/>
-      <c r="J97" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="15.6">
-      <c r="A98" s="56">
-        <v>44967</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D98" s="33">
-        <v>38090</v>
-      </c>
-      <c r="E98" s="33">
-        <v>6856.2</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
       <c r="H98" s="33">
+        <f>D98+E98+F98+G98</f>
+        <v>420</v>
+      </c>
+      <c r="I98" s="33"/>
+      <c r="J98" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.6">
+      <c r="A99" s="56">
+        <v>44967</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="D99" s="33">
+        <v>38090</v>
+      </c>
+      <c r="E99" s="33">
+        <v>6856.2</v>
+      </c>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33">
         <v>44946</v>
       </c>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33" t="s">
+      <c r="I99" s="33"/>
+      <c r="J99" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="22.5" customHeight="1">
-      <c r="A99" s="37">
+    <row r="100" spans="1:10" ht="22.5" customHeight="1">
+      <c r="A100" s="37">
         <v>44968</v>
       </c>
-      <c r="B99" s="32" t="s">
+      <c r="B100" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="C99" s="32" t="s">
+      <c r="C100" s="32" t="s">
         <v>554</v>
       </c>
-      <c r="D99" s="33">
+      <c r="D100" s="33">
         <v>68260</v>
       </c>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33">
+      <c r="E100" s="33"/>
+      <c r="F100" s="33">
         <v>6143.45</v>
       </c>
-      <c r="G99" s="33">
+      <c r="G100" s="33">
         <v>6143.45</v>
       </c>
-      <c r="H99" s="33">
+      <c r="H100" s="33">
         <v>80547</v>
-      </c>
-      <c r="I99" s="33"/>
-      <c r="J99" s="32" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="21" customHeight="1">
-      <c r="A100" s="37">
-        <v>44970</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="D100" s="33">
-        <v>22450</v>
-      </c>
-      <c r="E100" s="33">
-        <v>4041</v>
-      </c>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33">
-        <f t="shared" si="4"/>
-        <v>26491</v>
       </c>
       <c r="I100" s="33"/>
       <c r="J100" s="32" t="s">
-        <v>47</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="21" customHeight="1">
@@ -14880,329 +14908,327 @@
         <v>44970</v>
       </c>
       <c r="B101" s="32" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D101" s="33">
-        <v>28281</v>
+        <v>22450</v>
       </c>
       <c r="E101" s="33">
-        <v>5090.58</v>
+        <v>4041</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33">
         <f t="shared" si="4"/>
-        <v>33371.58</v>
+        <v>26491</v>
       </c>
       <c r="I101" s="33"/>
       <c r="J101" s="32" t="s">
-        <v>474</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="21" customHeight="1">
-      <c r="A102" s="44">
+      <c r="A102" s="37">
         <v>44970</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C102" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D102" s="33">
-        <v>22036</v>
-      </c>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33">
-        <v>1983.24</v>
-      </c>
-      <c r="G102" s="33">
-        <v>1983.24</v>
-      </c>
+        <v>28281</v>
+      </c>
+      <c r="E102" s="33">
+        <v>5090.58</v>
+      </c>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
       <c r="H102" s="33">
-        <v>26002</v>
+        <f t="shared" si="4"/>
+        <v>33371.58</v>
       </c>
       <c r="I102" s="33"/>
       <c r="J102" s="32" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="139" customFormat="1" ht="21" customHeight="1">
-      <c r="A103" s="37">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="21" customHeight="1">
+      <c r="A103" s="44">
         <v>44970</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="C103" s="32">
-        <v>2482</v>
+        <v>142</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>557</v>
       </c>
       <c r="D103" s="33">
-        <v>220.34</v>
+        <v>22036</v>
       </c>
       <c r="E103" s="33"/>
       <c r="F103" s="33">
-        <v>19.32</v>
+        <v>1983.24</v>
       </c>
       <c r="G103" s="33">
-        <v>19.32</v>
+        <v>1983.24</v>
       </c>
       <c r="H103" s="33">
-        <f>D103+E103+F103+G103</f>
-        <v>258.98</v>
+        <v>26002</v>
       </c>
       <c r="I103" s="33"/>
       <c r="J103" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
-      <c r="A104" s="44">
-        <v>44971</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="139" customFormat="1" ht="21" customHeight="1">
+      <c r="A104" s="37">
+        <v>44970</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="C104" s="40">
-        <v>2881072727</v>
+        <v>540</v>
+      </c>
+      <c r="C104" s="32">
+        <v>2482</v>
       </c>
       <c r="D104" s="33">
-        <v>1030</v>
-      </c>
-      <c r="E104" s="33">
-        <v>51.5</v>
-      </c>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
+        <v>220.34</v>
+      </c>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33">
+        <v>19.32</v>
+      </c>
+      <c r="G104" s="33">
+        <v>19.32</v>
+      </c>
       <c r="H104" s="33">
         <f>D104+E104+F104+G104</f>
-        <v>1081.5</v>
+        <v>258.98</v>
       </c>
       <c r="I104" s="33"/>
       <c r="J104" s="32" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" s="30" customFormat="1" ht="21" customHeight="1">
-      <c r="A105" s="37">
-        <v>44977</v>
-      </c>
-      <c r="B105" s="33" t="s">
-        <v>569</v>
-      </c>
-      <c r="C105" s="33" t="s">
-        <v>570</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="134" customFormat="1" ht="34.799999999999997" customHeight="1">
+      <c r="A105" s="44">
+        <v>44971</v>
+      </c>
+      <c r="B105" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C105" s="40">
+        <v>2881072727</v>
       </c>
       <c r="D105" s="33">
-        <v>1101.7</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33">
-        <v>99.15</v>
-      </c>
-      <c r="G105" s="33">
-        <v>99.15</v>
-      </c>
+        <v>1030</v>
+      </c>
+      <c r="E105" s="33">
+        <v>51.5</v>
+      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
       <c r="H105" s="33">
         <f>D105+E105+F105+G105</f>
+        <v>1081.5</v>
+      </c>
+      <c r="I105" s="33"/>
+      <c r="J105" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="30" customFormat="1" ht="21" customHeight="1">
+      <c r="A106" s="37">
+        <v>44977</v>
+      </c>
+      <c r="B106" s="33" t="s">
+        <v>569</v>
+      </c>
+      <c r="C106" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D106" s="33">
+        <v>1101.7</v>
+      </c>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="G106" s="33">
+        <v>99.15</v>
+      </c>
+      <c r="H106" s="33">
+        <f>D106+E106+F106+G106</f>
         <v>1300.0000000000002</v>
       </c>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33" t="s">
+      <c r="I106" s="33"/>
+      <c r="J106" s="33" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.6">
-      <c r="A106" s="135">
+    <row r="107" spans="1:10" ht="15.6">
+      <c r="A107" s="135">
         <v>44978</v>
       </c>
-      <c r="B106" s="33" t="s">
+      <c r="B107" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C106" s="57" t="s">
+      <c r="C107" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="D106" s="57">
+      <c r="D107" s="57">
         <v>23035</v>
       </c>
-      <c r="E106" s="57">
+      <c r="E107" s="57">
         <v>4146.3</v>
       </c>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57">
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57">
         <v>27181</v>
       </c>
-      <c r="I106" s="136"/>
-      <c r="J106" s="136" t="s">
+      <c r="I107" s="136"/>
+      <c r="J107" s="136" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.6">
-      <c r="A107" s="58">
+    <row r="108" spans="1:10" ht="15.6">
+      <c r="A108" s="58">
         <v>44978</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B108" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C107" s="59">
+      <c r="C108" s="59">
         <v>289</v>
       </c>
-      <c r="D107" s="59">
+      <c r="D108" s="59">
         <v>3855</v>
       </c>
-      <c r="E107" s="59">
+      <c r="E108" s="59">
         <v>462.6</v>
       </c>
-      <c r="F107" s="59"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="59">
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59">
         <v>4318</v>
       </c>
-      <c r="I107" s="59"/>
-      <c r="J107" s="59" t="s">
+      <c r="I108" s="59"/>
+      <c r="J108" s="59" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A108" s="37">
+    <row r="109" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A109" s="37">
         <v>44978</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B109" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="C108" s="32" t="s">
+      <c r="C109" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="D108" s="33">
+      <c r="D109" s="33">
         <v>250</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E109" s="33">
         <v>12.5</v>
       </c>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33">
-        <f>D108+E108+F108+G108</f>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33">
+        <f>D109+E109+F109+G109</f>
         <v>262.5</v>
       </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="32" t="s">
+      <c r="I109" s="33"/>
+      <c r="J109" s="32" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="131" customFormat="1" ht="15.6">
-      <c r="A109" s="58">
-        <v>44981</v>
-      </c>
-      <c r="B109" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>560</v>
-      </c>
-      <c r="D109" s="57">
-        <v>14013</v>
-      </c>
-      <c r="E109" s="57"/>
-      <c r="F109" s="57">
-        <v>1261.17</v>
-      </c>
-      <c r="G109" s="57">
-        <v>1261.17</v>
-      </c>
-      <c r="H109" s="57">
-        <v>16535</v>
-      </c>
-      <c r="I109" s="59"/>
-      <c r="J109" s="59" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="131" customFormat="1" ht="15.6">
       <c r="A110" s="58">
         <v>44981</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>560</v>
+      </c>
+      <c r="D110" s="57">
+        <v>14013</v>
+      </c>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57">
+        <v>1261.17</v>
+      </c>
+      <c r="G110" s="57">
+        <v>1261.17</v>
+      </c>
+      <c r="H110" s="57">
+        <v>16535</v>
+      </c>
+      <c r="I110" s="59"/>
+      <c r="J110" s="59" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="131" customFormat="1" ht="15.6">
+      <c r="A111" s="58">
+        <v>44981</v>
+      </c>
+      <c r="B111" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C110" s="59" t="s">
+      <c r="C111" s="59" t="s">
         <v>561</v>
       </c>
-      <c r="D110" s="59">
+      <c r="D111" s="59">
         <v>45450</v>
       </c>
-      <c r="E110" s="59">
+      <c r="E111" s="59">
         <v>8181</v>
       </c>
-      <c r="F110" s="59"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="59">
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59">
         <f t="shared" si="4"/>
         <v>53631</v>
       </c>
-      <c r="I110" s="59"/>
-      <c r="J110" s="59" t="s">
+      <c r="I111" s="59"/>
+      <c r="J111" s="59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:10" s="133" customFormat="1" ht="31.2">
-      <c r="A111" s="37">
+    <row r="112" spans="1:10" s="133" customFormat="1" ht="31.2">
+      <c r="A112" s="37">
         <v>44983</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B112" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="C111" s="32" t="s">
+      <c r="C112" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D112" s="33">
         <v>15</v>
       </c>
-      <c r="E111" s="33">
+      <c r="E112" s="33">
         <v>2.7</v>
       </c>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33">
+      <c r="F112" s="33"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="33">
         <f t="shared" si="4"/>
         <v>17.7</v>
       </c>
-      <c r="I111" s="33"/>
-      <c r="J111" s="32" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="138" customFormat="1" ht="15.6">
-      <c r="A112" s="37">
-        <v>44985</v>
-      </c>
-      <c r="B112" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="D112" s="33">
-        <v>300</v>
-      </c>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33">
-        <v>27</v>
-      </c>
-      <c r="G112" s="33">
-        <v>27</v>
-      </c>
-      <c r="H112" s="33">
-        <f t="shared" si="4"/>
-        <v>354</v>
-      </c>
       <c r="I112" s="33"/>
       <c r="J112" s="32" t="s">
-        <v>82</v>
+        <v>567</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="138" customFormat="1" ht="15.6">
@@ -15210,195 +15236,197 @@
         <v>44985</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D113" s="33">
-        <v>37922.5</v>
+        <v>300</v>
       </c>
       <c r="E113" s="33"/>
       <c r="F113" s="33">
-        <v>3413.03</v>
+        <v>27</v>
       </c>
       <c r="G113" s="33">
-        <v>3413.03</v>
+        <v>27</v>
       </c>
       <c r="H113" s="33">
         <f t="shared" si="4"/>
-        <v>44748.56</v>
+        <v>354</v>
       </c>
       <c r="I113" s="33"/>
       <c r="J113" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="138" customFormat="1" ht="15.6">
+      <c r="A114" s="37">
+        <v>44985</v>
+      </c>
+      <c r="B114" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D114" s="33">
+        <v>37922.5</v>
+      </c>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="G114" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="H114" s="33">
+        <f t="shared" si="4"/>
+        <v>44748.56</v>
+      </c>
+      <c r="I114" s="33"/>
+      <c r="J114" s="32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="21">
-      <c r="A114" s="156" t="s">
+    <row r="115" spans="1:10" ht="21">
+      <c r="A115" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B114" s="156"/>
-      <c r="C114" s="156"/>
-      <c r="D114" s="19">
-        <f>SUM(D84:D113)</f>
+      <c r="B115" s="159"/>
+      <c r="C115" s="159"/>
+      <c r="D115" s="19">
+        <f>SUM(D85:D114)</f>
         <v>552334.299</v>
       </c>
-      <c r="E114" s="19">
-        <f>SUM(E84:E113)</f>
+      <c r="E115" s="19">
+        <f>SUM(E85:E114)</f>
         <v>55039.579999999994</v>
       </c>
-      <c r="F114" s="19">
-        <f>SUM(F84:F113)</f>
+      <c r="F115" s="19">
+        <f>SUM(F85:F114)</f>
         <v>21686.655000000006</v>
       </c>
-      <c r="G114" s="19">
-        <f>SUM(G84:G113)</f>
+      <c r="G115" s="19">
+        <f>SUM(G85:G114)</f>
         <v>21686.655000000006</v>
       </c>
-      <c r="H114" s="19">
-        <f>SUM(H84:H113)</f>
+      <c r="H115" s="19">
+        <f>SUM(H85:H114)</f>
         <v>650746.37000000011</v>
       </c>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-    </row>
-    <row r="116" spans="1:10" ht="21">
-      <c r="A116" s="144" t="s">
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+    </row>
+    <row r="117" spans="1:10" ht="21">
+      <c r="A117" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B116" s="145"/>
-      <c r="C116" s="145"/>
-      <c r="D116" s="145"/>
-      <c r="E116" s="145"/>
-      <c r="F116" s="145"/>
-      <c r="G116" s="145"/>
-      <c r="H116" s="145"/>
-      <c r="I116" s="145"/>
-      <c r="J116" s="146"/>
-    </row>
-    <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="141" t="s">
+      <c r="B117" s="153"/>
+      <c r="C117" s="153"/>
+      <c r="D117" s="153"/>
+      <c r="E117" s="153"/>
+      <c r="F117" s="153"/>
+      <c r="G117" s="153"/>
+      <c r="H117" s="153"/>
+      <c r="I117" s="153"/>
+      <c r="J117" s="154"/>
+    </row>
+    <row r="118" spans="1:10" ht="21">
+      <c r="A118" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="142"/>
-      <c r="C117" s="142"/>
-      <c r="D117" s="142"/>
-      <c r="E117" s="142"/>
-      <c r="F117" s="142"/>
-      <c r="G117" s="142"/>
-      <c r="H117" s="143"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.6">
-      <c r="A118" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B118" s="147"/>
+      <c r="C118" s="147"/>
+      <c r="D118" s="147"/>
+      <c r="E118" s="147"/>
+      <c r="F118" s="147"/>
+      <c r="G118" s="147"/>
+      <c r="H118" s="148"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
     </row>
     <row r="119" spans="1:10" ht="15.6">
-      <c r="A119" s="31">
+      <c r="A119" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+    </row>
+    <row r="120" spans="1:10" ht="15.6">
+      <c r="A120" s="31">
         <v>44965</v>
       </c>
-      <c r="B119" s="32" t="s">
+      <c r="B120" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C120" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="D119" s="32">
+      <c r="D120" s="32">
         <v>7200</v>
-      </c>
-      <c r="E119" s="32"/>
-      <c r="F119" s="32">
-        <v>648</v>
-      </c>
-      <c r="G119" s="32">
-        <v>648</v>
-      </c>
-      <c r="H119" s="32">
-        <f>D119+E119+F119+G119</f>
-        <v>8496</v>
-      </c>
-      <c r="I119" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J119" s="7"/>
-    </row>
-    <row r="120" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A120" s="31">
-        <v>44984</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="C120" s="32" t="s">
-        <v>565</v>
-      </c>
-      <c r="D120" s="32">
-        <v>351000</v>
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32">
-        <v>31590</v>
+        <v>648</v>
       </c>
       <c r="G120" s="32">
-        <v>31590</v>
+        <v>648</v>
       </c>
       <c r="H120" s="32">
         <f>D120+E120+F120+G120</f>
-        <v>414180</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="133" customFormat="1" ht="15.6">
+        <v>8496</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J120" s="7"/>
+    </row>
+    <row r="121" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A121" s="31">
-        <v>44988</v>
+        <v>44984</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>48</v>
+        <v>564</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D121" s="32">
-        <v>90816</v>
+        <v>351000</v>
       </c>
       <c r="E121" s="32"/>
       <c r="F121" s="32">
-        <v>8173.44</v>
+        <v>31590</v>
       </c>
       <c r="G121" s="32">
-        <v>8173.44</v>
+        <v>31590</v>
       </c>
       <c r="H121" s="32">
-        <f t="shared" ref="H121:H127" si="5">D121+E121+F121+G121</f>
-        <v>107162.88</v>
-      </c>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
+        <f>D121+E121+F121+G121</f>
+        <v>414180</v>
+      </c>
     </row>
     <row r="122" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A122" s="31">
@@ -15408,48 +15436,48 @@
         <v>48</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D122" s="32">
-        <v>58450</v>
+        <v>90816</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="32">
+        <v>8173.44</v>
+      </c>
+      <c r="G122" s="32">
+        <v>8173.44</v>
+      </c>
+      <c r="H122" s="32">
+        <f t="shared" ref="H122:H130" si="5">D122+E122+F122+G122</f>
+        <v>107162.88</v>
+      </c>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+    </row>
+    <row r="123" spans="1:10" s="133" customFormat="1" ht="15.6">
+      <c r="A123" s="31">
+        <v>44988</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="D123" s="32">
+        <v>58450</v>
+      </c>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32">
         <v>5260.5</v>
       </c>
-      <c r="G122" s="32">
+      <c r="G123" s="32">
         <v>5260.5</v>
       </c>
-      <c r="H122" s="32">
+      <c r="H123" s="32">
         <f t="shared" si="5"/>
         <v>68971</v>
-      </c>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-    </row>
-    <row r="123" spans="1:10" s="133" customFormat="1" ht="15.6">
-      <c r="A123" s="31">
-        <v>44989</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="32" t="s">
-        <v>573</v>
-      </c>
-      <c r="D123" s="32">
-        <v>53056</v>
-      </c>
-      <c r="E123" s="32"/>
-      <c r="F123" s="32">
-        <v>4775.04</v>
-      </c>
-      <c r="G123" s="32">
-        <v>4775.04</v>
-      </c>
-      <c r="H123" s="32">
-        <f t="shared" si="5"/>
-        <v>62606.080000000002</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -15462,53 +15490,53 @@
         <v>48</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="D124" s="32">
-        <v>67868</v>
+        <v>53056</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="32">
-        <v>6108.12</v>
+        <v>4775.04</v>
       </c>
       <c r="G124" s="32">
-        <v>6108.12</v>
+        <v>4775.04</v>
       </c>
       <c r="H124" s="32">
         <f t="shared" si="5"/>
-        <v>80084.239999999991</v>
+        <v>62606.080000000002</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="125" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A125" s="31">
-        <v>44998</v>
+        <v>44989</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D125" s="32">
-        <v>13042</v>
+        <v>67868</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32">
-        <v>1173.78</v>
+        <v>6108.12</v>
       </c>
       <c r="G125" s="32">
-        <v>1173.78</v>
+        <v>6108.12</v>
       </c>
       <c r="H125" s="32">
         <f t="shared" si="5"/>
-        <v>15389.560000000001</v>
+        <v>80084.239999999991</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="126" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A126" s="31">
         <v>44998</v>
       </c>
@@ -15516,26 +15544,26 @@
         <v>48</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D126" s="32">
-        <v>168571</v>
+        <v>13042</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="32">
-        <v>15171.39</v>
+        <v>1173.78</v>
       </c>
       <c r="G126" s="32">
-        <v>15171.39</v>
+        <v>1173.78</v>
       </c>
       <c r="H126" s="32">
         <f t="shared" si="5"/>
-        <v>198913.78000000003</v>
+        <v>15389.560000000001</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="127" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A127" s="31">
         <v>44998</v>
       </c>
@@ -15543,426 +15571,883 @@
         <v>48</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D127" s="32">
-        <v>99123</v>
+        <v>168571</v>
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="32">
-        <v>8921.07</v>
+        <v>15171.39</v>
       </c>
       <c r="G127" s="32">
-        <v>8921.07</v>
+        <v>15171.39</v>
       </c>
       <c r="H127" s="32">
         <f t="shared" si="5"/>
-        <v>116965.14000000001</v>
+        <v>198913.78000000003</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" ht="21">
-      <c r="A128" s="156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="156"/>
-      <c r="C128" s="156"/>
-      <c r="D128" s="19">
-        <f>SUM(D119:D127)</f>
-        <v>909126</v>
-      </c>
-      <c r="E128" s="19">
-        <f>SUM(E119:E127)</f>
-        <v>0</v>
-      </c>
-      <c r="F128" s="19">
-        <f>SUM(F119:F127)</f>
-        <v>81821.34</v>
-      </c>
-      <c r="G128" s="19">
-        <f>SUM(G119:G127)</f>
-        <v>81821.34</v>
-      </c>
-      <c r="H128" s="19">
-        <f>SUM(H119:H127)</f>
-        <v>1072768.6800000002</v>
+    <row r="128" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A128" s="31">
+        <v>44998</v>
+      </c>
+      <c r="B128" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" s="32">
+        <v>99123</v>
+      </c>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="G128" s="32">
+        <v>8921.07</v>
+      </c>
+      <c r="H128" s="32">
+        <f t="shared" si="5"/>
+        <v>116965.14000000001</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10" ht="21">
-      <c r="A129" s="141" t="s">
+    <row r="129" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A129" s="31">
+        <v>45008</v>
+      </c>
+      <c r="B129" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="D129" s="32">
+        <v>73070</v>
+      </c>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32">
+        <v>6576.3</v>
+      </c>
+      <c r="G129" s="32">
+        <v>6576.3</v>
+      </c>
+      <c r="H129" s="32">
+        <f t="shared" si="5"/>
+        <v>86222.6</v>
+      </c>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+    </row>
+    <row r="130" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A130" s="31">
+        <v>45008</v>
+      </c>
+      <c r="B130" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D130" s="32">
+        <v>64772</v>
+      </c>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32">
+        <v>5829.48</v>
+      </c>
+      <c r="G130" s="32">
+        <v>5829.48</v>
+      </c>
+      <c r="H130" s="32">
+        <f t="shared" si="5"/>
+        <v>76430.959999999992</v>
+      </c>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+    </row>
+    <row r="131" spans="1:10" ht="21">
+      <c r="A131" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" s="159"/>
+      <c r="C131" s="159"/>
+      <c r="D131" s="19">
+        <f>SUM(D120:D130)</f>
+        <v>1046968</v>
+      </c>
+      <c r="E131" s="19">
+        <f>SUM(E120:E130)</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="19">
+        <f>SUM(F120:F130)</f>
+        <v>94227.12</v>
+      </c>
+      <c r="G131" s="19">
+        <f>SUM(G120:G130)</f>
+        <v>94227.12</v>
+      </c>
+      <c r="H131" s="19">
+        <f>SUM(H120:H130)</f>
+        <v>1235422.2400000002</v>
+      </c>
+      <c r="I131" s="7"/>
+      <c r="J131" s="7"/>
+    </row>
+    <row r="132" spans="1:10" ht="21">
+      <c r="A132" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="B129" s="142"/>
-      <c r="C129" s="142"/>
-      <c r="D129" s="142"/>
-      <c r="E129" s="142"/>
-      <c r="F129" s="142"/>
-      <c r="G129" s="142"/>
-      <c r="H129" s="142"/>
-      <c r="I129" s="142"/>
-      <c r="J129" s="143"/>
-    </row>
-    <row r="130" spans="1:10">
-      <c r="A130" s="16" t="s">
+      <c r="B132" s="147"/>
+      <c r="C132" s="147"/>
+      <c r="D132" s="147"/>
+      <c r="E132" s="147"/>
+      <c r="F132" s="147"/>
+      <c r="G132" s="147"/>
+      <c r="H132" s="147"/>
+      <c r="I132" s="147"/>
+      <c r="J132" s="148"/>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B133" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C130" s="16" t="s">
+      <c r="C133" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D133" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E133" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F130" s="16" t="s">
+      <c r="F133" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G133" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H130" s="17" t="s">
+      <c r="H133" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I130" s="17" t="s">
+      <c r="I133" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J130" s="17" t="s">
+      <c r="J133" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.6">
-      <c r="A131" s="13">
+    <row r="134" spans="1:10" ht="15.6">
+      <c r="A134" s="13">
         <v>44987</v>
       </c>
-      <c r="B131" s="33" t="s">
+      <c r="B134" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C131" s="15" t="s">
+      <c r="C134" s="15" t="s">
         <v>575</v>
       </c>
-      <c r="D131" s="15">
+      <c r="D134" s="15">
         <v>26135</v>
       </c>
-      <c r="E131" s="15">
+      <c r="E134" s="15">
         <v>4704.3</v>
       </c>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="15">
-        <f>D131+E131+F131+G131</f>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15">
+        <f>D134+E134+F134+G134</f>
         <v>30839.3</v>
-      </c>
-      <c r="I131" s="15"/>
-      <c r="J131" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A132" s="13">
-        <v>44988</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>576</v>
-      </c>
-      <c r="C132" s="15">
-        <v>7334</v>
-      </c>
-      <c r="D132" s="15">
-        <v>4830.5</v>
-      </c>
-      <c r="E132" s="15">
-        <v>869.5</v>
-      </c>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
-      <c r="H132" s="15">
-        <f t="shared" ref="H132:H138" si="6">D132+E132+F132+G132</f>
-        <v>5700</v>
-      </c>
-      <c r="I132" s="15"/>
-      <c r="J132" s="15" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A133" s="13">
-        <v>44989</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C133" s="15">
-        <v>2308</v>
-      </c>
-      <c r="D133" s="15">
-        <v>2404.8000000000002</v>
-      </c>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15">
-        <v>216.43</v>
-      </c>
-      <c r="G133" s="15">
-        <v>216.43</v>
-      </c>
-      <c r="H133" s="15">
-        <f t="shared" si="6"/>
-        <v>2837.66</v>
-      </c>
-      <c r="I133" s="15"/>
-      <c r="J133" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A134" s="13">
-        <v>44989</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="15">
-        <v>2319</v>
-      </c>
-      <c r="D134" s="15">
-        <v>814</v>
-      </c>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="G134" s="15">
-        <v>73.260000000000005</v>
-      </c>
-      <c r="H134" s="15">
-        <f t="shared" si="6"/>
-        <v>960.52</v>
       </c>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
-        <v>578</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A135" s="13">
-        <v>44991</v>
+        <v>44988</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>579</v>
+        <v>576</v>
+      </c>
+      <c r="C135" s="15">
+        <v>7334</v>
       </c>
       <c r="D135" s="15">
-        <v>32650</v>
+        <v>4830.5</v>
       </c>
       <c r="E135" s="15">
-        <v>5677</v>
+        <v>869.5</v>
       </c>
       <c r="F135" s="15"/>
       <c r="G135" s="15"/>
       <c r="H135" s="15">
-        <f t="shared" si="6"/>
-        <v>38327</v>
+        <f t="shared" ref="H135:H154" si="6">D135+E135+F135+G135</f>
+        <v>5700</v>
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="15" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A136" s="13">
-        <v>44991</v>
+        <v>44989</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>580</v>
+        <v>67</v>
+      </c>
+      <c r="C136" s="15">
+        <v>2308</v>
       </c>
       <c r="D136" s="15">
-        <v>43730</v>
-      </c>
-      <c r="E136" s="15">
-        <v>7871.4</v>
-      </c>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
+        <v>2404.8000000000002</v>
+      </c>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15">
+        <v>216.43</v>
+      </c>
+      <c r="G136" s="15">
+        <v>216.43</v>
+      </c>
       <c r="H136" s="15">
         <f t="shared" si="6"/>
-        <v>51601.4</v>
+        <v>2837.66</v>
       </c>
       <c r="I136" s="15"/>
       <c r="J136" s="15" t="s">
-        <v>47</v>
+        <v>578</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A137" s="13">
-        <v>44993</v>
+        <v>44989</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>581</v>
+        <v>67</v>
+      </c>
+      <c r="C137" s="15">
+        <v>2319</v>
       </c>
       <c r="D137" s="15">
-        <v>550</v>
+        <v>814</v>
       </c>
       <c r="E137" s="15"/>
       <c r="F137" s="15">
-        <v>49.5</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="G137" s="15">
-        <v>49.5</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="H137" s="15">
         <f t="shared" si="6"/>
-        <v>649</v>
+        <v>960.52</v>
       </c>
       <c r="I137" s="15"/>
       <c r="J137" s="15" t="s">
-        <v>144</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A138" s="13">
-        <v>44995</v>
+        <v>44991</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="D138" s="15">
-        <v>25290</v>
+        <v>32650</v>
       </c>
       <c r="E138" s="15">
-        <v>4552</v>
+        <v>5677</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="15"/>
       <c r="H138" s="15">
         <f t="shared" si="6"/>
-        <v>29842</v>
+        <v>38327</v>
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="15" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A139" s="13">
+        <v>44991</v>
+      </c>
+      <c r="B139" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D139" s="15">
+        <v>43730</v>
+      </c>
+      <c r="E139" s="15">
+        <v>7871.4</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15">
+        <f t="shared" si="6"/>
+        <v>51601.4</v>
+      </c>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="21">
-      <c r="A139" s="166" t="s">
+    <row r="140" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A140" s="13">
+        <v>44993</v>
+      </c>
+      <c r="B140" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="D140" s="15">
+        <v>550</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="G140" s="15">
+        <v>49.5</v>
+      </c>
+      <c r="H140" s="15">
+        <f t="shared" si="6"/>
+        <v>649</v>
+      </c>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A141" s="13">
+        <v>44995</v>
+      </c>
+      <c r="B141" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="D141" s="15">
+        <v>25290</v>
+      </c>
+      <c r="E141" s="15">
+        <v>4552</v>
+      </c>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15">
+        <f t="shared" si="6"/>
+        <v>29842</v>
+      </c>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A142" s="13">
+        <v>44998</v>
+      </c>
+      <c r="B142" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D142" s="15">
+        <v>5250</v>
+      </c>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15">
+        <v>472.5</v>
+      </c>
+      <c r="G142" s="15">
+        <v>472.5</v>
+      </c>
+      <c r="H142" s="15">
+        <f t="shared" si="6"/>
+        <v>6195</v>
+      </c>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A143" s="13">
+        <v>44998</v>
+      </c>
+      <c r="B143" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="D143" s="15">
+        <v>22560</v>
+      </c>
+      <c r="E143" s="15">
+        <v>4060.8</v>
+      </c>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15">
+        <v>26621</v>
+      </c>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A144" s="13">
+        <v>45001</v>
+      </c>
+      <c r="B144" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C144" s="15">
+        <v>4616</v>
+      </c>
+      <c r="D144" s="15">
+        <v>13080.48</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15">
+        <v>1177.24</v>
+      </c>
+      <c r="G144" s="15">
+        <v>1177.24</v>
+      </c>
+      <c r="H144" s="15">
+        <v>15435</v>
+      </c>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A145" s="13">
+        <v>45002</v>
+      </c>
+      <c r="B145" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C145" s="15">
+        <v>4398</v>
+      </c>
+      <c r="D145" s="15">
+        <v>1186.5</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15">
+        <v>106.78</v>
+      </c>
+      <c r="G145" s="15">
+        <v>106.78</v>
+      </c>
+      <c r="H145" s="15">
+        <v>1400</v>
+      </c>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A146" s="13">
+        <v>45003</v>
+      </c>
+      <c r="B146" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="15">
+        <v>2437</v>
+      </c>
+      <c r="D146" s="15">
+        <v>266.5</v>
+      </c>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15">
+        <v>23.99</v>
+      </c>
+      <c r="G146" s="15">
+        <v>23.99</v>
+      </c>
+      <c r="H146" s="15">
+        <f t="shared" si="6"/>
+        <v>314.48</v>
+      </c>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A147" s="13">
+        <v>45003</v>
+      </c>
+      <c r="B147" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="15">
+        <v>2438</v>
+      </c>
+      <c r="D147" s="15">
+        <v>897.8</v>
+      </c>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15">
+        <v>80.8</v>
+      </c>
+      <c r="G147" s="15">
+        <v>80.8</v>
+      </c>
+      <c r="H147" s="15">
+        <f t="shared" si="6"/>
+        <v>1059.3999999999999</v>
+      </c>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A148" s="13">
+        <v>45005</v>
+      </c>
+      <c r="B148" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C148" s="15">
+        <v>2084</v>
+      </c>
+      <c r="D148" s="15">
+        <v>13561</v>
+      </c>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15">
+        <v>1669</v>
+      </c>
+      <c r="G148" s="15">
+        <v>1669</v>
+      </c>
+      <c r="H148" s="15">
+        <f t="shared" si="6"/>
+        <v>16899</v>
+      </c>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" s="142" customFormat="1" ht="15.6">
+      <c r="A149" s="37">
+        <v>45006</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>605</v>
+      </c>
+      <c r="D149" s="33">
+        <v>3079</v>
+      </c>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33">
+        <v>277.11</v>
+      </c>
+      <c r="G149" s="33">
+        <v>277.11</v>
+      </c>
+      <c r="H149" s="33">
+        <f t="shared" si="6"/>
+        <v>3633.2200000000003</v>
+      </c>
+      <c r="I149" s="33"/>
+      <c r="J149" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" s="142" customFormat="1" ht="15.6">
+      <c r="A150" s="37">
+        <v>45006</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D150" s="33">
+        <v>3165.14</v>
+      </c>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33">
+        <v>284.87</v>
+      </c>
+      <c r="G150" s="33">
+        <v>284.87</v>
+      </c>
+      <c r="H150" s="33">
+        <f t="shared" si="6"/>
+        <v>3734.8799999999997</v>
+      </c>
+      <c r="I150" s="33"/>
+      <c r="J150" s="33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A151" s="37">
+        <v>45008</v>
+      </c>
+      <c r="B151" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>603</v>
+      </c>
+      <c r="D151" s="33">
+        <v>5250</v>
+      </c>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33">
+        <v>472.5</v>
+      </c>
+      <c r="G151" s="33">
+        <v>472.5</v>
+      </c>
+      <c r="H151" s="33">
+        <f t="shared" si="6"/>
+        <v>6195</v>
+      </c>
+      <c r="I151" s="33"/>
+      <c r="J151" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="143" customFormat="1" ht="15.6">
+      <c r="A152" s="37">
+        <v>45009</v>
+      </c>
+      <c r="B152" s="33" t="s">
+        <v>601</v>
+      </c>
+      <c r="C152" s="33">
+        <v>4729</v>
+      </c>
+      <c r="D152" s="33">
+        <v>16118.62</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33">
+        <v>1450.67</v>
+      </c>
+      <c r="G152" s="33">
+        <v>1450.67</v>
+      </c>
+      <c r="H152" s="33">
+        <v>19020</v>
+      </c>
+      <c r="I152" s="33"/>
+      <c r="J152" s="33" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="143" customFormat="1" ht="15.6">
+      <c r="A153" s="37"/>
+      <c r="B153" s="33"/>
+      <c r="C153" s="33"/>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="33"/>
+      <c r="H153" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I153" s="33"/>
+      <c r="J153" s="33"/>
+    </row>
+    <row r="154" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A154" s="13"/>
+      <c r="B154" s="33"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+    </row>
+    <row r="155" spans="1:10" ht="21">
+      <c r="A155" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B139" s="167"/>
-      <c r="C139" s="168"/>
-      <c r="D139" s="19">
-        <f>SUM(D131:D138)</f>
-        <v>136404.29999999999</v>
-      </c>
-      <c r="E139" s="19">
-        <f>SUM(E131:E138)</f>
-        <v>23674.199999999997</v>
-      </c>
-      <c r="F139" s="19">
-        <f>SUM(F131:F138)</f>
-        <v>339.19</v>
-      </c>
-      <c r="G139" s="19">
-        <f>SUM(G131:G138)</f>
-        <v>339.19</v>
-      </c>
-      <c r="H139" s="19">
-        <f>SUM(H131:H138)</f>
-        <v>160756.88</v>
-      </c>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-    </row>
-    <row r="141" spans="1:10" s="107" customFormat="1">
-      <c r="A141" s="108">
+      <c r="B155" s="159"/>
+      <c r="C155" s="159"/>
+      <c r="D155" s="19">
+        <f>SUM(D134:D154)</f>
+        <v>220819.34</v>
+      </c>
+      <c r="E155" s="19">
+        <f>SUM(E134:E154)</f>
+        <v>27734.999999999996</v>
+      </c>
+      <c r="F155" s="19">
+        <f>SUM(F134:F154)</f>
+        <v>6354.65</v>
+      </c>
+      <c r="G155" s="19">
+        <f>SUM(G134:G154)</f>
+        <v>6354.65</v>
+      </c>
+      <c r="H155" s="19">
+        <f>SUM(H134:H154)</f>
+        <v>261263.86000000002</v>
+      </c>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+    </row>
+    <row r="157" spans="1:10" s="107" customFormat="1">
+      <c r="A157" s="108">
         <v>44841</v>
       </c>
-      <c r="B141" s="109" t="s">
+      <c r="B157" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="C141" s="109" t="s">
+      <c r="C157" s="109" t="s">
         <v>452</v>
       </c>
-      <c r="D141" s="36">
+      <c r="D157" s="36">
         <v>55015</v>
       </c>
-      <c r="E141" s="36"/>
-      <c r="F141" s="36">
+      <c r="E157" s="36"/>
+      <c r="F157" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G141" s="36">
+      <c r="G157" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H141" s="36">
-        <f>D141+E141+F141+G141</f>
+      <c r="H157" s="36">
+        <f>D157+E157+F157+G157</f>
         <v>64917.7</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="107" customFormat="1">
-      <c r="A142" s="110"/>
-    </row>
-    <row r="143" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A143" s="31">
+    <row r="158" spans="1:10" s="107" customFormat="1">
+      <c r="A158" s="110"/>
+    </row>
+    <row r="159" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A159" s="31">
         <v>44932</v>
       </c>
-      <c r="B143" s="32" t="s">
+      <c r="B159" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C143" s="32" t="s">
+      <c r="C159" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D143" s="32">
+      <c r="D159" s="32">
         <v>900</v>
       </c>
-      <c r="E143" s="32"/>
-      <c r="F143" s="32">
+      <c r="E159" s="32"/>
+      <c r="F159" s="32">
         <v>81</v>
       </c>
-      <c r="G143" s="32">
+      <c r="G159" s="32">
         <v>81</v>
       </c>
-      <c r="H143" s="32">
-        <f>D143+E143+F143+G143</f>
+      <c r="H159" s="32">
+        <f>D159+E159+F159+G159</f>
         <v>1062</v>
       </c>
     </row>
-    <row r="299" spans="12:12">
-      <c r="L299" s="18" t="s">
+    <row r="161" spans="1:10" s="62" customFormat="1" ht="15.6">
+      <c r="A161" s="20">
+        <v>44840</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D161" s="21">
+        <v>1850</v>
+      </c>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21">
+        <v>166.5</v>
+      </c>
+      <c r="G161" s="21">
+        <v>166.5</v>
+      </c>
+      <c r="H161" s="14">
+        <f>D161+E161+F161+G161</f>
+        <v>2183</v>
+      </c>
+      <c r="I161" s="7"/>
+      <c r="J161" s="7"/>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="D165" s="18">
+        <f>D17+D131+D164</f>
+        <v>3341683</v>
+      </c>
+    </row>
+    <row r="314" spans="12:12">
+      <c r="L314" s="18" t="s">
         <v>574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A70:J70"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="A132:J132"/>
+    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="A117:J117"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A71:J71"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="A129:J129"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="A71:H71"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:J82"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="A116:J116"/>
-    <mergeCell ref="A117:H117"/>
+    <mergeCell ref="A69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GST/Copy of GST.xlsx
+++ b/GST/Copy of GST.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="638">
   <si>
     <t>Taxable</t>
   </si>
@@ -1848,6 +1848,99 @@
   </si>
   <si>
     <t>W6201G202305367</t>
+  </si>
+  <si>
+    <t>500/22-23</t>
+  </si>
+  <si>
+    <t>1437/2022-2023</t>
+  </si>
+  <si>
+    <t>507/22-23</t>
+  </si>
+  <si>
+    <t>B&amp;B/22-23/327</t>
+  </si>
+  <si>
+    <t>ASHAPURA TIMBER TRADERS</t>
+  </si>
+  <si>
+    <t>30AAFFA3062R1ZH</t>
+  </si>
+  <si>
+    <t>ATTCR/2045/22-23</t>
+  </si>
+  <si>
+    <t>MD/22/23/026340</t>
+  </si>
+  <si>
+    <t>MD/22/23/026981</t>
+  </si>
+  <si>
+    <t>30AAALV0593R1DR</t>
+  </si>
+  <si>
+    <t>30AFSPS7509F1Z8</t>
+  </si>
+  <si>
+    <t>STRUCTURE AGE</t>
+  </si>
+  <si>
+    <t>30AAKPW6389G1Z8</t>
+  </si>
+  <si>
+    <t>CLICKTECH RETAIL PRIVATE LIMITED</t>
+  </si>
+  <si>
+    <t>24AAJCC9783E1ZD</t>
+  </si>
+  <si>
+    <t>AMD2-333741</t>
+  </si>
+  <si>
+    <t>29AAJCC9783E1Z3</t>
+  </si>
+  <si>
+    <t>BLR7-532846</t>
+  </si>
+  <si>
+    <t>36AAJCC9783E1Z8</t>
+  </si>
+  <si>
+    <t>HYD8-487698</t>
+  </si>
+  <si>
+    <t>FLEXAFLEX HOSES INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>G-22232800</t>
+  </si>
+  <si>
+    <t>Digi22-23/03-161</t>
+  </si>
+  <si>
+    <t>Bhagyalaxmi Electricals</t>
+  </si>
+  <si>
+    <t>30AKGPR7516N1ZU</t>
+  </si>
+  <si>
+    <t>MD/22/23/026013</t>
+  </si>
+  <si>
+    <t>MD/22/23/024948</t>
+  </si>
+  <si>
+    <t>COLLECTIVE TRADE LINKS PVT.LTD</t>
+  </si>
+  <si>
+    <t>I-C-1-23-445419</t>
+  </si>
+  <si>
+    <t>I-C-1-23-445420</t>
+  </si>
+  <si>
+    <t>W6201G202305566</t>
   </si>
 </sst>
 </file>
@@ -1857,7 +1950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1939,6 +2032,12 @@
       <sz val="12"/>
       <color theme="1" tint="0.34998626667073579"/>
       <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2121,7 +2220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2553,18 +2652,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2574,37 +2716,28 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2615,15 +2748,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4107,30 +4231,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -4352,11 +4476,11 @@
       <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:10" s="67" customFormat="1" ht="21">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="155"/>
-      <c r="C12" s="155"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="68">
         <f>SUM(D5:D11)</f>
         <v>818543</v>
@@ -4381,18 +4505,18 @@
       <c r="J12" s="66"/>
     </row>
     <row r="13" spans="1:10" ht="21">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="148"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="155"/>
     </row>
     <row r="14" spans="1:10" s="22" customFormat="1">
       <c r="A14" s="25" t="s">
@@ -4616,11 +4740,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="162"/>
       <c r="D22" s="73">
         <f>SUM(D15:D21)</f>
         <v>171530</v>
@@ -4645,30 +4769,30 @@
       <c r="J22" s="73"/>
     </row>
     <row r="24" spans="1:10" ht="21">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="154"/>
+      <c r="B24" s="157"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="21">
-      <c r="A25" s="146" t="s">
+      <c r="A25" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="147"/>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="148"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="154"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="155"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
     </row>
@@ -4863,11 +4987,11 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
       <c r="D33" s="24">
         <f>SUM(D27:D32)</f>
         <v>647194</v>
@@ -4892,18 +5016,18 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="146" t="s">
+      <c r="A34" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="147"/>
-      <c r="C34" s="147"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="148"/>
+      <c r="B34" s="154"/>
+      <c r="C34" s="154"/>
+      <c r="D34" s="154"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" s="22" customFormat="1">
       <c r="A35" s="25" t="s">
@@ -5573,11 +5697,11 @@
       </c>
     </row>
     <row r="59" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A59" s="149" t="s">
+      <c r="A59" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="150"/>
-      <c r="C59" s="151"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
       <c r="D59" s="24">
         <f>SUM(D36:D58)</f>
         <v>250017.81</v>
@@ -5602,30 +5726,30 @@
       <c r="J59" s="24"/>
     </row>
     <row r="61" spans="1:10" ht="21">
-      <c r="A61" s="152" t="s">
+      <c r="A61" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="154"/>
+      <c r="B61" s="157"/>
+      <c r="C61" s="157"/>
+      <c r="D61" s="157"/>
+      <c r="E61" s="157"/>
+      <c r="F61" s="157"/>
+      <c r="G61" s="157"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="158"/>
     </row>
     <row r="62" spans="1:10" ht="21">
-      <c r="A62" s="146" t="s">
+      <c r="A62" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="147"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="148"/>
+      <c r="B62" s="154"/>
+      <c r="C62" s="154"/>
+      <c r="D62" s="154"/>
+      <c r="E62" s="154"/>
+      <c r="F62" s="154"/>
+      <c r="G62" s="154"/>
+      <c r="H62" s="155"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
@@ -5876,11 +6000,11 @@
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A72" s="145" t="s">
+      <c r="A72" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
       <c r="D72" s="24">
         <f>SUM(D64:D71)</f>
         <v>658373</v>
@@ -5905,18 +6029,18 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="146" t="s">
+      <c r="A73" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="147"/>
-      <c r="C73" s="147"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="147"/>
-      <c r="F73" s="147"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="147"/>
-      <c r="I73" s="147"/>
-      <c r="J73" s="148"/>
+      <c r="B73" s="154"/>
+      <c r="C73" s="154"/>
+      <c r="D73" s="154"/>
+      <c r="E73" s="154"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="154"/>
+      <c r="H73" s="154"/>
+      <c r="I73" s="154"/>
+      <c r="J73" s="155"/>
     </row>
     <row r="74" spans="1:10" s="22" customFormat="1">
       <c r="A74" s="25" t="s">
@@ -6590,11 +6714,11 @@
       </c>
     </row>
     <row r="98" spans="1:10" s="22" customFormat="1" ht="21">
-      <c r="A98" s="149" t="s">
+      <c r="A98" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="B98" s="150"/>
-      <c r="C98" s="151"/>
+      <c r="B98" s="165"/>
+      <c r="C98" s="166"/>
       <c r="D98" s="24">
         <f>SUM(D75:D97)</f>
         <v>407367.41000000003</v>
@@ -6619,11 +6743,11 @@
       <c r="J98" s="24"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="144"/>
-      <c r="B100" s="144"/>
-      <c r="C100" s="144"/>
-      <c r="D100" s="144"/>
-      <c r="E100" s="144"/>
+      <c r="A100" s="167"/>
+      <c r="B100" s="167"/>
+      <c r="C100" s="167"/>
+      <c r="D100" s="167"/>
+      <c r="E100" s="167"/>
     </row>
     <row r="103" spans="1:10">
       <c r="D103" s="5">
@@ -6638,11 +6762,11 @@
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="144"/>
-      <c r="B108" s="144"/>
-      <c r="C108" s="144"/>
-      <c r="D108" s="144"/>
-      <c r="E108" s="144"/>
+      <c r="A108" s="167"/>
+      <c r="B108" s="167"/>
+      <c r="C108" s="167"/>
+      <c r="D108" s="167"/>
+      <c r="E108" s="167"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="18"/>
@@ -6667,6 +6791,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:J73"/>
+    <mergeCell ref="A98:C98"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="A2:J2"/>
@@ -6679,11 +6808,6 @@
     <mergeCell ref="A34:J34"/>
     <mergeCell ref="A59:C59"/>
     <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6715,30 +6839,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -7018,11 +7142,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="21">
-      <c r="A14" s="159" t="s">
+      <c r="A14" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
       <c r="D14" s="6">
         <f>SUM(D5:D13)</f>
         <v>817479</v>
@@ -7047,18 +7171,18 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="21">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="147"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="148"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="154"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1">
       <c r="A16" s="34" t="s">
@@ -7427,11 +7551,11 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="162" t="s">
+      <c r="A29" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="162"/>
-      <c r="C29" s="162"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
       <c r="D29" s="38">
         <f>SUM(D17:D28)</f>
         <v>310112.45</v>
@@ -7461,30 +7585,30 @@
       <c r="C30" s="36"/>
     </row>
     <row r="31" spans="1:10" ht="21">
-      <c r="A31" s="152" t="s">
+      <c r="A31" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="153"/>
-      <c r="C31" s="153"/>
-      <c r="D31" s="153"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="154"/>
+      <c r="B31" s="157"/>
+      <c r="C31" s="157"/>
+      <c r="D31" s="157"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="146" t="s">
+      <c r="A32" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="147"/>
-      <c r="C32" s="147"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="148"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="154"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="155"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
@@ -7656,11 +7780,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="21">
-      <c r="A39" s="159" t="s">
+      <c r="A39" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="6">
         <f>SUM(D34:D38)</f>
         <v>115746</v>
@@ -7685,18 +7809,18 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="146" t="s">
+      <c r="A40" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="147"/>
-      <c r="C40" s="147"/>
-      <c r="D40" s="147"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="154"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="34" t="s">
@@ -8376,11 +8500,11 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="21">
-      <c r="A65" s="161" t="s">
+      <c r="A65" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="161"/>
-      <c r="C65" s="161"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
       <c r="D65" s="43">
         <f>SUM(D42:D64)</f>
         <v>300583.33</v>
@@ -8405,30 +8529,30 @@
       <c r="J65" s="43"/>
     </row>
     <row r="67" spans="1:10" ht="21">
-      <c r="A67" s="152" t="s">
+      <c r="A67" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="154"/>
+      <c r="B67" s="157"/>
+      <c r="C67" s="157"/>
+      <c r="D67" s="157"/>
+      <c r="E67" s="157"/>
+      <c r="F67" s="157"/>
+      <c r="G67" s="157"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="157"/>
+      <c r="J67" s="158"/>
     </row>
     <row r="68" spans="1:10" ht="21">
-      <c r="A68" s="146" t="s">
+      <c r="A68" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B68" s="147"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="148"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="154"/>
+      <c r="D68" s="154"/>
+      <c r="E68" s="154"/>
+      <c r="F68" s="154"/>
+      <c r="G68" s="154"/>
+      <c r="H68" s="155"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
@@ -8542,11 +8666,11 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="159" t="s">
+      <c r="A73" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
+      <c r="B73" s="168"/>
+      <c r="C73" s="168"/>
       <c r="D73" s="6">
         <f>SUM(D70:D72)</f>
         <v>150834.79999999999</v>
@@ -8571,18 +8695,18 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="146" t="s">
+      <c r="A74" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="147"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="147"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="147"/>
-      <c r="I74" s="147"/>
-      <c r="J74" s="148"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="154"/>
+      <c r="I74" s="154"/>
+      <c r="J74" s="155"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
@@ -9118,11 +9242,11 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="21">
-      <c r="A94" s="160" t="s">
+      <c r="A94" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B94" s="160"/>
-      <c r="C94" s="160"/>
+      <c r="B94" s="170"/>
+      <c r="C94" s="170"/>
       <c r="D94" s="65">
         <f>SUM(D76:D93)</f>
         <v>120359.97999999998</v>
@@ -9245,12 +9369,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A29:C29"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:J74"/>
     <mergeCell ref="A94:C94"/>
@@ -9260,6 +9378,12 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A67:J67"/>
     <mergeCell ref="A68:H68"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9291,30 +9415,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -9428,11 +9552,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="21">
-      <c r="A8" s="159" t="s">
+      <c r="A8" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
       <c r="D8" s="6">
         <f>SUM(D5:D7)</f>
         <v>185386</v>
@@ -9457,18 +9581,18 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="21">
-      <c r="A9" s="146" t="s">
+      <c r="A9" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="147"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="147"/>
-      <c r="J9" s="148"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
@@ -10033,11 +10157,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="166" t="s">
+      <c r="A30" s="172" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="168"/>
+      <c r="B30" s="173"/>
+      <c r="C30" s="174"/>
       <c r="D30" s="43">
         <f>SUM(D11:D29)</f>
         <v>79243.67</v>
@@ -10067,30 +10191,30 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="154"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="157"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="146" t="s">
+      <c r="A33" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="148"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="155"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
@@ -10258,11 +10382,11 @@
       <c r="J39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="21">
-      <c r="A40" s="159" t="s">
+      <c r="A40" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="6">
         <f>SUM(D35:D39)</f>
         <v>1018828</v>
@@ -10287,18 +10411,18 @@
       <c r="J40" s="7"/>
     </row>
     <row r="41" spans="1:10" ht="21">
-      <c r="A41" s="146" t="s">
+      <c r="A41" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="147"/>
-      <c r="C41" s="147"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
+      <c r="B41" s="154"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
@@ -11108,11 +11232,11 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="160" t="s">
+      <c r="A71" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="B71" s="160"/>
-      <c r="C71" s="160"/>
+      <c r="B71" s="170"/>
+      <c r="C71" s="170"/>
       <c r="D71" s="65">
         <f>SUM(D43:D70)</f>
         <v>1221066.1900000002</v>
@@ -11137,30 +11261,30 @@
       <c r="J71" s="65"/>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="152" t="s">
+      <c r="A73" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="B73" s="153"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="153"/>
-      <c r="E73" s="153"/>
-      <c r="F73" s="153"/>
-      <c r="G73" s="153"/>
-      <c r="H73" s="153"/>
-      <c r="I73" s="153"/>
-      <c r="J73" s="154"/>
+      <c r="B73" s="157"/>
+      <c r="C73" s="157"/>
+      <c r="D73" s="157"/>
+      <c r="E73" s="157"/>
+      <c r="F73" s="157"/>
+      <c r="G73" s="157"/>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="158"/>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="146" t="s">
+      <c r="A74" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="147"/>
-      <c r="C74" s="147"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="147"/>
-      <c r="F74" s="147"/>
-      <c r="G74" s="147"/>
-      <c r="H74" s="148"/>
+      <c r="B74" s="154"/>
+      <c r="C74" s="154"/>
+      <c r="D74" s="154"/>
+      <c r="E74" s="154"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="154"/>
+      <c r="H74" s="155"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
     </row>
@@ -11349,11 +11473,11 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="159" t="s">
+      <c r="A82" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
       <c r="D82" s="6">
         <f>SUM(D76:D81)</f>
         <v>419674</v>
@@ -11378,18 +11502,18 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="146" t="s">
+      <c r="A83" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="147"/>
-      <c r="C83" s="147"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="148"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="155"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16" t="s">
@@ -12145,11 +12269,11 @@
       </c>
     </row>
     <row r="111" spans="1:10" ht="21">
-      <c r="A111" s="163" t="s">
+      <c r="A111" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="B111" s="164"/>
-      <c r="C111" s="165"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="177"/>
       <c r="D111" s="65">
         <f>SUM(D85:D110)</f>
         <v>310841.41999999993</v>
@@ -12229,12 +12353,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A111:C111"/>
@@ -12244,6 +12362,12 @@
     <mergeCell ref="A71:C71"/>
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -12252,10 +12376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L314"/>
+  <dimension ref="A2:L333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H156" sqref="H156"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C171" sqref="C171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -12274,30 +12398,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="21">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="154"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="158"/>
     </row>
     <row r="3" spans="1:10" ht="21">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="155"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
@@ -12650,11 +12774,11 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="21">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
       <c r="D17" s="19">
         <f>SUM(D5:D16)</f>
         <v>2294715</v>
@@ -12679,18 +12803,18 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="21">
-      <c r="A18" s="146" t="s">
+      <c r="A18" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="16" t="s">
@@ -14085,11 +14209,11 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="21">
-      <c r="A69" s="159" t="s">
+      <c r="A69" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B69" s="159"/>
-      <c r="C69" s="159"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
       <c r="D69" s="19">
         <f>SUM(D20:D68)</f>
         <v>1489583.56</v>
@@ -14114,30 +14238,30 @@
       <c r="J69" s="19"/>
     </row>
     <row r="71" spans="1:10" ht="21">
-      <c r="A71" s="152" t="s">
+      <c r="A71" s="156" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="153"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="153"/>
-      <c r="F71" s="153"/>
-      <c r="G71" s="153"/>
-      <c r="H71" s="153"/>
-      <c r="I71" s="153"/>
-      <c r="J71" s="154"/>
+      <c r="B71" s="157"/>
+      <c r="C71" s="157"/>
+      <c r="D71" s="157"/>
+      <c r="E71" s="157"/>
+      <c r="F71" s="157"/>
+      <c r="G71" s="157"/>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="158"/>
     </row>
     <row r="72" spans="1:10" ht="21">
-      <c r="A72" s="146" t="s">
+      <c r="A72" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="147"/>
-      <c r="C72" s="147"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="147"/>
-      <c r="F72" s="147"/>
-      <c r="G72" s="147"/>
-      <c r="H72" s="148"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="154"/>
+      <c r="D72" s="154"/>
+      <c r="E72" s="154"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="154"/>
+      <c r="H72" s="155"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
     </row>
@@ -14386,11 +14510,11 @@
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="1:10" ht="21">
-      <c r="A82" s="159" t="s">
+      <c r="A82" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
+      <c r="B82" s="168"/>
+      <c r="C82" s="168"/>
       <c r="D82" s="19">
         <f>SUM(D74:D81)</f>
         <v>1181267</v>
@@ -14415,18 +14539,18 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="1:10" ht="21">
-      <c r="A83" s="146" t="s">
+      <c r="A83" s="153" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="147"/>
-      <c r="C83" s="147"/>
-      <c r="D83" s="147"/>
-      <c r="E83" s="147"/>
-      <c r="F83" s="147"/>
-      <c r="G83" s="147"/>
-      <c r="H83" s="147"/>
-      <c r="I83" s="147"/>
-      <c r="J83" s="148"/>
+      <c r="B83" s="154"/>
+      <c r="C83" s="154"/>
+      <c r="D83" s="154"/>
+      <c r="E83" s="154"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="155"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="16" t="s">
@@ -15290,11 +15414,11 @@
       </c>
     </row>
     <row r="115" spans="1:10" ht="21">
-      <c r="A115" s="159" t="s">
+      <c r="A115" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B115" s="159"/>
-      <c r="C115" s="159"/>
+      <c r="B115" s="168"/>
+      <c r="C115" s="168"/>
       <c r="D115" s="19">
         <f>SUM(D85:D114)</f>
         <v>552334.299</v>
@@ -15319,30 +15443,30 @@
       <c r="J115" s="19"/>
     </row>
     <row r="117" spans="1:10" ht="21">
-      <c r="A117" s="152" t="s">
+      <c r="A117" s="156" t="s">
         <v>18</v>
       </c>
-      <c r="B117" s="153"/>
-      <c r="C117" s="153"/>
-      <c r="D117" s="153"/>
-      <c r="E117" s="153"/>
-      <c r="F117" s="153"/>
-      <c r="G117" s="153"/>
-      <c r="H117" s="153"/>
-      <c r="I117" s="153"/>
-      <c r="J117" s="154"/>
+      <c r="B117" s="157"/>
+      <c r="C117" s="157"/>
+      <c r="D117" s="157"/>
+      <c r="E117" s="157"/>
+      <c r="F117" s="157"/>
+      <c r="G117" s="157"/>
+      <c r="H117" s="157"/>
+      <c r="I117" s="157"/>
+      <c r="J117" s="158"/>
     </row>
     <row r="118" spans="1:10" ht="21">
-      <c r="A118" s="146" t="s">
+      <c r="A118" s="153" t="s">
         <v>37</v>
       </c>
-      <c r="B118" s="147"/>
-      <c r="C118" s="147"/>
-      <c r="D118" s="147"/>
-      <c r="E118" s="147"/>
-      <c r="F118" s="147"/>
-      <c r="G118" s="147"/>
-      <c r="H118" s="148"/>
+      <c r="B118" s="154"/>
+      <c r="C118" s="154"/>
+      <c r="D118" s="154"/>
+      <c r="E118" s="154"/>
+      <c r="F118" s="154"/>
+      <c r="G118" s="154"/>
+      <c r="H118" s="155"/>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
     </row>
@@ -15374,59 +15498,60 @@
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
     </row>
-    <row r="120" spans="1:10" ht="15.6">
+    <row r="120" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
       <c r="A120" s="31">
-        <v>44965</v>
+        <v>44984</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>543</v>
+        <v>565</v>
       </c>
       <c r="D120" s="32">
-        <v>7200</v>
+        <v>351000</v>
       </c>
       <c r="E120" s="32"/>
       <c r="F120" s="32">
-        <v>648</v>
+        <v>31590</v>
       </c>
       <c r="G120" s="32">
-        <v>648</v>
+        <v>31590</v>
       </c>
       <c r="H120" s="32">
         <f>D120+E120+F120+G120</f>
-        <v>8496</v>
+        <v>414180</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="J120" s="7"/>
-    </row>
-    <row r="121" spans="1:10" s="7" customFormat="1" ht="18.75" customHeight="1">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A121" s="31">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>564</v>
+        <v>48</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D121" s="32">
-        <v>351000</v>
+        <v>90816</v>
       </c>
       <c r="E121" s="32"/>
       <c r="F121" s="32">
-        <v>31590</v>
+        <v>8173.44</v>
       </c>
       <c r="G121" s="32">
-        <v>31590</v>
+        <v>8173.44</v>
       </c>
       <c r="H121" s="32">
-        <f>D121+E121+F121+G121</f>
-        <v>414180</v>
-      </c>
+        <f t="shared" ref="H121:H129" si="5">D121+E121+F121+G121</f>
+        <v>107162.88</v>
+      </c>
+      <c r="I121" s="7"/>
+      <c r="J121" s="7"/>
     </row>
     <row r="122" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A122" s="31">
@@ -15436,48 +15561,48 @@
         <v>48</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D122" s="32">
-        <v>90816</v>
+        <v>58450</v>
       </c>
       <c r="E122" s="32"/>
       <c r="F122" s="32">
-        <v>8173.44</v>
+        <v>5260.5</v>
       </c>
       <c r="G122" s="32">
-        <v>8173.44</v>
+        <v>5260.5</v>
       </c>
       <c r="H122" s="32">
-        <f t="shared" ref="H122:H130" si="5">D122+E122+F122+G122</f>
-        <v>107162.88</v>
+        <f t="shared" si="5"/>
+        <v>68971</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A123" s="31">
-        <v>44988</v>
+        <v>44989</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D123" s="32">
-        <v>58450</v>
+        <v>53056</v>
       </c>
       <c r="E123" s="32"/>
       <c r="F123" s="32">
-        <v>5260.5</v>
+        <v>4775.04</v>
       </c>
       <c r="G123" s="32">
-        <v>5260.5</v>
+        <v>4775.04</v>
       </c>
       <c r="H123" s="32">
         <f t="shared" si="5"/>
-        <v>68971</v>
+        <v>62606.080000000002</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
@@ -15490,53 +15615,53 @@
         <v>48</v>
       </c>
       <c r="C124" s="32" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
       <c r="D124" s="32">
-        <v>53056</v>
+        <v>67868</v>
       </c>
       <c r="E124" s="32"/>
       <c r="F124" s="32">
-        <v>4775.04</v>
+        <v>6108.12</v>
       </c>
       <c r="G124" s="32">
-        <v>4775.04</v>
+        <v>6108.12</v>
       </c>
       <c r="H124" s="32">
         <f t="shared" si="5"/>
-        <v>62606.080000000002</v>
+        <v>80084.239999999991</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
-    <row r="125" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="125" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A125" s="31">
-        <v>44989</v>
+        <v>44998</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D125" s="32">
-        <v>67868</v>
+        <v>13042</v>
       </c>
       <c r="E125" s="32"/>
       <c r="F125" s="32">
-        <v>6108.12</v>
+        <v>1173.78</v>
       </c>
       <c r="G125" s="32">
-        <v>6108.12</v>
+        <v>1173.78</v>
       </c>
       <c r="H125" s="32">
         <f t="shared" si="5"/>
-        <v>80084.239999999991</v>
+        <v>15389.560000000001</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
-    <row r="126" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="126" spans="1:10" s="133" customFormat="1" ht="15.6">
       <c r="A126" s="31">
         <v>44998</v>
       </c>
@@ -15544,26 +15669,26 @@
         <v>48</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D126" s="32">
-        <v>13042</v>
+        <v>168571</v>
       </c>
       <c r="E126" s="32"/>
       <c r="F126" s="32">
-        <v>1173.78</v>
+        <v>15171.39</v>
       </c>
       <c r="G126" s="32">
-        <v>1173.78</v>
+        <v>15171.39</v>
       </c>
       <c r="H126" s="32">
         <f t="shared" si="5"/>
-        <v>15389.560000000001</v>
+        <v>198913.78000000003</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
-    <row r="127" spans="1:10" s="133" customFormat="1" ht="15.6">
+    <row r="127" spans="1:10" s="137" customFormat="1" ht="15.6">
       <c r="A127" s="31">
         <v>44998</v>
       </c>
@@ -15571,48 +15696,48 @@
         <v>48</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D127" s="32">
-        <v>168571</v>
+        <v>99123</v>
       </c>
       <c r="E127" s="32"/>
       <c r="F127" s="32">
-        <v>15171.39</v>
+        <v>8921.07</v>
       </c>
       <c r="G127" s="32">
-        <v>15171.39</v>
+        <v>8921.07</v>
       </c>
       <c r="H127" s="32">
         <f t="shared" si="5"/>
-        <v>198913.78000000003</v>
+        <v>116965.14000000001</v>
       </c>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
-    <row r="128" spans="1:10" s="137" customFormat="1" ht="15.6">
+    <row r="128" spans="1:10" s="141" customFormat="1" ht="15.6">
       <c r="A128" s="31">
-        <v>44998</v>
+        <v>45008</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>48</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D128" s="32">
-        <v>99123</v>
+        <v>73070</v>
       </c>
       <c r="E128" s="32"/>
       <c r="F128" s="32">
-        <v>8921.07</v>
+        <v>6576.3</v>
       </c>
       <c r="G128" s="32">
-        <v>8921.07</v>
+        <v>6576.3</v>
       </c>
       <c r="H128" s="32">
         <f t="shared" si="5"/>
-        <v>116965.14000000001</v>
+        <v>86222.6</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
@@ -15625,829 +15750,1413 @@
         <v>48</v>
       </c>
       <c r="C129" s="32" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D129" s="32">
-        <v>73070</v>
+        <v>64772</v>
       </c>
       <c r="E129" s="32"/>
       <c r="F129" s="32">
-        <v>6576.3</v>
+        <v>5829.48</v>
       </c>
       <c r="G129" s="32">
-        <v>6576.3</v>
+        <v>5829.48</v>
       </c>
       <c r="H129" s="32">
         <f t="shared" si="5"/>
-        <v>86222.6</v>
+        <v>76430.959999999992</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A130" s="31">
-        <v>45008</v>
-      </c>
-      <c r="B130" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C130" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="D130" s="32">
-        <v>64772</v>
-      </c>
-      <c r="E130" s="32"/>
-      <c r="F130" s="32">
-        <v>5829.48</v>
-      </c>
-      <c r="G130" s="32">
-        <v>5829.48</v>
-      </c>
-      <c r="H130" s="32">
-        <f t="shared" si="5"/>
-        <v>76430.959999999992</v>
+    <row r="130" spans="1:10" ht="21">
+      <c r="A130" s="168" t="s">
+        <v>35</v>
+      </c>
+      <c r="B130" s="168"/>
+      <c r="C130" s="168"/>
+      <c r="D130" s="19">
+        <f>SUM(D120:D129)</f>
+        <v>1039768</v>
+      </c>
+      <c r="E130" s="19">
+        <f>SUM(E120:E129)</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="19">
+        <f>SUM(F120:F129)</f>
+        <v>93579.12</v>
+      </c>
+      <c r="G130" s="19">
+        <f>SUM(G120:G129)</f>
+        <v>93579.12</v>
+      </c>
+      <c r="H130" s="19">
+        <f>SUM(H120:H129)</f>
+        <v>1226926.2400000002</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131" spans="1:10" ht="21">
-      <c r="A131" s="159" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" s="159"/>
-      <c r="C131" s="159"/>
-      <c r="D131" s="19">
-        <f>SUM(D120:D130)</f>
-        <v>1046968</v>
-      </c>
-      <c r="E131" s="19">
-        <f>SUM(E120:E130)</f>
+      <c r="A131" s="153" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="154"/>
+      <c r="C131" s="154"/>
+      <c r="D131" s="154"/>
+      <c r="E131" s="154"/>
+      <c r="F131" s="154"/>
+      <c r="G131" s="154"/>
+      <c r="H131" s="154"/>
+      <c r="I131" s="154"/>
+      <c r="J131" s="155"/>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F131" s="19">
-        <f>SUM(F120:F130)</f>
-        <v>94227.12</v>
-      </c>
-      <c r="G131" s="19">
-        <f>SUM(G120:G130)</f>
-        <v>94227.12</v>
-      </c>
-      <c r="H131" s="19">
-        <f>SUM(H120:H130)</f>
-        <v>1235422.2400000002</v>
-      </c>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-    </row>
-    <row r="132" spans="1:10" ht="21">
-      <c r="A132" s="146" t="s">
-        <v>38</v>
-      </c>
-      <c r="B132" s="147"/>
-      <c r="C132" s="147"/>
-      <c r="D132" s="147"/>
-      <c r="E132" s="147"/>
-      <c r="F132" s="147"/>
-      <c r="G132" s="147"/>
-      <c r="H132" s="147"/>
-      <c r="I132" s="147"/>
-      <c r="J132" s="148"/>
-    </row>
-    <row r="133" spans="1:10">
-      <c r="A133" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E133" s="16" t="s">
+      <c r="E132" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F133" s="16" t="s">
+      <c r="F132" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G133" s="16" t="s">
+      <c r="G132" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H133" s="17" t="s">
+      <c r="H132" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I133" s="17" t="s">
+      <c r="I132" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J133" s="17" t="s">
+      <c r="J132" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.6">
-      <c r="A134" s="13">
+    <row r="133" spans="1:10" ht="15.6">
+      <c r="A133" s="44">
         <v>44987</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="B133" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C134" s="15" t="s">
+      <c r="C133" s="45" t="s">
         <v>575</v>
       </c>
-      <c r="D134" s="15">
+      <c r="D133" s="45">
         <v>26135</v>
       </c>
-      <c r="E134" s="15">
+      <c r="E133" s="45">
         <v>4704.3</v>
       </c>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
-      <c r="H134" s="15">
+      <c r="F133" s="45"/>
+      <c r="G133" s="45"/>
+      <c r="H133" s="45">
+        <f>D133+E133+F133+G133</f>
+        <v>30839.3</v>
+      </c>
+      <c r="I133" s="45"/>
+      <c r="J133" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="151" customFormat="1" ht="15.6">
+      <c r="A134" s="44">
+        <v>44987</v>
+      </c>
+      <c r="B134" s="45" t="s">
+        <v>630</v>
+      </c>
+      <c r="C134" s="45">
+        <v>22230489</v>
+      </c>
+      <c r="D134" s="45">
+        <v>26594.720000000001</v>
+      </c>
+      <c r="E134" s="45"/>
+      <c r="F134" s="45">
+        <v>2393.5300000000002</v>
+      </c>
+      <c r="G134" s="45">
+        <v>2393.5300000000002</v>
+      </c>
+      <c r="H134" s="45">
         <f>D134+E134+F134+G134</f>
-        <v>30839.3</v>
-      </c>
-      <c r="I134" s="15"/>
-      <c r="J134" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A135" s="13">
+        <v>31381.78</v>
+      </c>
+      <c r="I134" s="45"/>
+      <c r="J134" s="45" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="147" customFormat="1" ht="15.6">
+      <c r="A135" s="37">
+        <v>44987</v>
+      </c>
+      <c r="B135" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="C135" s="32" t="s">
+        <v>622</v>
+      </c>
+      <c r="D135" s="33">
+        <v>8473.7199999999993</v>
+      </c>
+      <c r="E135" s="33">
+        <v>1525.27</v>
+      </c>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33">
+        <f>D135+E135+F135+G135</f>
+        <v>9998.99</v>
+      </c>
+      <c r="I135" s="33"/>
+      <c r="J135" s="40" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="147" customFormat="1" ht="15.6">
+      <c r="A136" s="44">
+        <v>44987</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>620</v>
+      </c>
+      <c r="C136" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="D136" s="45">
+        <v>9033.26</v>
+      </c>
+      <c r="E136" s="45">
+        <v>1625.95</v>
+      </c>
+      <c r="F136" s="45"/>
+      <c r="G136" s="45"/>
+      <c r="H136" s="45">
+        <v>10659.01</v>
+      </c>
+      <c r="I136" s="45"/>
+      <c r="J136" s="46" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="149" customFormat="1" ht="15.6">
+      <c r="A137" s="44">
+        <v>44987</v>
+      </c>
+      <c r="B137" s="89" t="s">
+        <v>627</v>
+      </c>
+      <c r="C137" s="46" t="s">
+        <v>628</v>
+      </c>
+      <c r="D137" s="45">
+        <v>8275</v>
+      </c>
+      <c r="E137" s="45">
+        <v>1489.5</v>
+      </c>
+      <c r="F137" s="45"/>
+      <c r="G137" s="45"/>
+      <c r="H137" s="45">
+        <v>9765</v>
+      </c>
+      <c r="I137" s="45"/>
+      <c r="J137" s="46" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A138" s="44">
+        <v>44987</v>
+      </c>
+      <c r="B138" s="46" t="s">
+        <v>569</v>
+      </c>
+      <c r="C138" s="89" t="s">
+        <v>633</v>
+      </c>
+      <c r="D138" s="45">
+        <v>1875</v>
+      </c>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45">
+        <v>262.5</v>
+      </c>
+      <c r="G138" s="45">
+        <v>262.5</v>
+      </c>
+      <c r="H138" s="45">
+        <f>D138+E138+F138+G138</f>
+        <v>2400</v>
+      </c>
+      <c r="I138" s="45"/>
+      <c r="J138" s="89" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A139" s="37">
+        <v>44987</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>627</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D139" s="33">
+        <v>8275</v>
+      </c>
+      <c r="E139" s="33">
+        <v>1489.5</v>
+      </c>
+      <c r="F139" s="33"/>
+      <c r="G139" s="33"/>
+      <c r="H139" s="33">
+        <v>9765</v>
+      </c>
+      <c r="I139" s="33"/>
+      <c r="J139" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A140" s="50">
         <v>44988</v>
       </c>
-      <c r="B135" s="33" t="s">
+      <c r="B140" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="C135" s="15">
+      <c r="C140" s="51">
         <v>7334</v>
       </c>
-      <c r="D135" s="15">
+      <c r="D140" s="51">
         <v>4830.5</v>
       </c>
-      <c r="E135" s="15">
+      <c r="E140" s="51">
         <v>869.5</v>
       </c>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
-      <c r="H135" s="15">
-        <f t="shared" ref="H135:H154" si="6">D135+E135+F135+G135</f>
+      <c r="F140" s="51"/>
+      <c r="G140" s="51"/>
+      <c r="H140" s="51">
+        <f t="shared" ref="H140:H162" si="6">D140+E140+F140+G140</f>
         <v>5700</v>
       </c>
-      <c r="I135" s="15"/>
-      <c r="J135" s="15" t="s">
+      <c r="I140" s="51"/>
+      <c r="J140" s="51" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="136" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A136" s="13">
+    <row r="141" spans="1:10" s="146" customFormat="1" ht="15.6">
+      <c r="A141" s="37">
+        <v>44988</v>
+      </c>
+      <c r="B141" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="C141" s="32">
+        <v>532</v>
+      </c>
+      <c r="D141" s="33">
+        <v>930</v>
+      </c>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33">
+        <v>83.7</v>
+      </c>
+      <c r="G141" s="33">
+        <v>83.7</v>
+      </c>
+      <c r="H141" s="33">
+        <f t="shared" si="6"/>
+        <v>1097.4000000000001</v>
+      </c>
+      <c r="I141" s="33"/>
+      <c r="J141" s="32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A142" s="37">
         <v>44989</v>
       </c>
-      <c r="B136" s="33" t="s">
+      <c r="B142" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C136" s="15">
+      <c r="C142" s="33">
         <v>2308</v>
       </c>
-      <c r="D136" s="15">
+      <c r="D142" s="33">
         <v>2404.8000000000002</v>
       </c>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15">
+      <c r="E142" s="33"/>
+      <c r="F142" s="33">
         <v>216.43</v>
       </c>
-      <c r="G136" s="15">
+      <c r="G142" s="33">
         <v>216.43</v>
       </c>
-      <c r="H136" s="15">
+      <c r="H142" s="33">
         <f t="shared" si="6"/>
         <v>2837.66</v>
       </c>
-      <c r="I136" s="15"/>
-      <c r="J136" s="15" t="s">
+      <c r="I142" s="33"/>
+      <c r="J142" s="33" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="137" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A137" s="13">
+    <row r="143" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A143" s="37">
         <v>44989</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B143" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C137" s="15">
+      <c r="C143" s="33">
         <v>2319</v>
       </c>
-      <c r="D137" s="15">
+      <c r="D143" s="33">
         <v>814</v>
       </c>
-      <c r="E137" s="15"/>
-      <c r="F137" s="15">
+      <c r="E143" s="33"/>
+      <c r="F143" s="33">
         <v>73.260000000000005</v>
       </c>
-      <c r="G137" s="15">
+      <c r="G143" s="33">
         <v>73.260000000000005</v>
       </c>
-      <c r="H137" s="15">
+      <c r="H143" s="33">
         <f t="shared" si="6"/>
         <v>960.52</v>
       </c>
-      <c r="I137" s="15"/>
-      <c r="J137" s="15" t="s">
+      <c r="I143" s="33"/>
+      <c r="J143" s="33" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="138" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A138" s="13">
+    <row r="144" spans="1:10" s="147" customFormat="1" ht="15.6">
+      <c r="A144" s="37">
+        <v>44989</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="C144" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="D144" s="33">
+        <v>7626.28</v>
+      </c>
+      <c r="E144" s="33">
+        <v>1372.73</v>
+      </c>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33">
+        <f t="shared" si="6"/>
+        <v>8999.01</v>
+      </c>
+      <c r="I144" s="33"/>
+      <c r="J144" s="32" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A145" s="37">
         <v>44991</v>
       </c>
-      <c r="B138" s="33" t="s">
+      <c r="B145" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C138" s="15" t="s">
+      <c r="C145" s="33" t="s">
         <v>579</v>
       </c>
-      <c r="D138" s="15">
+      <c r="D145" s="33">
         <v>32650</v>
       </c>
-      <c r="E138" s="15">
+      <c r="E145" s="33">
         <v>5677</v>
       </c>
-      <c r="F138" s="15"/>
-      <c r="G138" s="15"/>
-      <c r="H138" s="15">
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33">
         <f t="shared" si="6"/>
         <v>38327</v>
       </c>
-      <c r="I138" s="15"/>
-      <c r="J138" s="15" t="s">
+      <c r="I145" s="33"/>
+      <c r="J145" s="33" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="139" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A139" s="13">
+    <row r="146" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A146" s="37">
         <v>44991</v>
       </c>
-      <c r="B139" s="33" t="s">
+      <c r="B146" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C139" s="15" t="s">
+      <c r="C146" s="33" t="s">
         <v>580</v>
       </c>
-      <c r="D139" s="15">
+      <c r="D146" s="33">
         <v>43730</v>
       </c>
-      <c r="E139" s="15">
+      <c r="E146" s="33">
         <v>7871.4</v>
       </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15">
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33">
         <f t="shared" si="6"/>
         <v>51601.4</v>
       </c>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15" t="s">
+      <c r="I146" s="33"/>
+      <c r="J146" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="140" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A140" s="13">
+    <row r="147" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A147" s="37">
         <v>44993</v>
       </c>
-      <c r="B140" s="33" t="s">
+      <c r="B147" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="15" t="s">
+      <c r="C147" s="33" t="s">
         <v>581</v>
       </c>
-      <c r="D140" s="15">
+      <c r="D147" s="33">
         <v>550</v>
       </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15">
+      <c r="E147" s="33"/>
+      <c r="F147" s="33">
         <v>49.5</v>
       </c>
-      <c r="G140" s="15">
+      <c r="G147" s="33">
         <v>49.5</v>
       </c>
-      <c r="H140" s="15">
+      <c r="H147" s="33">
         <f t="shared" si="6"/>
         <v>649</v>
       </c>
-      <c r="I140" s="15"/>
-      <c r="J140" s="15" t="s">
+      <c r="I147" s="33"/>
+      <c r="J147" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="141" spans="1:10" s="137" customFormat="1" ht="15.6">
-      <c r="A141" s="13">
+    <row r="148" spans="1:10" s="137" customFormat="1" ht="15.6">
+      <c r="A148" s="37">
         <v>44995</v>
       </c>
-      <c r="B141" s="33" t="s">
+      <c r="B148" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C141" s="15" t="s">
+      <c r="C148" s="33" t="s">
         <v>595</v>
       </c>
-      <c r="D141" s="15">
+      <c r="D148" s="33">
         <v>25290</v>
       </c>
-      <c r="E141" s="15">
+      <c r="E148" s="33">
         <v>4552</v>
       </c>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
-      <c r="H141" s="15">
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33">
         <f t="shared" si="6"/>
         <v>29842</v>
       </c>
-      <c r="I141" s="15"/>
-      <c r="J141" s="15" t="s">
+      <c r="I148" s="33"/>
+      <c r="J148" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="142" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A142" s="13">
+    <row r="149" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A149" s="37">
         <v>44998</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B149" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="15" t="s">
+      <c r="C149" s="33" t="s">
         <v>599</v>
       </c>
-      <c r="D142" s="15">
+      <c r="D149" s="33">
         <v>5250</v>
       </c>
-      <c r="E142" s="15"/>
-      <c r="F142" s="15">
+      <c r="E149" s="33"/>
+      <c r="F149" s="33">
         <v>472.5</v>
       </c>
-      <c r="G142" s="15">
+      <c r="G149" s="33">
         <v>472.5</v>
       </c>
-      <c r="H142" s="15">
+      <c r="H149" s="33">
         <f t="shared" si="6"/>
         <v>6195</v>
       </c>
-      <c r="I142" s="15"/>
-      <c r="J142" s="15" t="s">
+      <c r="I149" s="33"/>
+      <c r="J149" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A143" s="13">
+    <row r="150" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A150" s="37">
         <v>44998</v>
       </c>
-      <c r="B143" s="33" t="s">
+      <c r="B150" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C143" s="15" t="s">
+      <c r="C150" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="D143" s="15">
+      <c r="D150" s="33">
         <v>22560</v>
       </c>
-      <c r="E143" s="15">
+      <c r="E150" s="33">
         <v>4060.8</v>
       </c>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
-      <c r="H143" s="15">
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33">
         <v>26621</v>
       </c>
-      <c r="I143" s="15"/>
-      <c r="J143" s="15" t="s">
+      <c r="I150" s="33"/>
+      <c r="J150" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A144" s="13">
+    <row r="151" spans="1:10" s="152" customFormat="1" ht="31.2">
+      <c r="A151" s="37">
+        <v>44998</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="C151" s="32">
+        <v>2881074131</v>
+      </c>
+      <c r="D151" s="33">
+        <v>960</v>
+      </c>
+      <c r="E151" s="33">
+        <v>48</v>
+      </c>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33">
+        <f>D151+E151+F151+G151</f>
+        <v>1008</v>
+      </c>
+      <c r="I151" s="33"/>
+      <c r="J151" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="145" customFormat="1" ht="15.6">
+      <c r="A152" s="37">
+        <v>45000</v>
+      </c>
+      <c r="B152" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="C152" s="32" t="s">
+        <v>613</v>
+      </c>
+      <c r="D152" s="33">
+        <v>36156.25</v>
+      </c>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33">
+        <v>2169.38</v>
+      </c>
+      <c r="G152" s="33">
+        <v>2169.38</v>
+      </c>
+      <c r="H152" s="33">
+        <v>40495</v>
+      </c>
+      <c r="I152" s="33"/>
+      <c r="J152" s="32" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A153" s="37">
         <v>45001</v>
       </c>
-      <c r="B144" s="33" t="s">
+      <c r="B153" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="C144" s="15">
+      <c r="C153" s="33">
         <v>4616</v>
       </c>
-      <c r="D144" s="15">
+      <c r="D153" s="33">
         <v>13080.48</v>
       </c>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15">
+      <c r="E153" s="33"/>
+      <c r="F153" s="33">
         <v>1177.24</v>
       </c>
-      <c r="G144" s="15">
+      <c r="G153" s="33">
         <v>1177.24</v>
       </c>
-      <c r="H144" s="15">
+      <c r="H153" s="33">
         <v>15435</v>
       </c>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15" t="s">
+      <c r="I153" s="33"/>
+      <c r="J153" s="33" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A145" s="13">
+    <row r="154" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A154" s="44">
         <v>45002</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B154" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C145" s="15">
+      <c r="C154" s="45">
         <v>4398</v>
       </c>
-      <c r="D145" s="15">
+      <c r="D154" s="45">
         <v>1186.5</v>
       </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15">
+      <c r="E154" s="45"/>
+      <c r="F154" s="45">
         <v>106.78</v>
       </c>
-      <c r="G145" s="15">
+      <c r="G154" s="45">
         <v>106.78</v>
       </c>
-      <c r="H145" s="15">
+      <c r="H154" s="45">
         <v>1400</v>
       </c>
-      <c r="I145" s="15"/>
-      <c r="J145" s="15" t="s">
+      <c r="I154" s="45"/>
+      <c r="J154" s="45" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="146" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A146" s="13">
+    <row r="155" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A155" s="37">
+        <v>45002</v>
+      </c>
+      <c r="B155" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C155" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="D155" s="33">
+        <v>508.47</v>
+      </c>
+      <c r="E155" s="33"/>
+      <c r="F155" s="33">
+        <v>45.76</v>
+      </c>
+      <c r="G155" s="33">
+        <v>45.76</v>
+      </c>
+      <c r="H155" s="33">
+        <v>600</v>
+      </c>
+      <c r="I155" s="33"/>
+      <c r="J155" s="40" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A156" s="50">
         <v>45003</v>
       </c>
-      <c r="B146" s="33" t="s">
+      <c r="B156" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C146" s="15">
+      <c r="C156" s="51">
         <v>2437</v>
       </c>
-      <c r="D146" s="15">
+      <c r="D156" s="51">
         <v>266.5</v>
       </c>
-      <c r="E146" s="15"/>
-      <c r="F146" s="15">
+      <c r="E156" s="51"/>
+      <c r="F156" s="51">
         <v>23.99</v>
       </c>
-      <c r="G146" s="15">
+      <c r="G156" s="51">
         <v>23.99</v>
       </c>
-      <c r="H146" s="15">
+      <c r="H156" s="51">
         <f t="shared" si="6"/>
         <v>314.48</v>
       </c>
-      <c r="I146" s="15"/>
-      <c r="J146" s="15" t="s">
+      <c r="I156" s="51"/>
+      <c r="J156" s="51" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A147" s="13">
+    <row r="157" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A157" s="37">
         <v>45003</v>
       </c>
-      <c r="B147" s="33" t="s">
+      <c r="B157" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C147" s="15">
+      <c r="C157" s="33">
         <v>2438</v>
       </c>
-      <c r="D147" s="15">
+      <c r="D157" s="33">
         <v>897.8</v>
       </c>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15">
+      <c r="E157" s="33"/>
+      <c r="F157" s="33">
         <v>80.8</v>
       </c>
-      <c r="G147" s="15">
+      <c r="G157" s="33">
         <v>80.8</v>
       </c>
-      <c r="H147" s="15">
+      <c r="H157" s="33">
         <f t="shared" si="6"/>
         <v>1059.3999999999999</v>
       </c>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15" t="s">
+      <c r="I157" s="33"/>
+      <c r="J157" s="33" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="148" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A148" s="13">
+    <row r="158" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A158" s="37">
         <v>45005</v>
       </c>
-      <c r="B148" s="33" t="s">
+      <c r="B158" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C148" s="15">
+      <c r="C158" s="33">
         <v>2084</v>
       </c>
-      <c r="D148" s="15">
+      <c r="D158" s="33">
         <v>13561</v>
       </c>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15">
+      <c r="E158" s="33"/>
+      <c r="F158" s="33">
         <v>1669</v>
       </c>
-      <c r="G148" s="15">
+      <c r="G158" s="33">
         <v>1669</v>
       </c>
-      <c r="H148" s="15">
+      <c r="H158" s="33">
         <f t="shared" si="6"/>
         <v>16899</v>
       </c>
-      <c r="I148" s="15"/>
-      <c r="J148" s="15" t="s">
+      <c r="I158" s="33"/>
+      <c r="J158" s="33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="149" spans="1:10" s="142" customFormat="1" ht="15.6">
-      <c r="A149" s="37">
+    <row r="159" spans="1:10" s="142" customFormat="1" ht="15.6">
+      <c r="A159" s="37">
         <v>45006</v>
       </c>
-      <c r="B149" s="33" t="s">
+      <c r="B159" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="C149" s="33" t="s">
+      <c r="C159" s="33" t="s">
         <v>605</v>
       </c>
-      <c r="D149" s="33">
+      <c r="D159" s="33">
         <v>3079</v>
       </c>
-      <c r="E149" s="33"/>
-      <c r="F149" s="33">
+      <c r="E159" s="33"/>
+      <c r="F159" s="33">
         <v>277.11</v>
       </c>
-      <c r="G149" s="33">
+      <c r="G159" s="33">
         <v>277.11</v>
       </c>
-      <c r="H149" s="33">
+      <c r="H159" s="33">
         <f t="shared" si="6"/>
         <v>3633.2200000000003</v>
       </c>
-      <c r="I149" s="33"/>
-      <c r="J149" s="33" t="s">
+      <c r="I159" s="33"/>
+      <c r="J159" s="33" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="150" spans="1:10" s="142" customFormat="1" ht="15.6">
-      <c r="A150" s="37">
+    <row r="160" spans="1:10" s="142" customFormat="1" ht="15.6">
+      <c r="A160" s="37">
         <v>45006</v>
       </c>
-      <c r="B150" s="33" t="s">
+      <c r="B160" s="33" t="s">
         <v>604</v>
       </c>
-      <c r="C150" s="33" t="s">
+      <c r="C160" s="33" t="s">
         <v>606</v>
       </c>
-      <c r="D150" s="33">
+      <c r="D160" s="33">
         <v>3165.14</v>
       </c>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33">
+      <c r="E160" s="33"/>
+      <c r="F160" s="33">
         <v>284.87</v>
       </c>
-      <c r="G150" s="33">
+      <c r="G160" s="33">
         <v>284.87</v>
       </c>
-      <c r="H150" s="33">
+      <c r="H160" s="33">
         <f t="shared" si="6"/>
         <v>3734.8799999999997</v>
       </c>
-      <c r="I150" s="33"/>
-      <c r="J150" s="33" t="s">
+      <c r="I160" s="33"/>
+      <c r="J160" s="33" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A151" s="37">
+    <row r="161" spans="1:10" s="145" customFormat="1" ht="15.6">
+      <c r="A161" s="37">
+        <v>45006</v>
+      </c>
+      <c r="B161" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C161" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="D161" s="33">
+        <v>2033.88</v>
+      </c>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33">
+        <v>183.05</v>
+      </c>
+      <c r="G161" s="33">
+        <v>183.05</v>
+      </c>
+      <c r="H161" s="33">
+        <v>2400</v>
+      </c>
+      <c r="I161" s="33"/>
+      <c r="J161" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A162" s="37">
         <v>45008</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B162" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C162" s="33" t="s">
         <v>603</v>
       </c>
-      <c r="D151" s="33">
+      <c r="D162" s="33">
         <v>5250</v>
       </c>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33">
+      <c r="E162" s="33"/>
+      <c r="F162" s="33">
         <v>472.5</v>
       </c>
-      <c r="G151" s="33">
+      <c r="G162" s="33">
         <v>472.5</v>
       </c>
-      <c r="H151" s="33">
+      <c r="H162" s="33">
         <f t="shared" si="6"/>
         <v>6195</v>
       </c>
-      <c r="I151" s="33"/>
-      <c r="J151" s="33" t="s">
+      <c r="I162" s="33"/>
+      <c r="J162" s="33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="152" spans="1:10" s="143" customFormat="1" ht="15.6">
-      <c r="A152" s="37">
+    <row r="163" spans="1:10" s="144" customFormat="1" ht="15.6">
+      <c r="A163" s="37">
+        <v>45008</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>607</v>
+      </c>
+      <c r="D163" s="33">
+        <v>32855</v>
+      </c>
+      <c r="E163" s="33">
+        <v>5913</v>
+      </c>
+      <c r="F163" s="33"/>
+      <c r="G163" s="33"/>
+      <c r="H163" s="33">
+        <v>38769</v>
+      </c>
+      <c r="I163" s="33"/>
+      <c r="J163" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="143" customFormat="1" ht="15.6">
+      <c r="A164" s="37">
         <v>45009</v>
       </c>
-      <c r="B152" s="33" t="s">
+      <c r="B164" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="C152" s="33">
+      <c r="C164" s="33">
         <v>4729</v>
       </c>
-      <c r="D152" s="33">
+      <c r="D164" s="33">
         <v>16118.62</v>
       </c>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33">
+      <c r="E164" s="33"/>
+      <c r="F164" s="33">
         <v>1450.67</v>
       </c>
-      <c r="G152" s="33">
+      <c r="G164" s="33">
         <v>1450.67</v>
       </c>
-      <c r="H152" s="33">
+      <c r="H164" s="33">
         <v>19020</v>
       </c>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33" t="s">
+      <c r="I164" s="33"/>
+      <c r="J164" s="33" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="143" customFormat="1" ht="15.6">
-      <c r="A153" s="37"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
-    </row>
-    <row r="154" spans="1:10" s="141" customFormat="1" ht="15.6">
-      <c r="A154" s="13"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="15"/>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
-      <c r="F154" s="15"/>
-      <c r="G154" s="15"/>
-      <c r="H154" s="33">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I154" s="15"/>
-      <c r="J154" s="15"/>
-    </row>
-    <row r="155" spans="1:10" ht="21">
-      <c r="A155" s="159" t="s">
+    <row r="165" spans="1:10" s="143" customFormat="1" ht="15.6">
+      <c r="A165" s="37">
+        <v>45009</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="D165" s="33">
+        <v>8424</v>
+      </c>
+      <c r="E165" s="33">
+        <v>1516.32</v>
+      </c>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33">
+        <v>9940</v>
+      </c>
+      <c r="I165" s="33"/>
+      <c r="J165" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A166" s="37">
+        <v>45009</v>
+      </c>
+      <c r="B166" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="C166" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="D166" s="33">
+        <v>990.9</v>
+      </c>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33">
+        <v>89.18</v>
+      </c>
+      <c r="G166" s="33">
+        <v>89.18</v>
+      </c>
+      <c r="H166" s="33">
+        <f>D166+E166+F166+G166</f>
+        <v>1169.26</v>
+      </c>
+      <c r="I166" s="33"/>
+      <c r="J166" s="32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="141" customFormat="1" ht="15.6">
+      <c r="A167" s="37">
+        <v>45013</v>
+      </c>
+      <c r="B167" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C167" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="D167" s="33">
+        <v>74360</v>
+      </c>
+      <c r="E167" s="33">
+        <v>13384.8</v>
+      </c>
+      <c r="F167" s="33"/>
+      <c r="G167" s="33"/>
+      <c r="H167" s="33">
+        <v>87745</v>
+      </c>
+      <c r="I167" s="33"/>
+      <c r="J167" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="144" customFormat="1" ht="15.6">
+      <c r="A168" s="37">
+        <v>45014</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C168" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="D168" s="33">
+        <v>1122.9000000000001</v>
+      </c>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33">
+        <v>101.06</v>
+      </c>
+      <c r="G168" s="33">
+        <v>101.06</v>
+      </c>
+      <c r="H168" s="33">
+        <v>1325</v>
+      </c>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="145" customFormat="1" ht="15.6">
+      <c r="A169" s="37">
+        <v>45014</v>
+      </c>
+      <c r="B169" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="C169" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="D169" s="33">
+        <v>2731.99</v>
+      </c>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33">
+        <v>324</v>
+      </c>
+      <c r="G169" s="33">
+        <v>324</v>
+      </c>
+      <c r="H169" s="33">
+        <v>3380</v>
+      </c>
+      <c r="I169" s="33"/>
+      <c r="J169" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A170" s="37">
+        <v>45015</v>
+      </c>
+      <c r="B170" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C170" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="D170" s="33">
+        <v>33000</v>
+      </c>
+      <c r="E170" s="33">
+        <v>5940</v>
+      </c>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33">
+        <f>D170+E170+F170+G170</f>
+        <v>38940</v>
+      </c>
+      <c r="I170" s="33"/>
+      <c r="J170" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="152" customFormat="1" ht="15.6">
+      <c r="A171" s="37">
+        <v>45015</v>
+      </c>
+      <c r="B171" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="C171" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="D171" s="33">
+        <v>55500</v>
+      </c>
+      <c r="E171" s="33">
+        <v>9990</v>
+      </c>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="33">
+        <f>D171+E171+F171+G171</f>
+        <v>65490</v>
+      </c>
+      <c r="I171" s="33"/>
+      <c r="J171" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="146" customFormat="1" ht="15.6">
+      <c r="A172" s="37">
+        <v>45016</v>
+      </c>
+      <c r="B172" s="32" t="s">
+        <v>618</v>
+      </c>
+      <c r="C172" s="32">
+        <v>600</v>
+      </c>
+      <c r="D172" s="33">
+        <v>1778.7</v>
+      </c>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="G172" s="33">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="H172" s="33">
+        <v>2099</v>
+      </c>
+      <c r="I172" s="33"/>
+      <c r="J172" s="32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="150" customFormat="1" ht="15.6">
+      <c r="A173" s="37">
+        <v>45016</v>
+      </c>
+      <c r="B173" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="D173" s="33">
+        <v>37922.5</v>
+      </c>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="G173" s="33">
+        <v>3413.03</v>
+      </c>
+      <c r="H173" s="33">
+        <f>D173+E173+F173+G173</f>
+        <v>44748.56</v>
+      </c>
+      <c r="I173" s="33"/>
+      <c r="J173" s="32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="21">
+      <c r="A174" s="168" t="s">
         <v>35</v>
       </c>
-      <c r="B155" s="159"/>
-      <c r="C155" s="159"/>
-      <c r="D155" s="19">
-        <f>SUM(D134:D154)</f>
-        <v>220819.34</v>
-      </c>
-      <c r="E155" s="19">
-        <f>SUM(E134:E154)</f>
-        <v>27734.999999999996</v>
-      </c>
-      <c r="F155" s="19">
-        <f>SUM(F134:F154)</f>
-        <v>6354.65</v>
-      </c>
-      <c r="G155" s="19">
-        <f>SUM(G134:G154)</f>
-        <v>6354.65</v>
-      </c>
-      <c r="H155" s="19">
-        <f>SUM(H134:H154)</f>
-        <v>261263.86000000002</v>
-      </c>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-    </row>
-    <row r="157" spans="1:10" s="107" customFormat="1">
-      <c r="A157" s="108">
+      <c r="B174" s="168"/>
+      <c r="C174" s="168"/>
+      <c r="D174" s="19">
+        <f>SUM(D133:D173)</f>
+        <v>580246.90999999992</v>
+      </c>
+      <c r="E174" s="19">
+        <f>SUM(E133:E173)</f>
+        <v>72030.070000000007</v>
+      </c>
+      <c r="F174" s="19">
+        <f>SUM(F133:F173)</f>
+        <v>15579.92</v>
+      </c>
+      <c r="G174" s="19">
+        <f>SUM(G133:G173)</f>
+        <v>15579.92</v>
+      </c>
+      <c r="H174" s="19">
+        <f>SUM(H133:H173)</f>
+        <v>683438.86999999988</v>
+      </c>
+      <c r="I174" s="19"/>
+      <c r="J174" s="19"/>
+    </row>
+    <row r="176" spans="1:10" s="107" customFormat="1">
+      <c r="A176" s="108">
         <v>44841</v>
       </c>
-      <c r="B157" s="109" t="s">
+      <c r="B176" s="109" t="s">
         <v>453</v>
       </c>
-      <c r="C157" s="109" t="s">
+      <c r="C176" s="109" t="s">
         <v>452</v>
       </c>
-      <c r="D157" s="36">
+      <c r="D176" s="36">
         <v>55015</v>
       </c>
-      <c r="E157" s="36"/>
-      <c r="F157" s="36">
+      <c r="E176" s="36"/>
+      <c r="F176" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="G157" s="36">
+      <c r="G176" s="36">
         <v>4951.3500000000004</v>
       </c>
-      <c r="H157" s="36">
-        <f>D157+E157+F157+G157</f>
+      <c r="H176" s="36">
+        <f>D176+E176+F176+G176</f>
         <v>64917.7</v>
       </c>
     </row>
-    <row r="158" spans="1:10" s="107" customFormat="1">
-      <c r="A158" s="110"/>
-    </row>
-    <row r="159" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
-      <c r="A159" s="31">
+    <row r="177" spans="1:10" s="107" customFormat="1">
+      <c r="A177" s="110"/>
+    </row>
+    <row r="178" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1">
+      <c r="A178" s="31">
         <v>44932</v>
       </c>
-      <c r="B159" s="32" t="s">
+      <c r="B178" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C159" s="32" t="s">
+      <c r="C178" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="D159" s="32">
+      <c r="D178" s="32">
         <v>900</v>
       </c>
-      <c r="E159" s="32"/>
-      <c r="F159" s="32">
+      <c r="E178" s="32"/>
+      <c r="F178" s="32">
         <v>81</v>
       </c>
-      <c r="G159" s="32">
+      <c r="G178" s="32">
         <v>81</v>
       </c>
-      <c r="H159" s="32">
-        <f>D159+E159+F159+G159</f>
+      <c r="H178" s="32">
+        <f>D178+E178+F178+G178</f>
         <v>1062</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="62" customFormat="1" ht="15.6">
-      <c r="A161" s="20">
+    <row r="180" spans="1:10" s="62" customFormat="1" ht="15.6">
+      <c r="A180" s="20">
         <v>44840</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B180" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="21" t="s">
+      <c r="C180" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="D161" s="21">
+      <c r="D180" s="21">
         <v>1850</v>
       </c>
-      <c r="E161" s="21"/>
-      <c r="F161" s="21">
+      <c r="E180" s="21"/>
+      <c r="F180" s="21">
         <v>166.5</v>
       </c>
-      <c r="G161" s="21">
+      <c r="G180" s="21">
         <v>166.5</v>
       </c>
-      <c r="H161" s="14">
-        <f>D161+E161+F161+G161</f>
+      <c r="H180" s="14">
+        <f>D180+E180+F180+G180</f>
         <v>2183</v>
       </c>
-      <c r="I161" s="7"/>
-      <c r="J161" s="7"/>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="D165" s="18">
-        <f>D17+D131+D164</f>
-        <v>3341683</v>
-      </c>
-    </row>
-    <row r="314" spans="12:12">
-      <c r="L314" s="18" t="s">
+      <c r="I180" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="J180" s="7"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.6">
+      <c r="I181" s="7"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.6">
+      <c r="A182" s="31">
+        <v>44965</v>
+      </c>
+      <c r="B182" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="D182" s="32">
+        <v>7200</v>
+      </c>
+      <c r="E182" s="32"/>
+      <c r="F182" s="32">
+        <v>648</v>
+      </c>
+      <c r="G182" s="32">
+        <v>648</v>
+      </c>
+      <c r="H182" s="32">
+        <f>D182+E182+F182+G182</f>
+        <v>8496</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="J182" s="7"/>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="D184" s="18">
+        <f>D17+D130+D183</f>
+        <v>3334483</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="C191" s="148"/>
+    </row>
+    <row r="333" spans="12:12">
+      <c r="L333" s="18" t="s">
         <v>574</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="A132:J132"/>
-    <mergeCell ref="A155:C155"/>
+    <mergeCell ref="A71:J71"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A131:J131"/>
+    <mergeCell ref="A174:C174"/>
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="A83:J83"/>
     <mergeCell ref="A115:C115"/>
     <mergeCell ref="A117:J117"/>
     <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A71:J71"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A69:C69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
